--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23287" windowHeight="13080" tabRatio="728"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -2740,10 +2740,10 @@
     <t>RWin /</t>
   </si>
   <si>
-    <t>RWin PgUp</t>
-  </si>
-  <si>
-    <t>RWin PgDn</t>
+    <t>RWin [</t>
+  </si>
+  <si>
+    <t>RWin ]</t>
   </si>
   <si>
     <t>RWin =</t>
@@ -2865,10 +2865,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2908,8 +2908,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2924,7 +2977,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2939,38 +2992,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2985,61 +3032,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3067,7 +3067,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,13 +3121,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,61 +3163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3169,7 +3175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3187,19 +3211,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3211,43 +3247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3419,13 +3419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3435,24 +3439,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3473,21 +3459,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3498,6 +3469,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3516,6 +3507,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3524,10 +3524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3536,133 +3536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4308,8 +4308,8 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -8929,8 +8929,8 @@
   <sheetPr/>
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>773</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>774</v>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728" activeTab="8"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>系统设置</t>
   </si>
   <si>
-    <t>O/K/L/;</t>
+    <t>P/;/L/'</t>
   </si>
   <si>
     <t>鼠标移动（9）</t>
@@ -2866,9 +2866,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2902,22 +2902,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2953,6 +2952,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2962,15 +2968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3023,8 +3021,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,8 +3037,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3067,7 +3067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,7 +3103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,7 +3115,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,13 +3217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3121,19 +3229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3145,109 +3241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3419,21 +3419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3475,11 +3460,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3489,6 +3472,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3508,11 +3502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3524,145 +3524,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4308,8 +4308,8 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -8929,7 +8929,7 @@
   <sheetPr/>
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728"/>
+    <workbookView windowWidth="23227" windowHeight="13080" tabRatio="728" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="848">
   <si>
     <t>Dexpot LWin</t>
   </si>
@@ -1536,55 +1536,83 @@
     <t>停止加载网页</t>
   </si>
   <si>
+    <t>Ctrl Shift b</t>
+  </si>
+  <si>
     <t>显示或隐藏书签栏</t>
   </si>
   <si>
-    <t>Ctrl Shift b</t>
+    <t>Chrome / Bilibili</t>
   </si>
   <si>
     <t>在新标签页中打开 Chrome 帮助中心</t>
   </si>
   <si>
+    <t>Ctrl Shift o</t>
+  </si>
+  <si>
     <t>打开书签管理器</t>
   </si>
   <si>
-    <t>Ctrl Shift o</t>
+    <t>扩展添加的快捷键
+哔哩哔哩(Bilibili)播放器扩展</t>
+  </si>
+  <si>
+    <t>官方自带的快捷键</t>
   </si>
   <si>
     <t>将焦点移到未聚焦于的对话框（如果显示）或所有工具栏</t>
   </si>
   <si>
+    <t>Ctrl h</t>
+  </si>
+  <si>
     <t>在新标签页中打开“历史记录”页</t>
   </si>
   <si>
-    <t>Ctrl h</t>
+    <t>F12 / Ctrl Shift j</t>
   </si>
   <si>
     <t xml:space="preserve">打开 开发者工具 </t>
   </si>
   <si>
-    <t>F12 / Ctrl Shift j</t>
+    <t>Ctrl j</t>
   </si>
   <si>
     <t>在新标签页中打开“下载内容”页</t>
   </si>
   <si>
-    <t>Ctrl j</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>开启或关闭弹幕</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>短快进</t>
+  </si>
+  <si>
+    <t>F3 / Ctrl f</t>
   </si>
   <si>
     <t>打开查找栏搜索当前网页</t>
   </si>
   <si>
-    <t>F3 / Ctrl f</t>
+    <t>Ctrl d</t>
   </si>
   <si>
     <t>将当前网页保存为书签</t>
   </si>
   <si>
-    <t>Ctrl d</t>
-  </si>
-  <si>
-    <t>重新加载当前网页</t>
+    <t>开启或关闭全屏模式</t>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>短后退</t>
   </si>
   <si>
     <r>
@@ -1609,13 +1637,25 @@
     </r>
   </si>
   <si>
+    <t>重新加载当前网页</t>
+  </si>
+  <si>
+    <t>Ctrl Shift d</t>
+  </si>
+  <si>
     <t>将所有打开的标签页以书签的形式保存在新文件夹中</t>
   </si>
   <si>
-    <t>Ctrl Shift d</t>
-  </si>
-  <si>
-    <t>跳转到地址栏</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>开启或关闭网页全屏模式</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>增加音量</t>
   </si>
   <si>
     <r>
@@ -1640,28 +1680,71 @@
     </r>
   </si>
   <si>
+    <t>跳转到地址栏</t>
+  </si>
+  <si>
+    <t>Ctrl p</t>
+  </si>
+  <si>
     <t>打开选项以打印当前网页</t>
   </si>
   <si>
-    <t>Ctrl p</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>开启或关闭宽屏模式</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>减小音量</t>
   </si>
   <si>
     <t>将焦点放置在 Chrome 工具栏中最右侧的那一项上</t>
   </si>
   <si>
+    <t>Ctrl s</t>
+  </si>
+  <si>
     <t>打开选项以保存当前网页</t>
   </si>
   <si>
-    <t>Ctrl s</t>
-  </si>
-  <si>
-    <t>开启或关闭全屏模式</t>
+    <t>退出全屏</t>
+  </si>
+  <si>
+    <t>Ctrl +</t>
   </si>
   <si>
     <t>放大网页上的所有内容</t>
   </si>
   <si>
-    <t>Ctrl +</t>
+    <t>Shift J</t>
+  </si>
+  <si>
+    <t>长后退</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">输入网站名 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ctrl Enter</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1716,47 +1799,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">输入网站名 -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3C4043"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ctrl Enter</t>
-    </r>
+    <t>Ctrl -</t>
   </si>
   <si>
     <t>缩小网页上的所有内容</t>
   </si>
   <si>
-    <t>Ctrl -</t>
+    <t>播放上一个视频(如果有的话)</t>
+  </si>
+  <si>
+    <t>输入搜索字词并按 -&gt; Alt Enter</t>
   </si>
   <si>
     <t>打开新的标签页并执行 Google 搜索</t>
   </si>
   <si>
-    <t>输入搜索字词并按 -&gt; Alt Enter</t>
+    <t>Ctrl 0</t>
   </si>
   <si>
     <t>将网页上的所有内容恢复到默认大小</t>
   </si>
   <si>
-    <t>Ctrl 0</t>
-  </si>
-  <si>
-    <t>重新加载当前网页（忽略缓存的内容）</t>
+    <t>播放下一个视频(如果有的话)</t>
   </si>
   <si>
     <r>
@@ -1781,34 +1845,55 @@
     </r>
   </si>
   <si>
+    <t>重新加载当前网页（忽略缓存的内容）</t>
+  </si>
+  <si>
+    <t>Ctrl g</t>
+  </si>
+  <si>
     <t>跳转到与查找栏中搜索字词相匹配的下一条内容</t>
   </si>
   <si>
-    <t>Ctrl g</t>
+    <t>Shift L</t>
+  </si>
+  <si>
+    <t>长快进</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>输入弹幕</t>
+  </si>
+  <si>
+    <t>Shift Esc</t>
   </si>
   <si>
     <t>打开 Chrome 任务管理器</t>
   </si>
   <si>
-    <t>Shift Esc</t>
+    <t>Ctrl Shift g</t>
   </si>
   <si>
     <t>跳转到与查找栏中搜索字词相匹配的上一条内容</t>
   </si>
   <si>
-    <t>Ctrl Shift g</t>
+    <t>静音</t>
+  </si>
+  <si>
+    <t>Ctrl Shift Delete</t>
   </si>
   <si>
     <t>打开 清除浏览数据 选项</t>
   </si>
   <si>
-    <t>Ctrl Shift Delete</t>
-  </si>
-  <si>
     <t>浏览下一个可点击项</t>
   </si>
   <si>
-    <t>打开 Chrome 菜单</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>播放下一个视频 (如果有的话)</t>
   </si>
   <si>
     <r>
@@ -1833,25 +1918,34 @@
     </r>
   </si>
   <si>
+    <t>打开 Chrome 菜单</t>
+  </si>
+  <si>
+    <t>Shift Tab</t>
+  </si>
+  <si>
     <t>浏览上一个可点击项</t>
   </si>
   <si>
-    <t>Shift Tab</t>
+    <t>开启或关闭画中画模式 (PiP)</t>
+  </si>
+  <si>
+    <t>Shift Alt T</t>
   </si>
   <si>
     <t>将焦点放置在 Chrome 工具栏中的第一项上</t>
   </si>
   <si>
-    <t>Shift Alt T</t>
+    <t>首页</t>
   </si>
   <si>
     <t>转到网页顶部</t>
   </si>
   <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>从页面中的任意位置搜索</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>关灯或开灯</t>
   </si>
   <si>
     <r>
@@ -1876,49 +1970,64 @@
     </r>
   </si>
   <si>
+    <t>从页面中的任意位置搜索</t>
+  </si>
+  <si>
+    <t>末尾</t>
+  </si>
+  <si>
     <t>转到网页底部</t>
   </si>
   <si>
-    <t>末尾</t>
+    <t>开启或关闭字幕</t>
+  </si>
+  <si>
+    <t>Shift Delete</t>
   </si>
   <si>
     <t>从地址栏中移除联想查询内容</t>
   </si>
   <si>
-    <t>Shift Delete</t>
+    <t>Ctrl 向左箭头键</t>
   </si>
   <si>
     <t>将光标移到文本字段中的上一个字词起始处</t>
   </si>
   <si>
-    <t>Ctrl 向左箭头键</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>播放速度 +0.25 (最大为 5)</t>
+  </si>
+  <si>
+    <t>Ctrl O -&gt; 选择文件</t>
   </si>
   <si>
     <t>使用 Chrome 打开计算机中的文件</t>
   </si>
   <si>
-    <t>Ctrl O -&gt; 选择文件</t>
+    <t>Ctrl 向右箭头键</t>
   </si>
   <si>
     <t>将光标移到下一个字词起始处</t>
   </si>
   <si>
-    <t>Ctrl 向右箭头键</t>
+    <t>播放速度 -0.25 (最小为 0.25)</t>
+  </si>
+  <si>
+    <t>Ctrl U</t>
   </si>
   <si>
     <t>显示当前网页的 HTML 源代码（不可修改）</t>
   </si>
   <si>
-    <t>Ctrl U</t>
+    <t>Ctrl Backspace</t>
   </si>
   <si>
     <t>删除文本字段中的上一个字词</t>
   </si>
   <si>
-    <t>Ctrl Backspace</t>
-  </si>
-  <si>
-    <t>在网页上水平滚动</t>
+    <t>恢复正常播放速度</t>
   </si>
   <si>
     <r>
@@ -1943,16 +2052,25 @@
     </r>
   </si>
   <si>
+    <t>在网页上水平滚动</t>
+  </si>
+  <si>
     <t>在当前标签页中打开主页</t>
   </si>
   <si>
+    <t>Shift S</t>
+  </si>
+  <si>
+    <t>视频截图 (截图不含弹幕)</t>
+  </si>
+  <si>
+    <t>长按 后退/前进 箭头 </t>
+  </si>
+  <si>
     <t>显示浏览记录</t>
   </si>
   <si>
-    <t>长按 后退/前进 箭头 </t>
-  </si>
-  <si>
-    <t>下载链接目标</t>
+    <t>上一帧 (视频暂停时可用)</t>
   </si>
   <si>
     <r>
@@ -1977,7 +2095,7 @@
     </r>
   </si>
   <si>
-    <t>向下滚动网页，一次一个屏幕</t>
+    <t>下载链接目标</t>
   </si>
   <si>
     <r>
@@ -2002,7 +2120,10 @@
     </r>
   </si>
   <si>
-    <t>向上滚动网页，一次一个屏幕</t>
+    <t>向下滚动网页，一次一个屏幕</t>
+  </si>
+  <si>
+    <t>下一帧 (视频暂停时可用)</t>
   </si>
   <si>
     <r>
@@ -2027,19 +2148,23 @@
     </r>
   </si>
   <si>
+    <t>向上滚动网页，一次一个屏幕</t>
+  </si>
+  <si>
+    <t>在新番时间表页面中
+隐藏或显示仅限其它地区播放的视频</t>
+  </si>
+  <si>
+    <t>将链接拖到标签页中</t>
+  </si>
+  <si>
     <t>在当前标签页中打开链接（仅限鼠标）</t>
   </si>
   <si>
-    <t>将链接拖到标签页中</t>
+    <t>Ctrl Shift n</t>
   </si>
   <si>
     <t>在无痕模式下打开新窗口</t>
-  </si>
-  <si>
-    <t>Ctrl Shift n</t>
-  </si>
-  <si>
-    <t>在新的后台标签页中打开链接</t>
   </si>
   <si>
     <r>
@@ -2064,13 +2189,13 @@
     </r>
   </si>
   <si>
+    <t>在新的后台标签页中打开链接</t>
+  </si>
+  <si>
+    <t>Ctrl t</t>
+  </si>
+  <si>
     <t>打开新的标签页，并跳转到该标签页</t>
-  </si>
-  <si>
-    <t>Ctrl t</t>
-  </si>
-  <si>
-    <t>在新窗口中打开链接</t>
   </si>
   <si>
     <r>
@@ -2095,13 +2220,13 @@
     </r>
   </si>
   <si>
+    <t>在新窗口中打开链接</t>
+  </si>
+  <si>
+    <t>Ctrl Shift t</t>
+  </si>
+  <si>
     <t>按标签页的关闭顺序重新打开先前关闭的标签页</t>
-  </si>
-  <si>
-    <t>Ctrl Shift t</t>
-  </si>
-  <si>
-    <t>打开链接，并跳转到该链接</t>
   </si>
   <si>
     <r>
@@ -2126,7 +2251,7 @@
     </r>
   </si>
   <si>
-    <t>跳转到下一个打开的标签页</t>
+    <t>打开链接，并跳转到该链接</t>
   </si>
   <si>
     <r>
@@ -2151,7 +2276,7 @@
     </r>
   </si>
   <si>
-    <t>跳转到上一个打开的标签页</t>
+    <t>跳转到下一个打开的标签页</t>
   </si>
   <si>
     <r>
@@ -2176,13 +2301,13 @@
     </r>
   </si>
   <si>
+    <t>跳转到上一个打开的标签页</t>
+  </si>
+  <si>
+    <t>Ctrl Shift M</t>
+  </si>
+  <si>
     <t>使用其他帐号登录或以访客身份浏览</t>
-  </si>
-  <si>
-    <t>Ctrl Shift M</t>
-  </si>
-  <si>
-    <t>关闭当前标签页</t>
   </si>
   <si>
     <r>
@@ -2207,7 +2332,7 @@
     </r>
   </si>
   <si>
-    <t>关闭当前窗口</t>
+    <t>关闭当前标签页</t>
   </si>
   <si>
     <r>
@@ -2232,7 +2357,7 @@
     </r>
   </si>
   <si>
-    <t>跳转到特定标签页</t>
+    <t>关闭当前窗口</t>
   </si>
   <si>
     <r>
@@ -2257,33 +2382,33 @@
     </r>
   </si>
   <si>
+    <t>跳转到特定标签页</t>
+  </si>
+  <si>
+    <t>Ctrl 9</t>
+  </si>
+  <si>
     <t>跳转到最右侧的那个标签页</t>
   </si>
   <si>
-    <t>Ctrl 9</t>
+    <t>Alt 向左箭头键</t>
   </si>
   <si>
     <t>打开当前标签页浏览记录中记录的上一个页面</t>
   </si>
   <si>
-    <t>Alt 向左箭头键</t>
+    <t>Alt 向右箭头键</t>
   </si>
   <si>
     <t>打开当前标签页浏览记录中记录的下一个页面</t>
   </si>
   <si>
-    <t>Alt 向右箭头键</t>
-  </si>
-  <si>
     <t>关于</t>
   </si>
   <si>
     <t>上一帧</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>图像属性复位</t>
   </si>
   <si>
@@ -2302,9 +2427,6 @@
     <t>亮度-1%</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>截存当前实画面</t>
   </si>
   <si>
@@ -2356,15 +2478,9 @@
     <t>步退5秒</t>
   </si>
   <si>
-    <t>←</t>
-  </si>
-  <si>
     <t>对比度+1%</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>复制当前源画面</t>
   </si>
   <si>
@@ -2374,9 +2490,6 @@
     <t>步进5秒</t>
   </si>
   <si>
-    <t>→</t>
-  </si>
-  <si>
     <t>饱和度-1%</t>
   </si>
   <si>
@@ -2413,9 +2526,6 @@
     <t>色彩度-1%</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>步退30秒</t>
   </si>
   <si>
@@ -2846,9 +2956,6 @@
   </si>
   <si>
     <t>打开消息</t>
-  </si>
-  <si>
-    <t>Enter</t>
   </si>
   <si>
     <t>上页(浏览器)</t>
@@ -2867,10 +2974,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2884,6 +2991,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2902,21 +3015,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2937,23 +3090,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2967,18 +3106,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3005,41 +3137,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3052,7 +3165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3062,6 +3175,150 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,31 +3336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3115,61 +3354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3181,78 +3366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3381,6 +3500,32 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -3404,26 +3549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3439,6 +3575,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3460,9 +3620,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3478,41 +3640,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3524,10 +3654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3536,137 +3666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3766,25 +3896,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3793,11 +3932,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3832,22 +4022,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3871,49 +4061,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3952,7 +4142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -4308,29 +4498,29 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.60176991150442" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="66" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="86" customWidth="1"/>
     <col min="4" max="4" width="1.60176991150442" style="12" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
     <col min="7" max="7" width="1.60176991150442" style="12" customWidth="1"/>
     <col min="8" max="8" width="7.04424778761062" style="12" customWidth="1"/>
     <col min="9" max="9" width="7.90265486725664" style="12" customWidth="1"/>
     <col min="10" max="10" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.60176991150442" style="67" customWidth="1"/>
+    <col min="11" max="11" width="1.60176991150442" style="87" customWidth="1"/>
     <col min="12" max="12" width="1.60176991150442" style="12" customWidth="1"/>
     <col min="13" max="13" width="3.6283185840708" style="11" customWidth="1"/>
     <col min="14" max="14" width="5.74336283185841" style="12" customWidth="1"/>
     <col min="15" max="15" width="7.53982300884956" style="12" customWidth="1"/>
     <col min="16" max="16" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="17" max="17" width="1.60176991150442" style="67" customWidth="1"/>
+    <col min="17" max="17" width="1.60176991150442" style="87" customWidth="1"/>
     <col min="18" max="18" width="1.60176991150442" style="12" customWidth="1"/>
     <col min="19" max="19" width="3.25663716814159" style="11" customWidth="1"/>
     <col min="20" max="20" width="10.929203539823" style="12" customWidth="1"/>
@@ -4343,33 +4533,33 @@
     </row>
     <row r="2" customHeight="1" spans="1:20">
       <c r="A2" s="11"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="C2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="H2" s="70" t="s">
+      <c r="F2" s="91"/>
+      <c r="H2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
-      <c r="M2" s="70" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="M2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="71"/>
-      <c r="S2" s="89" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="91"/>
+      <c r="S2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="90"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="11"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4381,23 +4571,23 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="92" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="79"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="99"/>
+      <c r="M3" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="82"/>
-      <c r="S3" s="91" t="s">
+      <c r="N3" s="101"/>
+      <c r="O3" s="102"/>
+      <c r="S3" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="92"/>
+      <c r="T3" s="112"/>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="11"/>
@@ -4407,7 +4597,7 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
@@ -4478,7 +4668,7 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="114" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -4490,8 +4680,8 @@
       <c r="I6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="79"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="99"/>
       <c r="M6" s="24" t="s">
         <v>40</v>
       </c>
@@ -4532,10 +4722,10 @@
       <c r="O7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="75" t="s">
+      <c r="T7" s="95" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4547,7 +4737,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="114" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -4559,8 +4749,8 @@
       <c r="I8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
       <c r="M8" s="24" t="s">
         <v>59</v>
       </c>
@@ -4595,8 +4785,8 @@
       <c r="I9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
       <c r="M9" s="24" t="s">
         <v>67</v>
       </c>
@@ -4646,8 +4836,8 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:20">
-      <c r="B11" s="74"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>77</v>
@@ -4655,8 +4845,8 @@
       <c r="F11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="M11" s="24" t="s">
         <v>82</v>
       </c>
@@ -4672,10 +4862,10 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:20">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="95" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="11"/>
@@ -4685,12 +4875,12 @@
       <c r="F12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
       <c r="M12" s="26" t="s">
         <v>91</v>
       </c>
@@ -4767,10 +4957,10 @@
       <c r="F15" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="69"/>
+      <c r="I15" s="89"/>
       <c r="S15" s="24" t="s">
         <v>111</v>
       </c>
@@ -4856,12 +5046,12 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="8:20">
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="85"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="105"/>
       <c r="S20" s="24" t="s">
         <v>88</v>
       </c>
@@ -4873,7 +5063,7 @@
       <c r="H21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="86" t="s">
+      <c r="I21" s="106" t="s">
         <v>134</v>
       </c>
       <c r="S21" s="24" t="s">
@@ -4887,11 +5077,11 @@
       <c r="H22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="88"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="108"/>
       <c r="S22" s="26" t="s">
         <v>7</v>
       </c>
@@ -4900,22 +5090,22 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="10:20">
-      <c r="J23" s="73"/>
-      <c r="K23" s="88"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="108"/>
       <c r="T23" s="11"/>
     </row>
     <row r="24" customHeight="1" spans="20:20">
       <c r="T24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="8:20">
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
       <c r="T25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="8:20">
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="53"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="73"/>
       <c r="T26" s="11"/>
     </row>
     <row r="27" customHeight="1" spans="20:20">
@@ -4925,34 +5115,34 @@
       <c r="T28" s="11"/>
     </row>
     <row r="32" customHeight="1" spans="20:20">
-      <c r="T32" s="53"/>
+      <c r="T32" s="73"/>
     </row>
     <row r="33" customHeight="1" spans="20:20">
-      <c r="T33" s="53"/>
+      <c r="T33" s="73"/>
     </row>
     <row r="34" customHeight="1" spans="20:20">
-      <c r="T34" s="53"/>
+      <c r="T34" s="73"/>
     </row>
     <row r="35" customHeight="1" spans="20:20">
-      <c r="T35" s="53"/>
+      <c r="T35" s="73"/>
     </row>
     <row r="36" customHeight="1" spans="20:20">
-      <c r="T36" s="53"/>
+      <c r="T36" s="73"/>
     </row>
     <row r="37" customHeight="1" spans="20:20">
-      <c r="T37" s="53"/>
+      <c r="T37" s="73"/>
     </row>
     <row r="39" customHeight="1" spans="20:20">
-      <c r="T39" s="53"/>
+      <c r="T39" s="73"/>
     </row>
     <row r="40" customHeight="1" spans="20:20">
-      <c r="T40" s="53"/>
+      <c r="T40" s="73"/>
     </row>
     <row r="41" customHeight="1" spans="20:20">
-      <c r="T41" s="53"/>
+      <c r="T41" s="73"/>
     </row>
     <row r="42" customHeight="1" spans="20:20">
-      <c r="T42" s="53"/>
+      <c r="T42" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4997,27 +5187,27 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>784</v>
+        <v>820</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>785</v>
+        <v>821</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>399</v>
@@ -5025,13 +5215,13 @@
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>424</v>
@@ -5039,13 +5229,13 @@
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>195</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>405</v>
@@ -5055,21 +5245,21 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>484</v>
@@ -5077,37 +5267,37 @@
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -5117,7 +5307,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
@@ -5125,13 +5315,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -5139,7 +5329,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>82</v>
@@ -5149,13 +5339,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>809</v>
+        <v>568</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -5163,10 +5353,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -5196,34 +5386,34 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="58" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="78" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="55"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79" t="s">
         <v>140</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="81" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5234,7 +5424,7 @@
       <c r="C6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="81" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="13"/>
@@ -5242,13 +5432,13 @@
       <c r="H6" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="81" t="s">
         <v>146</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5259,7 +5449,7 @@
       <c r="C7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="82" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="15"/>
@@ -5267,13 +5457,13 @@
       <c r="H7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="82" t="s">
         <v>152</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="82" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5284,7 +5474,7 @@
       <c r="C8" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="82" t="s">
         <v>157</v>
       </c>
       <c r="E8" s="15"/>
@@ -5292,9 +5482,9 @@
       <c r="H8" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="82"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="62"/>
+      <c r="N8" s="82"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
@@ -5303,7 +5493,7 @@
       <c r="C9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="82" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="15"/>
@@ -5311,11 +5501,11 @@
       <c r="H9" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="82" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5326,7 +5516,7 @@
       <c r="C10" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="82" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="15"/>
@@ -5334,9 +5524,9 @@
       <c r="H10" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="82"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="62"/>
+      <c r="N10" s="82"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
@@ -5345,7 +5535,7 @@
       <c r="C11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="82" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="15"/>
@@ -5353,11 +5543,11 @@
       <c r="H11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="82" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5368,7 +5558,7 @@
       <c r="C12" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E12" s="15"/>
@@ -5376,11 +5566,11 @@
       <c r="H12" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="62"/>
+      <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="N12" s="82" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5391,7 +5581,7 @@
       <c r="C13" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="82" t="s">
         <v>183</v>
       </c>
       <c r="E13" s="15"/>
@@ -5399,11 +5589,11 @@
       <c r="H13" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="85" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5411,10 +5601,10 @@
       <c r="B14" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="82" t="s">
         <v>189</v>
       </c>
       <c r="E14" s="15"/>
@@ -5422,7 +5612,7 @@
       <c r="H14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
@@ -5431,7 +5621,7 @@
       <c r="C15" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="82" t="s">
         <v>193</v>
       </c>
       <c r="E15" s="15"/>
@@ -5439,7 +5629,7 @@
       <c r="H15" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
@@ -5448,7 +5638,7 @@
       <c r="C16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="84" t="s">
         <v>197</v>
       </c>
       <c r="E16" s="15"/>
@@ -5456,7 +5646,7 @@
       <c r="H16" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="82" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5467,7 +5657,7 @@
       <c r="C17" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="85" t="s">
         <v>202</v>
       </c>
       <c r="E17" s="17"/>
@@ -5475,7 +5665,7 @@
       <c r="H17" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="85" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6481,14 +6671,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="53" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="53" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="53" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="54" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="73" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="73" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="74" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="53" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="73" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -6527,10 +6717,10 @@
       <c r="L5" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="77" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6701,10 +6891,10 @@
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="76" t="s">
         <v>408</v>
       </c>
       <c r="K17" s="24"/>
@@ -7287,33 +7477,33 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" customHeight="1" spans="3:14">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="65" t="s">
         <v>500</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="46"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" customHeight="1" spans="3:14">
       <c r="C8" s="24"/>
@@ -7321,13 +7511,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="46"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" customHeight="1" spans="3:14">
       <c r="C9" s="24"/>
@@ -7335,13 +7525,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="46"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" customHeight="1" spans="3:14">
       <c r="C10" s="24"/>
@@ -7349,13 +7539,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="46"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" customHeight="1" spans="3:14">
       <c r="C11" s="24"/>
@@ -7363,13 +7553,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="46"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" customHeight="1" spans="3:14">
       <c r="C12" s="24"/>
@@ -7377,13 +7567,13 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="46"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="66"/>
     </row>
     <row r="13" customHeight="1" spans="3:14">
       <c r="C13" s="24"/>
@@ -7391,13 +7581,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="66"/>
     </row>
     <row r="14" customHeight="1" spans="3:14">
       <c r="C14" s="24"/>
@@ -7405,13 +7595,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="46"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="66"/>
     </row>
     <row r="15" customHeight="1" spans="3:14">
       <c r="C15" s="24"/>
@@ -7419,13 +7609,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="46"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="66"/>
     </row>
     <row r="16" customHeight="1" spans="3:14">
       <c r="C16" s="24"/>
@@ -7433,13 +7623,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="46"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="66"/>
     </row>
     <row r="17" customHeight="1" spans="3:14">
       <c r="C17" s="24"/>
@@ -7447,13 +7637,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="46"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" customHeight="1" spans="3:14">
       <c r="C18" s="24"/>
@@ -7461,13 +7651,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="46"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="66"/>
     </row>
     <row r="19" customHeight="1" spans="3:14">
       <c r="C19" s="24"/>
@@ -7475,13 +7665,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="46"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="66"/>
     </row>
     <row r="20" customHeight="1" spans="3:14">
       <c r="C20" s="26"/>
@@ -7489,13 +7679,13 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="46"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="66"/>
     </row>
     <row r="21" customHeight="1" spans="3:14">
       <c r="C21" s="12"/>
@@ -7503,13 +7693,13 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
     </row>
     <row r="22" customHeight="1" spans="3:14">
       <c r="C22" s="12"/>
@@ -7660,481 +7850,745 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5929203539823" customWidth="1"/>
-    <col min="2" max="2" width="51.3185840707965" style="31" customWidth="1"/>
-    <col min="3" max="3" width="33.0353982300885" style="31" customWidth="1"/>
-    <col min="4" max="4" width="2.5929203539823" style="31" customWidth="1"/>
+    <col min="2" max="2" width="33.0353982300885" style="31" customWidth="1"/>
+    <col min="3" max="3" width="51.3185840707965" style="31" customWidth="1"/>
+    <col min="4" max="4" width="2.66371681415929" style="31" customWidth="1"/>
     <col min="5" max="5" width="2.5929203539823" style="32" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.6371681415929" style="31" customWidth="1"/>
-    <col min="8" max="8" width="28.0884955752212" style="31" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="33" customWidth="1"/>
+    <col min="7" max="7" width="28.0884955752212" style="31" customWidth="1"/>
+    <col min="8" max="8" width="47.6371681415929" style="31" customWidth="1"/>
     <col min="9" max="9" width="2.5929203539823" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="9.02654867256637" style="31"/>
+    <col min="10" max="10" width="2.5929203539823" style="34" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="33" customWidth="1"/>
+    <col min="12" max="12" width="8.90265486725664" style="35" customWidth="1"/>
+    <col min="13" max="13" width="29.4778761061947" style="31" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="31" customWidth="1"/>
+    <col min="15" max="15" width="7.70796460176991" style="35" customWidth="1"/>
+    <col min="16" max="16" width="26.2920353982301" style="31" customWidth="1"/>
+    <col min="17" max="17" width="2.5929203539823" style="31" customWidth="1"/>
+    <col min="18" max="15936" width="9.02654867256637" style="31"/>
+    <col min="15944" max="16384" width="9.02654867256637" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="2:8">
-      <c r="B2" s="33" t="s">
+    <row r="2" customHeight="1" spans="2:16">
+      <c r="B2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:16">
+      <c r="B3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="O3" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:16">
+      <c r="B4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="O4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:16">
+      <c r="B5" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:16">
+      <c r="B6" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:16">
+      <c r="B7" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:16">
+      <c r="B8" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:16">
+      <c r="B9" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:8">
-      <c r="B3" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:8">
-      <c r="B4" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:8">
-      <c r="B5" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:8">
-      <c r="B6" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:8">
-      <c r="B7" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="P9" s="38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:16">
+      <c r="B10" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:16">
+      <c r="B11" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:16">
+      <c r="B12" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:8">
-      <c r="B8" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:8">
-      <c r="B9" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:8">
-      <c r="B10" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:8">
-      <c r="B11" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:8">
-      <c r="B12" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:8">
-      <c r="B13" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:8">
-      <c r="B14" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:8">
-      <c r="B15" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="N12" s="31"/>
+      <c r="O12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:16">
+      <c r="B13" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:13">
+      <c r="B14" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:13">
+      <c r="B15" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:8">
-      <c r="B16" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:8">
-      <c r="B17" s="35" t="s">
-        <v>555</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:8">
-      <c r="B18" s="35" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>560</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:8">
-      <c r="B19" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>565</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:8">
-      <c r="B20" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>569</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:8">
-      <c r="B21" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:8">
-      <c r="B22" s="35" t="s">
-        <v>575</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="G22" s="38" t="s">
+      <c r="H15" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="L15" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:13">
+      <c r="B16" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:13">
+      <c r="B17" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:13">
+      <c r="B18" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:13">
+      <c r="B19" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>600</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:13">
+      <c r="B20" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="L20" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:13">
+      <c r="B21" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="L21" s="58">
+        <v>0</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:13">
+      <c r="B22" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:5">
-      <c r="B23" s="35" t="s">
-        <v>578</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:8">
-      <c r="B24" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="G24" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="7:8">
-      <c r="G25" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:8">
-      <c r="B26" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>589</v>
-      </c>
+      <c r="H22" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:13">
+      <c r="B23" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="L23" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:13">
+      <c r="B24" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="6:13">
+      <c r="F25" s="39"/>
+      <c r="G25" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:13">
+      <c r="B26" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
-      <c r="B27" s="35" t="s">
-        <v>590</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>591</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>593</v>
+      <c r="B27" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
-      <c r="B28" s="35" t="s">
-        <v>594</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>596</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:8">
-      <c r="B29" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="7:8">
-      <c r="G30" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>603</v>
+      <c r="B28" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:13">
+      <c r="B29" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="M29" s="63"/>
+    </row>
+    <row r="30" customHeight="1" spans="6:8">
+      <c r="F30" s="39"/>
+      <c r="G30" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
-      <c r="B31" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>605</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="7:8">
-      <c r="G32" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="7:8">
-      <c r="G33" s="35" t="s">
-        <v>610</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="7:8">
-      <c r="G34" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="7:8">
-      <c r="G35" s="35" t="s">
-        <v>577</v>
-      </c>
-      <c r="H35" s="36" t="s">
+      <c r="B31" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>647</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="6:8">
+      <c r="F32" s="39"/>
+      <c r="G32" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="6:8">
+      <c r="F33" s="39"/>
+      <c r="G33" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="6:8">
+      <c r="F34" s="39"/>
+      <c r="G34" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="6:8">
+      <c r="F35" s="39"/>
+      <c r="G35" s="38" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="7:8">
-      <c r="G36" s="35" t="s">
+      <c r="H35" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="H36" s="36" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="7:8">
-      <c r="G37" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>617</v>
+    </row>
+    <row r="36" customHeight="1" spans="6:8">
+      <c r="F36" s="39"/>
+      <c r="G36" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="6:8">
+      <c r="F37" s="41"/>
+      <c r="G37" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L3:M4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8168,78 +8622,78 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
         <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>457</v>
@@ -8247,51 +8701,51 @@
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="C6" t="s">
         <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>645</v>
+        <v>526</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>647</v>
+        <v>540</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>392</v>
@@ -8299,25 +8753,25 @@
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="C7" t="s">
         <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>651</v>
+        <v>519</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>376</v>
@@ -8325,44 +8779,44 @@
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="C8" t="s">
         <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="C9" t="s">
         <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>663</v>
+        <v>700</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>664</v>
+        <v>589</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -8370,13 +8824,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>19</v>
@@ -8386,21 +8840,21 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>475</v>
@@ -8408,139 +8862,139 @@
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="E14" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C17" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="E17" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -8548,19 +9002,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -8570,7 +9024,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -8578,14 +9032,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="C20" t="s">
         <v>401</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -8593,14 +9047,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="C21" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -8608,14 +9062,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="C22" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -8629,7 +9083,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>100</v>
@@ -8638,7 +9092,7 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>428</v>
@@ -8646,7 +9100,7 @@
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>431</v>
@@ -8654,7 +9108,7 @@
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>433</v>
@@ -8662,7 +9116,7 @@
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>437</v>
@@ -8706,22 +9160,22 @@
         <v>149</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
@@ -8729,25 +9183,25 @@
         <v>195</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
@@ -8755,123 +9209,123 @@
         <v>200</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>494</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -8879,19 +9333,19 @@
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
@@ -8899,23 +9353,23 @@
         <v>392</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>769</v>
+        <v>805</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -8953,7 +9407,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>772</v>
+        <v>808</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
@@ -8964,7 +9418,7 @@
         <v>115</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>41</v>
@@ -8975,7 +9429,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>51</v>
@@ -8986,7 +9440,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>60</v>
@@ -8997,7 +9451,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>68</v>
@@ -9008,10 +9462,10 @@
         <v>77</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>778</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -9019,7 +9473,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>83</v>
@@ -9030,7 +9484,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>92</v>
@@ -9041,17 +9495,17 @@
         <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="96" t="s">
-        <v>782</v>
+      <c r="B11" s="116" t="s">
+        <v>818</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>783</v>
+        <v>819</v>
       </c>
       <c r="D11" s="10"/>
     </row>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,42 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23227" windowHeight="13080" tabRatio="728" activeTab="5"/>
+    <workbookView windowWidth="23220" windowHeight="13080" tabRatio="728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
-    <sheet name="PyCharm" sheetId="3" r:id="rId2"/>
-    <sheet name="VSCode" sheetId="1" r:id="rId3"/>
-    <sheet name="XShell" sheetId="15" r:id="rId4"/>
-    <sheet name="|" sheetId="5" r:id="rId5"/>
-    <sheet name="Chrome" sheetId="6" r:id="rId6"/>
-    <sheet name="PotPlayer" sheetId="4" r:id="rId7"/>
-    <sheet name="SumatraPDF" sheetId="14" r:id="rId8"/>
-    <sheet name="CloudMusic" sheetId="13" r:id="rId9"/>
-    <sheet name="QuiteRss" sheetId="16" r:id="rId10"/>
+    <sheet name="Keys" sheetId="17" r:id="rId2"/>
+    <sheet name="PyCharm" sheetId="3" r:id="rId3"/>
+    <sheet name="VSCode" sheetId="1" r:id="rId4"/>
+    <sheet name="XShell" sheetId="15" r:id="rId5"/>
+    <sheet name="|" sheetId="5" r:id="rId6"/>
+    <sheet name="Chrome" sheetId="6" r:id="rId7"/>
+    <sheet name="PotPlayer" sheetId="4" r:id="rId8"/>
+    <sheet name="SumatraPDF" sheetId="14" r:id="rId9"/>
+    <sheet name="CloudMusic" sheetId="13" r:id="rId10"/>
+    <sheet name="QuiteRss" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="848">
-  <si>
-    <t>Dexpot LWin</t>
-  </si>
-  <si>
-    <t>系统功能 LWin</t>
-  </si>
-  <si>
-    <t>Capslock</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="851">
+  <si>
+    <t>Dexpot[LWin]</t>
+  </si>
+  <si>
+    <t>系统功能[LWin]</t>
+  </si>
+  <si>
+    <t>[Capslock]</t>
+  </si>
+  <si>
+    <t>[RAlt]</t>
   </si>
   <si>
     <t>全局应用（软件）</t>
   </si>
   <si>
-    <t>AppsKey * 2 显示帮助</t>
-  </si>
-  <si>
     <t>+123QWEASD</t>
   </si>
   <si>
@@ -52,16 +53,19 @@
     <t>Windows设置</t>
   </si>
   <si>
-    <t>W/A/S/D</t>
+    <t>W A S D</t>
   </si>
   <si>
     <t>鼠标移动（99）</t>
   </si>
   <si>
-    <t>RWin -&gt; Ctrl Alt Shift</t>
-  </si>
-  <si>
-    <t>AppsKey * 1 隐藏帮助</t>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>F12模式</t>
+  </si>
+  <si>
+    <t>[RWin] -&gt; [Ctrl Alt Shift]</t>
   </si>
   <si>
     <t>123QWEASD</t>
@@ -76,12 +80,18 @@
     <t>所有控制面板项</t>
   </si>
   <si>
-    <t>U./D./L./R.</t>
+    <t>U. D. L. R.</t>
   </si>
   <si>
     <t>鼠标移动（333）</t>
   </si>
   <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>F24模式</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
@@ -91,349 +101,349 @@
     <t>屏幕识图</t>
   </si>
   <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>切换桌面间打开的程序</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>P ; L '</t>
+  </si>
+  <si>
+    <t>鼠标移动（9）</t>
+  </si>
+  <si>
+    <t>CloudMusic</t>
+  </si>
+  <si>
+    <t>播放/暂停</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>上一个桌面</t>
+  </si>
+  <si>
+    <t>= -</t>
+  </si>
+  <si>
+    <t>音量加减</t>
+  </si>
+  <si>
+    <t>屏幕中心 1</t>
+  </si>
+  <si>
+    <t>[RWin]</t>
+  </si>
+  <si>
+    <t>PgUp</t>
+  </si>
+  <si>
+    <t>上一首</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>卷起窗口</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>复制文件路径</t>
+  </si>
+  <si>
+    <t>屏幕中心 2</t>
+  </si>
+  <si>
+    <t>窗口居中</t>
+  </si>
+  <si>
+    <t>PgDn</t>
+  </si>
+  <si>
+    <t>下一首</t>
+  </si>
+  <si>
+    <t>PgUp/PgDn</t>
+  </si>
+  <si>
+    <t>切换窗口透明度</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>显示隐藏任务栏</t>
+  </si>
+  <si>
+    <t>左键单击</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>移动窗口</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>音量加</t>
+  </si>
+  <si>
     <t>Esc</t>
   </si>
   <si>
+    <t>窗口目录（当前桌面）</t>
+  </si>
+  <si>
+    <t>显示隐藏所有窗口</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>右键单击</t>
+  </si>
+  <si>
+    <t>*4</t>
+  </si>
+  <si>
+    <t>窗口调节（大</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>音量减</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>窗口目录（所有桌面）</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>选择任务栏图标</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>中键单击</t>
+  </si>
+  <si>
+    <t>*5</t>
+  </si>
+  <si>
+    <t>窗口调节（小</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>mini/完整模式</t>
+  </si>
+  <si>
+    <t>打开连接</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>喜欢歌曲</t>
+  </si>
+  <si>
+    <t>LWin RWin</t>
+  </si>
+  <si>
+    <t>重新加载脚本</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>临时显示桌面</t>
+  </si>
+  <si>
+    <t>[RShift]</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>打开/关闭歌词</t>
+  </si>
+  <si>
+    <t>锁定电脑</t>
+  </si>
+  <si>
+    <t>隐藏快捷键帮助</t>
+  </si>
+  <si>
+    <t>RWin RAlt</t>
+  </si>
+  <si>
+    <t>Alt F4</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>切换应用（任务栏）</t>
+  </si>
+  <si>
+    <t>显示快捷键帮助</t>
+  </si>
+  <si>
+    <t>RAlt RWin</t>
+  </si>
+  <si>
+    <t>Ctrl W</t>
+  </si>
+  <si>
+    <t>LAlt</t>
+  </si>
+  <si>
+    <t>PowerToys 快速启动</t>
+  </si>
+  <si>
+    <t>PowerToys Zones Editor</t>
+  </si>
+  <si>
+    <t>AppsKey RWin</t>
+  </si>
+  <si>
+    <t>窗口 Mini</t>
+  </si>
+  <si>
+    <t>RWin AppsKey</t>
+  </si>
+  <si>
+    <t>窗口 Main</t>
+  </si>
+  <si>
+    <t>[AppsKey]</t>
+  </si>
+  <si>
+    <t>E*2</t>
+  </si>
+  <si>
+    <t>T:\</t>
+  </si>
+  <si>
+    <t>隐藏帮助</t>
+  </si>
+  <si>
+    <t>显示帮助</t>
+  </si>
+  <si>
     <t>任务管理器</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>切换桌面间打开的程序</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>系统设置</t>
-  </si>
-  <si>
-    <t>P/;/L/'</t>
-  </si>
-  <si>
-    <t>鼠标移动（9）</t>
-  </si>
-  <si>
-    <t>CloudMusic</t>
-  </si>
-  <si>
-    <t>播放/暂停</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
     <t>Dexpot启动</t>
   </si>
   <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>上一个桌面</t>
-  </si>
-  <si>
-    <t>= / -</t>
-  </si>
-  <si>
-    <t>音量加减</t>
-  </si>
-  <si>
-    <t>* 1</t>
-  </si>
-  <si>
-    <t>屏幕中心 1</t>
-  </si>
-  <si>
-    <t>PgUp</t>
-  </si>
-  <si>
-    <t>上一首</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
     <t>Dexpot清理</t>
   </si>
   <si>
-    <t>CapsLock</t>
-  </si>
-  <si>
-    <t>卷起窗口</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>复制文件路径</t>
-  </si>
-  <si>
-    <t>* 2</t>
-  </si>
-  <si>
-    <t>屏幕中心 2</t>
-  </si>
-  <si>
-    <t>PgDn</t>
-  </si>
-  <si>
-    <t>下一首</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
     <t>Hotkey.xlsx</t>
   </si>
   <si>
-    <t>PgUp/PgDn</t>
-  </si>
-  <si>
-    <t>切换窗口透明度</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>显示隐藏任务栏</t>
-  </si>
-  <si>
-    <t>左键单击</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>音量加</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
     <t>文件管理器(外置)</t>
   </si>
   <si>
-    <t>窗口目录（当前桌面）</t>
-  </si>
-  <si>
-    <t>显示隐藏所有窗口</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>右键单击</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>音量减</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>PowerShell</t>
   </si>
   <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>窗口目录（所有桌面）</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>选择任务栏图标</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>中键单击</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>mini/完整模式</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>安卓模拟器</t>
   </si>
   <si>
-    <t>打开连接</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>喜欢歌曲</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>Everything</t>
   </si>
   <si>
-    <t>LWin RWin</t>
-  </si>
-  <si>
-    <t>重新加载脚本</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>临时显示桌面</t>
-  </si>
-  <si>
-    <t>RAlt</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>打开/关闭歌词</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t>锁定电脑</t>
-  </si>
-  <si>
-    <t>F12模式</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>RWin RAlt</t>
-  </si>
-  <si>
-    <t>Alt F4</t>
-  </si>
-  <si>
-    <t>[ / ]</t>
-  </si>
-  <si>
-    <t>切换应用（任务栏）</t>
-  </si>
-  <si>
-    <t>F24模式</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
     <t>计算器</t>
   </si>
   <si>
-    <t>RAlt RWin</t>
-  </si>
-  <si>
-    <t>Ctrl W</t>
-  </si>
-  <si>
-    <t>LAlt</t>
-  </si>
-  <si>
-    <t>PowerToys 快速启动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWin </t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>显示虚拟键盘</t>
   </si>
   <si>
-    <t>PowerToys Zones Editor</t>
-  </si>
-  <si>
-    <t>窗口居中</t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
     <t>VSCode E:\Git\Notes\</t>
   </si>
   <si>
-    <t>AppsKey RWin</t>
-  </si>
-  <si>
-    <t>窗口 Mini</t>
-  </si>
-  <si>
-    <t>* 3</t>
-  </si>
-  <si>
-    <t>移动窗口</t>
-  </si>
-  <si>
     <t>]</t>
   </si>
   <si>
     <t>VSCode E:\Sync\</t>
   </si>
   <si>
-    <t>RWin AppsKey</t>
-  </si>
-  <si>
-    <t>窗口 Main</t>
-  </si>
-  <si>
-    <t>* 4</t>
-  </si>
-  <si>
-    <t>窗口调节（大</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
     <t>回收站</t>
   </si>
   <si>
-    <t>* 5</t>
-  </si>
-  <si>
-    <t>窗口调节（小</t>
-  </si>
-  <si>
     <t>音乐播放器</t>
   </si>
   <si>
-    <t>RShift</t>
-  </si>
-  <si>
     <t>VSCode</t>
   </si>
   <si>
-    <t>隐藏快捷键帮助</t>
-  </si>
-  <si>
     <t>视频播放器</t>
-  </si>
-  <si>
-    <t>显示快捷键帮助</t>
   </si>
   <si>
     <t>文件管理器(内置)</t>
@@ -2972,9 +2982,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -3015,6 +3025,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3022,15 +3039,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3044,9 +3061,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3061,13 +3086,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3092,7 +3123,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3106,58 +3168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF188038"/>
       <name val="宋体"/>
@@ -3165,7 +3175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3180,7 +3190,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3198,37 +3322,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,49 +3352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,79 +3370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,17 +3553,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3582,22 +3606,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3617,35 +3650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3654,10 +3658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3666,137 +3670,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3899,30 +3903,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3935,9 +3927,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3962,12 +3951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3978,13 +3961,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4055,10 +4032,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4079,61 +4095,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -4496,70 +4524,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="12" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="89" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="86" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="90" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="89" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.04424778761062" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="12" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="12" max="12" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="13" max="13" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.74336283185841" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.53982300884956" style="12" customWidth="1"/>
-    <col min="16" max="16" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="17" max="17" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="18" max="18" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="19" max="19" width="3.25663716814159" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.929203539823" style="12" customWidth="1"/>
-    <col min="21" max="21" width="1.60176991150442" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="12"/>
+    <col min="6" max="6" width="11.9557522123894" style="64" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="89" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="89" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="11" max="11" width="3.15929203539823" style="89" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="89" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="91" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
+    <col min="17" max="17" width="5.74336283185841" style="89" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="89" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="89"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" customHeight="1" spans="1:20">
+    <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="C2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="H2" s="90" t="s">
+      <c r="F2" s="95"/>
+      <c r="H2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="M2" s="90" t="s">
+      <c r="I2" s="95"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="91"/>
-      <c r="S2" s="109" t="s">
+      <c r="L2" s="95"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="102"/>
+      <c r="P2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="110"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:20">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="95"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="121" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4571,593 +4598,471 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="99"/>
-      <c r="M3" s="100" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102"/>
-      <c r="S3" s="111" t="s">
+      <c r="L3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="112"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:20">
+      <c r="M3" s="90"/>
+      <c r="N3" s="104"/>
+      <c r="P3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="93"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="97"/>
       <c r="E4" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="I4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="J4" s="106"/>
+      <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="L4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="P4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:20">
+      <c r="R4" s="86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:18">
       <c r="B5" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="I5" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="P5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="23" t="s">
+      <c r="Q5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="R5" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="25" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="2:18">
+      <c r="B6" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:20">
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="106"/>
+      <c r="K6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="L6" s="93"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="104"/>
+      <c r="P6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="99"/>
-      <c r="M6" s="24" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="25" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="2:18">
+      <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:20">
-      <c r="B7" s="24" t="s">
+      <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="H7" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="J7" s="106"/>
+      <c r="K7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="25" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="2:18">
+      <c r="B8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="25" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="75" t="s">
+      <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="95" t="s">
+      <c r="H8" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="85" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:20">
-      <c r="B8" s="24" t="s">
+      <c r="J8" s="106"/>
+      <c r="K8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="L8" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="114" t="s">
+      <c r="M8" s="100"/>
+      <c r="N8" s="102"/>
+      <c r="P8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="25" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="2:18">
+      <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="M8" s="24" t="s">
+      <c r="C9" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:20">
-      <c r="B9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="106"/>
+      <c r="K9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="M9" s="107"/>
+      <c r="N9" s="108"/>
+      <c r="P9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
-      <c r="M9" s="24" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="2:18">
+      <c r="B10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:20">
-      <c r="B10" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="109"/>
+      <c r="K10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="L10" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:20">
-      <c r="B11" s="94"/>
-      <c r="C11" s="73"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:18">
+      <c r="B11" s="99"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="P11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:18">
+      <c r="B12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>81</v>
-      </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="M11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:20">
-      <c r="B12" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="M12" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="4:20">
+        <v>83</v>
+      </c>
+      <c r="J12" s="110"/>
+      <c r="K12" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="95"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="102"/>
+      <c r="P12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="4:12">
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:20">
+        <v>87</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:20">
+        <v>92</v>
+      </c>
+      <c r="J14" s="106"/>
+      <c r="K14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="89"/>
-      <c r="S15" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:20">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:12">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="11"/>
       <c r="E16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:20">
+        <v>85</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:20">
+        <v>99</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:12">
       <c r="B18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="8:20">
-      <c r="H19" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="8:20">
-      <c r="H20" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="91"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="105"/>
-      <c r="S20" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="T20" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="8:20">
-      <c r="H21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="8:20">
-      <c r="H22" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="93"/>
-      <c r="K22" s="108"/>
-      <c r="S22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="10:20">
-      <c r="J23" s="93"/>
-      <c r="K23" s="108"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" customHeight="1" spans="20:20">
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" customHeight="1" spans="8:20">
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" customHeight="1" spans="8:20">
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="73"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" customHeight="1" spans="20:20">
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" customHeight="1" spans="20:20">
-      <c r="T28" s="11"/>
-    </row>
-    <row r="32" customHeight="1" spans="20:20">
-      <c r="T32" s="73"/>
-    </row>
-    <row r="33" customHeight="1" spans="20:20">
-      <c r="T33" s="73"/>
-    </row>
-    <row r="34" customHeight="1" spans="20:20">
-      <c r="T34" s="73"/>
-    </row>
-    <row r="35" customHeight="1" spans="20:20">
-      <c r="T35" s="73"/>
-    </row>
-    <row r="36" customHeight="1" spans="20:20">
-      <c r="T36" s="73"/>
-    </row>
-    <row r="37" customHeight="1" spans="20:20">
-      <c r="T37" s="73"/>
-    </row>
-    <row r="39" customHeight="1" spans="20:20">
-      <c r="T39" s="73"/>
-    </row>
-    <row r="40" customHeight="1" spans="20:20">
-      <c r="T40" s="73"/>
-    </row>
-    <row r="41" customHeight="1" spans="20:20">
-      <c r="T41" s="73"/>
-    </row>
-    <row r="42" customHeight="1" spans="20:20">
-      <c r="T42" s="73"/>
+        <v>101</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+    </row>
+    <row r="19" customHeight="1" spans="10:12">
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+    </row>
+    <row r="20" customHeight="1" spans="10:14">
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="114"/>
+    </row>
+    <row r="21" customHeight="1" spans="10:12">
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+    </row>
+    <row r="22" customHeight="1" spans="10:14">
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="117"/>
+    </row>
+    <row r="23" customHeight="1" spans="13:14">
+      <c r="M23" s="97"/>
+      <c r="N23" s="117"/>
+    </row>
+    <row r="25" customHeight="1" spans="8:12">
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+    </row>
+    <row r="26" customHeight="1" spans="8:13">
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="Q5:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5166,6 +5071,147 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="2.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="7.17699115044248" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6902654867257" customWidth="1"/>
+    <col min="4" max="4" width="15.2035398230088" customWidth="1"/>
+    <col min="5" max="5" width="2.5929203539823" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="2:5">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
+      <c r="B3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="124" t="s">
+        <v>821</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F15"/>
@@ -5187,117 +5233,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -5307,56 +5353,56 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -5368,10 +5414,217 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="2.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="6.84955752212389" style="77" customWidth="1"/>
+    <col min="3" max="3" width="21.7699115044248" customWidth="1"/>
+    <col min="4" max="4" width="2.5929203539823" customWidth="1"/>
+    <col min="5" max="5" width="7.51327433628319" style="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="2:6">
+      <c r="B2" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:3">
+      <c r="B11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:3">
+      <c r="B13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:3">
+      <c r="B14" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:3">
+      <c r="B15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:3">
+      <c r="B16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5386,287 +5639,287 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="78" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="69" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="75"/>
-      <c r="C5" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79" t="s">
-        <v>140</v>
+      <c r="B5" s="66"/>
+      <c r="C5" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>147</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N7" s="82" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="82"/>
+        <v>161</v>
+      </c>
+      <c r="I8" s="73"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="82"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>164</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="82"/>
+        <v>165</v>
+      </c>
+      <c r="I9" s="73"/>
       <c r="M9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>170</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="82"/>
+        <v>171</v>
+      </c>
+      <c r="I10" s="73"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="82"/>
+      <c r="N10" s="73"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>174</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="82"/>
+        <v>175</v>
+      </c>
+      <c r="I11" s="73"/>
       <c r="M11" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="82" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>180</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="82"/>
+        <v>181</v>
+      </c>
+      <c r="I12" s="73"/>
       <c r="M12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="82" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>186</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="82"/>
+        <v>187</v>
+      </c>
+      <c r="I13" s="73"/>
       <c r="M13" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="N13" s="85" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="82"/>
+        <v>193</v>
+      </c>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>196</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="82"/>
+        <v>197</v>
+      </c>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>205</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="85" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="I17" s="76" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -5716,937 +5969,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6656,7 +6909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:O39"/>
@@ -6671,14 +6924,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="73" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="73" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="64" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="64" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="65" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="73" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="64" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -6706,196 +6959,196 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="N5" s="75" t="s">
-        <v>376</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="68" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="75" t="s">
-        <v>407</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>408</v>
+      <c r="D17" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>411</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -6904,70 +7157,70 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -7037,7 +7290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F28"/>
@@ -7059,222 +7312,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -7283,62 +7536,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>478</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -7349,30 +7602,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -7385,10 +7638,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7397,7 +7650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O35"/>
@@ -7477,33 +7730,33 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>499</v>
-      </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="H6" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="3:14">
-      <c r="C7" s="65" t="s">
-        <v>500</v>
+      <c r="C7" s="56" t="s">
+        <v>503</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="66"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" customHeight="1" spans="3:14">
       <c r="C8" s="24"/>
@@ -7511,13 +7764,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="66"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" customHeight="1" spans="3:14">
       <c r="C9" s="24"/>
@@ -7525,13 +7778,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="66"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" customHeight="1" spans="3:14">
       <c r="C10" s="24"/>
@@ -7539,13 +7792,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="66"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" customHeight="1" spans="3:14">
       <c r="C11" s="24"/>
@@ -7553,13 +7806,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="66"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" customHeight="1" spans="3:14">
       <c r="C12" s="24"/>
@@ -7567,13 +7820,13 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="66"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" customHeight="1" spans="3:14">
       <c r="C13" s="24"/>
@@ -7581,13 +7834,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="66"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" customHeight="1" spans="3:14">
       <c r="C14" s="24"/>
@@ -7595,13 +7848,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="66"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" customHeight="1" spans="3:14">
       <c r="C15" s="24"/>
@@ -7609,13 +7862,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="66"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="57"/>
     </row>
     <row r="16" customHeight="1" spans="3:14">
       <c r="C16" s="24"/>
@@ -7623,13 +7876,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="66"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" customHeight="1" spans="3:14">
       <c r="C17" s="24"/>
@@ -7637,13 +7890,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="66"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" customHeight="1" spans="3:14">
       <c r="C18" s="24"/>
@@ -7651,13 +7904,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="66"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="57"/>
     </row>
     <row r="19" customHeight="1" spans="3:14">
       <c r="C19" s="24"/>
@@ -7665,13 +7918,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="66"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" customHeight="1" spans="3:14">
       <c r="C20" s="26"/>
@@ -7679,13 +7932,13 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="66"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" customHeight="1" spans="3:14">
       <c r="C21" s="12"/>
@@ -7693,13 +7946,13 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" customHeight="1" spans="3:14">
       <c r="C22" s="12"/>
@@ -7847,12 +8100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -7867,12 +8120,12 @@
     <col min="7" max="7" width="28.0884955752212" style="31" customWidth="1"/>
     <col min="8" max="8" width="47.6371681415929" style="31" customWidth="1"/>
     <col min="9" max="9" width="2.5929203539823" style="31" customWidth="1"/>
-    <col min="10" max="10" width="2.5929203539823" style="34" customWidth="1"/>
+    <col min="10" max="10" width="2.5929203539823" style="32" customWidth="1"/>
     <col min="11" max="11" width="2.5929203539823" style="33" customWidth="1"/>
-    <col min="12" max="12" width="8.90265486725664" style="35" customWidth="1"/>
+    <col min="12" max="12" width="8.90265486725664" style="34" customWidth="1"/>
     <col min="13" max="13" width="29.4778761061947" style="31" customWidth="1"/>
     <col min="14" max="14" width="1.60176991150442" style="31" customWidth="1"/>
-    <col min="15" max="15" width="7.70796460176991" style="35" customWidth="1"/>
+    <col min="15" max="15" width="7.70796460176991" style="34" customWidth="1"/>
     <col min="16" max="16" width="26.2920353982301" style="31" customWidth="1"/>
     <col min="17" max="17" width="2.5929203539823" style="31" customWidth="1"/>
     <col min="18" max="15936" width="9.02654867256637" style="31"/>
@@ -7880,705 +8133,665 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:16">
-      <c r="B2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="L2" s="48" t="s">
+      <c r="B2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
+      <c r="G2" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" customHeight="1" spans="2:16">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="O3" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:16">
+      <c r="B4" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="O4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="O3" s="53" t="s">
-        <v>509</v>
-      </c>
-      <c r="P3" s="54"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:16">
-      <c r="B4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="O4" s="57" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="2:16">
+      <c r="B5" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:16">
+      <c r="B6" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:16">
+      <c r="B7" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:16">
+      <c r="B8" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:16">
+      <c r="B9" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:16">
+      <c r="B10" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:16">
+      <c r="B11" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:16">
+      <c r="B12" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:16">
+      <c r="B13" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:13">
+      <c r="B14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:16">
-      <c r="B5" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>519</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:16">
-      <c r="B6" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:16">
-      <c r="B7" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>532</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="O7" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:16">
-      <c r="B8" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>540</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="58" t="s">
-        <v>542</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:16">
-      <c r="B9" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:16">
-      <c r="B10" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>550</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:16">
-      <c r="B11" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:16">
-      <c r="B12" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="38" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:16">
-      <c r="B13" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>566</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:13">
-      <c r="B14" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>574</v>
+      <c r="M14" s="36" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
-      <c r="B15" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>576</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="L15" s="58" t="s">
+      <c r="B15" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>579</v>
       </c>
+      <c r="G15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
-      <c r="B16" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="L16" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>584</v>
       </c>
+      <c r="G16" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
-      <c r="B17" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="C17" s="36" t="s">
         <v>589</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="G17" s="36" t="s">
         <v>590</v>
       </c>
+      <c r="H17" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
-      <c r="B18" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="H18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>594</v>
       </c>
-      <c r="L18" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="38" t="s">
+      <c r="C18" s="36" t="s">
         <v>595</v>
       </c>
+      <c r="G18" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
-      <c r="B19" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="L19" s="58" t="s">
+      <c r="C19" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>601</v>
       </c>
+      <c r="H19" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
-      <c r="B20" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="H20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="L20" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>606</v>
       </c>
+      <c r="G20" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
-      <c r="B21" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="H21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>610</v>
       </c>
-      <c r="L21" s="58">
+      <c r="C21" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="L21" s="51">
         <v>0</v>
       </c>
-      <c r="M21" s="38" t="s">
-        <v>611</v>
+      <c r="M21" s="36" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
-      <c r="B22" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="L22" s="58" t="s">
+      <c r="B22" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>616</v>
       </c>
+      <c r="G22" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
+        <v>620</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>621</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="L23" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:13">
+      <c r="B24" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="7:13">
+      <c r="G25" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:13">
+      <c r="B26" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:8">
+      <c r="B27" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:8">
+      <c r="B28" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:13">
+      <c r="B29" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>645</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" customHeight="1" spans="7:8">
+      <c r="G30" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:8">
+      <c r="B31" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="7:8">
+      <c r="G32" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="7:8">
+      <c r="G33" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="7:8">
+      <c r="G34" s="36" t="s">
+        <v>657</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="7:8">
+      <c r="G35" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="L23" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:13">
-      <c r="B24" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="36" t="s">
-        <v>622</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>623</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="6:13">
-      <c r="F25" s="39"/>
-      <c r="G25" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:13">
-      <c r="B26" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>629</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:8">
-      <c r="B27" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:8">
-      <c r="B28" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:13">
-      <c r="B29" s="42" t="s">
-        <v>640</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="M29" s="63"/>
-    </row>
-    <row r="30" customHeight="1" spans="6:8">
-      <c r="F30" s="39"/>
-      <c r="G30" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:8">
-      <c r="B31" s="47" t="s">
-        <v>646</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="6:8">
-      <c r="F32" s="39"/>
-      <c r="G32" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="6:8">
-      <c r="F33" s="39"/>
-      <c r="G33" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="6:8">
-      <c r="F34" s="39"/>
-      <c r="G34" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="6:8">
-      <c r="F35" s="39"/>
-      <c r="G35" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="6:8">
-      <c r="F36" s="39"/>
-      <c r="G36" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="6:8">
-      <c r="F37" s="41"/>
-      <c r="G37" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="H37" s="42" t="s">
+    </row>
+    <row r="36" customHeight="1" spans="7:8">
+      <c r="G36" s="36" t="s">
         <v>659</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="7:8">
+      <c r="G37" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -8594,7 +8807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:L27"/>
@@ -8622,201 +8835,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -8824,177 +9037,177 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C14" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E14" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E17" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -9002,19 +9215,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -9024,7 +9237,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -9032,14 +9245,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -9047,14 +9260,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C21" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -9062,14 +9275,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C22" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -9083,43 +9296,43 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -9128,7 +9341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:L12"/>
@@ -9154,367 +9367,226 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="19" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
       <c r="B9" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="2.5929203539823" customWidth="1"/>
-    <col min="2" max="2" width="7.17699115044248" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6902654867257" customWidth="1"/>
-    <col min="4" max="4" width="15.2035398230088" customWidth="1"/>
-    <col min="5" max="5" width="2.5929203539823" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="2:5">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" customHeight="1" spans="2:4">
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:4">
-      <c r="B3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:4">
-      <c r="B4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:4">
-      <c r="B5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>815</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:5">
-      <c r="B10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="116" t="s">
-        <v>818</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23220" windowHeight="13080" tabRatio="728" activeTab="1"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="852">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -1541,6 +1541,11 @@
     <t>显示器 2
 2560x1440
 125%缩放</t>
+  </si>
+  <si>
+    <t>显示器 3
+1080x1920
+100%</t>
   </si>
   <si>
     <t>停止加载网页</t>
@@ -2982,10 +2987,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3025,13 +3030,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3045,9 +3043,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,66 +3128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3154,6 +3145,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3161,10 +3159,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3190,7 +3195,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,85 +3339,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3292,85 +3369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3553,36 +3558,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3605,18 +3584,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3636,17 +3623,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3658,10 +3663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3670,137 +3675,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3987,11 +3992,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4032,18 +4055,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4083,18 +4100,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4104,55 +4115,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4235,6 +4216,896 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="3_xx_yy"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8517255" y="3492500"/>
+          <a:ext cx="947420" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9840 / 4900</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288290</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="3_x_y"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8199755" y="1270000"/>
+          <a:ext cx="947420" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7680 / 1060</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>623570</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="2_xx_yy"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="3217545"/>
+          <a:ext cx="1162050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-1710 / 3020</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="2_x_y"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833755" y="1143000"/>
+          <a:ext cx="947420" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-5120 / 1100</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629285</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1_xx_yy"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7168515" y="3248025"/>
+          <a:ext cx="1024255" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3840 / 2160</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="1_x_y"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083050" y="995045"/>
+          <a:ext cx="600075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0 / 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4532,26 +5403,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="93" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="90" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="94" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="93" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="64" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="89" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="89" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="89" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="89" customWidth="1"/>
-    <col min="11" max="11" width="3.15929203539823" style="89" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="89" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="89" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="91" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="70" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="93" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="93" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="11" max="11" width="3.15929203539823" style="93" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="93" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="93" customWidth="1"/>
     <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="89" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="89" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="89" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="89"/>
+    <col min="17" max="17" width="5.74336283185841" style="93" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="93" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="93"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -4559,34 +5430,34 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="C2" s="97"/>
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="H2" s="94" t="s">
+      <c r="F2" s="98"/>
+      <c r="H2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="94" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="102"/>
-      <c r="P2" s="94" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="P2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="95"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4598,26 +5469,25 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="103"/>
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="104"/>
       <c r="P3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
@@ -4627,24 +5497,22 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="97"/>
       <c r="E4" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="106"/>
       <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="90" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
@@ -4653,7 +5521,7 @@
       <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4670,22 +5538,19 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
       <c r="P5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="92" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4696,30 +5561,29 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="114" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="90"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="104"/>
       <c r="P6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="89" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4736,24 +5600,23 @@
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="106"/>
       <c r="K7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="89" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="85" t="s">
+      <c r="R7" s="89" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4765,32 +5628,31 @@
         <v>50</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="114" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="106"/>
       <c r="K8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
       <c r="P8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="85" t="s">
+      <c r="R8" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4808,26 +5670,25 @@
       <c r="F9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="106"/>
       <c r="K9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="108"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
       <c r="P9" s="24" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="85" t="s">
+      <c r="R9" s="89" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4848,27 +5709,26 @@
       <c r="H10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="109"/>
       <c r="K10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="90" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="85" t="s">
+      <c r="R10" s="89" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="99"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>75</v>
@@ -4876,22 +5736,22 @@
       <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
       <c r="P11" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="85" t="s">
+      <c r="R11" s="89" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="91" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="11"/>
@@ -4901,18 +5761,18 @@
       <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="94" t="s">
+      <c r="J12" s="102"/>
+      <c r="K12" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="102"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
       <c r="P12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="Q12" s="17"/>
-      <c r="R12" s="86" t="s">
+      <c r="R12" s="90" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4924,11 +5784,10 @@
       <c r="F13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="106"/>
       <c r="K13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="111" t="s">
+      <c r="L13" s="92" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4936,7 +5795,7 @@
       <c r="B14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="92" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="11"/>
@@ -4946,11 +5805,10 @@
       <c r="F14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="106"/>
       <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="112" t="s">
+      <c r="L14" s="90" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4958,98 +5816,63 @@
       <c r="B15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="90" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="11"/>
       <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:12">
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:12">
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-    </row>
-    <row r="19" customHeight="1" spans="10:12">
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="114"/>
-    </row>
-    <row r="21" customHeight="1" spans="10:12">
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-    </row>
-    <row r="22" customHeight="1" spans="10:14">
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="117"/>
-    </row>
-    <row r="23" customHeight="1" spans="13:14">
-      <c r="M23" s="97"/>
-      <c r="N23" s="117"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="109"/>
     </row>
     <row r="25" customHeight="1" spans="8:12">
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-    </row>
-    <row r="26" customHeight="1" spans="8:13">
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="64"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+    </row>
+    <row r="26" customHeight="1" spans="13:13">
+      <c r="M26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5099,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>32</v>
@@ -5110,7 +5933,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>40</v>
@@ -5121,7 +5944,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>48</v>
@@ -5132,7 +5955,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>57</v>
@@ -5143,7 +5966,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>66</v>
@@ -5154,10 +5977,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -5165,7 +5988,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>79</v>
@@ -5176,7 +5999,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>86</v>
@@ -5187,17 +6010,17 @@
         <v>113</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="124" t="s">
-        <v>821</v>
+      <c r="B11" s="116" t="s">
+        <v>822</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -5233,27 +6056,27 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>402</v>
@@ -5261,13 +6084,13 @@
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>427</v>
@@ -5275,13 +6098,13 @@
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>408</v>
@@ -5291,21 +6114,21 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>487</v>
@@ -5313,37 +6136,37 @@
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -5353,7 +6176,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -5361,13 +6184,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>27</v>
@@ -5375,7 +6198,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>78</v>
@@ -5385,13 +6208,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>39</v>
@@ -5399,10 +6222,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -5416,36 +6239,36 @@
   <sheetPr/>
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="2.5929203539823" customWidth="1"/>
-    <col min="2" max="2" width="6.84955752212389" style="77" customWidth="1"/>
+    <col min="2" max="2" width="6.84955752212389" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.7699115044248" customWidth="1"/>
     <col min="4" max="4" width="2.5929203539823" customWidth="1"/>
-    <col min="5" max="5" width="7.51327433628319" style="77" customWidth="1"/>
+    <col min="5" max="5" width="7.51327433628319" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="C2" s="84"/>
+      <c r="E2" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="85" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="87" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5453,7 +6276,7 @@
       <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="88" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5461,7 +6284,7 @@
       <c r="B5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="89" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5469,7 +6292,7 @@
       <c r="B6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="89" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5477,15 +6300,15 @@
       <c r="B7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="90" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="91" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5493,7 +6316,7 @@
       <c r="B9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="92" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5501,7 +6324,7 @@
       <c r="B10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="90" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5517,7 +6340,7 @@
       <c r="B12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="89" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5525,7 +6348,7 @@
       <c r="B13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="89" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5533,7 +6356,7 @@
       <c r="B14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="89" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5541,7 +6364,7 @@
       <c r="B15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="89" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5573,7 +6396,7 @@
       <c r="B19" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="92" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5589,7 +6412,7 @@
       <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="89" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5605,7 +6428,7 @@
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="90" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5639,34 +6462,34 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="69" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="75" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="66"/>
-      <c r="C5" s="123" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="76" t="s">
         <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5677,7 +6500,7 @@
       <c r="C6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="78" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="13"/>
@@ -5685,13 +6508,13 @@
       <c r="H6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="78" t="s">
         <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="79" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5702,7 +6525,7 @@
       <c r="C7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="79" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="15"/>
@@ -5710,13 +6533,13 @@
       <c r="H7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="79" t="s">
         <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="79" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5727,7 +6550,7 @@
       <c r="C8" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="79" t="s">
         <v>160</v>
       </c>
       <c r="E8" s="15"/>
@@ -5735,9 +6558,9 @@
       <c r="H8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="79"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="73"/>
+      <c r="N8" s="79"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
@@ -5746,7 +6569,7 @@
       <c r="C9" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="79" t="s">
         <v>164</v>
       </c>
       <c r="E9" s="15"/>
@@ -5754,11 +6577,11 @@
       <c r="H9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="79"/>
       <c r="M9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="73" t="s">
+      <c r="N9" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5769,7 +6592,7 @@
       <c r="C10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="79" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="15"/>
@@ -5777,9 +6600,9 @@
       <c r="H10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="79"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="73"/>
+      <c r="N10" s="79"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
@@ -5788,7 +6611,7 @@
       <c r="C11" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="79" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="15"/>
@@ -5796,11 +6619,11 @@
       <c r="H11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="79"/>
       <c r="M11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="79" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5811,7 +6634,7 @@
       <c r="C12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="79" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="15"/>
@@ -5819,11 +6642,11 @@
       <c r="H12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="73"/>
+      <c r="I12" s="79"/>
       <c r="M12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="79" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5834,7 +6657,7 @@
       <c r="C13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="79" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="15"/>
@@ -5842,11 +6665,11 @@
       <c r="H13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="79"/>
       <c r="M13" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="76" t="s">
+      <c r="N13" s="82" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5854,10 +6677,10 @@
       <c r="B14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="79" t="s">
         <v>192</v>
       </c>
       <c r="E14" s="15"/>
@@ -5865,7 +6688,7 @@
       <c r="H14" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="73"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
@@ -5874,7 +6697,7 @@
       <c r="C15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="79" t="s">
         <v>196</v>
       </c>
       <c r="E15" s="15"/>
@@ -5882,7 +6705,7 @@
       <c r="H15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
@@ -5891,7 +6714,7 @@
       <c r="C16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="81" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="15"/>
@@ -5899,7 +6722,7 @@
       <c r="H16" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="79" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5910,7 +6733,7 @@
       <c r="C17" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="82" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="17"/>
@@ -5918,7 +6741,7 @@
       <c r="H17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="82" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6924,14 +7747,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="64" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="64" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="65" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="70" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="70" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="71" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="64" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="70" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -6970,10 +7793,10 @@
       <c r="L5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="74" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7144,10 +7967,10 @@
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="73" t="s">
         <v>411</v>
       </c>
       <c r="K17" s="24"/>
@@ -7653,17 +8476,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O35"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="2.5929203539823" customWidth="1"/>
     <col min="8" max="8" width="3.52212389380531" customWidth="1"/>
-    <col min="15" max="15" width="2.5929203539823" customWidth="1"/>
+    <col min="17" max="17" width="2.5929203539823" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:14">
@@ -7695,7 +8518,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="3:15">
+    <row r="4" customHeight="1" spans="3:14">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7708,7 +8531,6 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="3:14">
       <c r="C5" s="12"/>
@@ -7758,7 +8580,7 @@
       <c r="M7" s="61"/>
       <c r="N7" s="57"/>
     </row>
-    <row r="8" customHeight="1" spans="3:14">
+    <row r="8" customHeight="1" spans="3:16">
       <c r="C8" s="24"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7770,9 +8592,13 @@
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" customHeight="1" spans="3:14">
+      <c r="N8" s="62"/>
+      <c r="O8" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:16">
       <c r="C9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7784,9 +8610,11 @@
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" customHeight="1" spans="3:14">
+      <c r="N9" s="62"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="66"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:16">
       <c r="C10" s="24"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -7798,9 +8626,11 @@
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
-      <c r="N10" s="57"/>
-    </row>
-    <row r="11" customHeight="1" spans="3:14">
+      <c r="N10" s="62"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="66"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:16">
       <c r="C11" s="24"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -7812,9 +8642,11 @@
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="57"/>
-    </row>
-    <row r="12" customHeight="1" spans="3:14">
+      <c r="N11" s="62"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:16">
       <c r="C12" s="24"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -7826,9 +8658,11 @@
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
-      <c r="N12" s="57"/>
-    </row>
-    <row r="13" customHeight="1" spans="3:14">
+      <c r="N12" s="62"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:16">
       <c r="C13" s="24"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7840,9 +8674,11 @@
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
-      <c r="N13" s="57"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:14">
+      <c r="N13" s="62"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:16">
       <c r="C14" s="24"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7854,9 +8690,11 @@
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
-      <c r="N14" s="57"/>
-    </row>
-    <row r="15" customHeight="1" spans="3:14">
+      <c r="N14" s="62"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:16">
       <c r="C15" s="24"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -7868,9 +8706,11 @@
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
-      <c r="N15" s="57"/>
-    </row>
-    <row r="16" customHeight="1" spans="3:14">
+      <c r="N15" s="62"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:16">
       <c r="C16" s="24"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7882,9 +8722,11 @@
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
-      <c r="N16" s="57"/>
-    </row>
-    <row r="17" customHeight="1" spans="3:14">
+      <c r="N16" s="62"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:16">
       <c r="C17" s="24"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7896,49 +8738,57 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
-      <c r="N17" s="57"/>
-    </row>
-    <row r="18" customHeight="1" spans="3:14">
-      <c r="C18" s="24"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="66"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:16">
+      <c r="C18" s="26"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="57"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
-      <c r="N18" s="57"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:14">
-      <c r="C19" s="24"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="57"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:14">
-      <c r="C20" s="26"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="57"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:16">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:16">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="69"/>
     </row>
     <row r="21" customHeight="1" spans="3:14">
       <c r="C21" s="12"/>
@@ -7946,13 +8796,13 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="3:14">
       <c r="C22" s="12"/>
@@ -8010,33 +8860,21 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" customHeight="1" spans="3:14">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+    <row r="26" customHeight="1" spans="8:13">
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:14">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+    </row>
+    <row r="27" customHeight="1" spans="8:13">
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
     </row>
     <row r="28" customHeight="1" spans="8:13">
       <c r="H28" s="12"/>
@@ -8070,33 +8908,19 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" customHeight="1" spans="8:13">
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" customHeight="1" spans="8:13">
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="35" customHeight="1" spans="5:5">
-      <c r="E35" s="12"/>
+    <row r="33" customHeight="1" spans="5:5">
+      <c r="E33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H6:H21"/>
-    <mergeCell ref="C7:G20"/>
-    <mergeCell ref="I6:N21"/>
+  <mergeCells count="4">
+    <mergeCell ref="H6:H19"/>
+    <mergeCell ref="C7:G18"/>
+    <mergeCell ref="I6:N19"/>
+    <mergeCell ref="O8:P20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8137,16 +8961,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -8158,20 +8982,20 @@
         <v>109</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P3" s="49"/>
     </row>
@@ -8180,13 +9004,13 @@
         <v>172</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -8199,106 +9023,106 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>123</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
@@ -8306,25 +9130,25 @@
         <v>194</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>127</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
@@ -8332,39 +9156,39 @@
         <v>198</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O10" s="51" t="s">
         <v>123</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L11" s="51" t="s">
         <v>129</v>
@@ -8376,247 +9200,247 @@
         <v>131</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L12" s="51" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O12" s="51" t="s">
         <v>133</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L16" s="51" t="s">
         <v>117</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L20" s="51" t="s">
         <v>65</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>480</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -8625,149 +9449,149 @@
         <v>27</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>135</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
@@ -8775,23 +9599,23 @@
         <v>480</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8835,78 +9659,78 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>123</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C4" t="s">
         <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>460</v>
@@ -8914,51 +9738,51 @@
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C5" t="s">
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C6" t="s">
         <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>395</v>
@@ -8966,25 +9790,25 @@
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>379</v>
@@ -8992,44 +9816,44 @@
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C8" t="s">
         <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C9" t="s">
         <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9037,13 +9861,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -9053,21 +9877,21 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>478</v>
@@ -9075,139 +9899,139 @@
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C16" t="s">
         <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -9215,19 +10039,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -9237,7 +10061,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -9245,14 +10069,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C20" t="s">
         <v>404</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -9260,14 +10084,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -9275,14 +10099,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C22" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -9296,7 +10120,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>90</v>
@@ -9305,7 +10129,7 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>431</v>
@@ -9313,7 +10137,7 @@
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>434</v>
@@ -9321,7 +10145,7 @@
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>436</v>
@@ -9329,7 +10153,7 @@
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>440</v>
@@ -9373,22 +10197,22 @@
         <v>152</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
@@ -9396,25 +10220,25 @@
         <v>198</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
@@ -9422,123 +10246,123 @@
         <v>203</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>497</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -9546,19 +10370,19 @@
         <v>71</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
@@ -9566,23 +10390,23 @@
         <v>395</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -2989,8 +2989,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3030,6 +3030,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3037,29 +3044,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3081,6 +3066,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3088,17 +3103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,6 +3134,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3145,31 +3159,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3195,13 +3195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,7 +3213,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,61 +3297,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,37 +3357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,43 +3369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3561,8 +3561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3584,50 +3584,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3649,9 +3608,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3663,149 +3663,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3995,26 +3995,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4224,14 +4206,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>306070</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4240,8 +4222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8517255" y="3492500"/>
-          <a:ext cx="947420" cy="285750"/>
+          <a:off x="8517255" y="3624580"/>
+          <a:ext cx="947420" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4388,14 +4370,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>288290</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4404,8 +4386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199755" y="1270000"/>
-          <a:ext cx="947420" cy="285750"/>
+          <a:off x="8199755" y="1338580"/>
+          <a:ext cx="947420" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4552,14 +4534,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>109220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>623570</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4568,8 +4550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="3217545"/>
-          <a:ext cx="1162050" cy="285750"/>
+          <a:off x="2886075" y="3243580"/>
+          <a:ext cx="1162050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4717,13 +4699,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>299720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4732,8 +4714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833755" y="1143000"/>
-          <a:ext cx="947420" cy="285750"/>
+          <a:off x="833755" y="1148080"/>
+          <a:ext cx="947420" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4880,14 +4862,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>629285</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4896,8 +4878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7168515" y="3248025"/>
-          <a:ext cx="1024255" cy="285750"/>
+          <a:off x="7168515" y="3434080"/>
+          <a:ext cx="1024255" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4946,13 +4928,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4961,8 +4943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083050" y="995045"/>
-          <a:ext cx="600075" cy="285750"/>
+          <a:off x="4083050" y="957580"/>
+          <a:ext cx="600075" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5403,26 +5385,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="87" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="94" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="88" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="87" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="70" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="93" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="93" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="93" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="93" customWidth="1"/>
-    <col min="11" max="11" width="3.15929203539823" style="93" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="93" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="93" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="93" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="64" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="87" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="87" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="11" max="11" width="3.15929203539823" style="87" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="87" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="89" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="87" customWidth="1"/>
     <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="93" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="93" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="93" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="93"/>
+    <col min="17" max="17" width="5.74336283185841" style="87" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="87" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5430,34 +5412,34 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="E2" s="83" t="s">
+      <c r="C2" s="91"/>
+      <c r="E2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="H2" s="83" t="s">
+      <c r="F2" s="92"/>
+      <c r="H2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="83" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="P2" s="83" t="s">
+      <c r="L2" s="92"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="P2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="98"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="107" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5469,25 +5451,25 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="86" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="104"/>
-      <c r="P3" s="105" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="98"/>
+      <c r="P3" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
@@ -5503,16 +5485,16 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="83" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="90" t="s">
+      <c r="L4" s="84" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
@@ -5521,7 +5503,7 @@
       <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="84" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5538,10 +5520,10 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="83" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="19" t="s">
@@ -5550,7 +5532,7 @@
       <c r="Q5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="92" t="s">
+      <c r="R5" s="86" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5561,29 +5543,29 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="108" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="104"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="98"/>
       <c r="P6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5600,23 +5582,23 @@
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="83" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="89" t="s">
+      <c r="R7" s="83" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5628,31 +5610,31 @@
         <v>50</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="108" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="83" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="89" t="s">
+      <c r="L8" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="103"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
       <c r="P8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="89" t="s">
+      <c r="R8" s="83" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5670,25 +5652,25 @@
       <c r="F9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="83" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
       <c r="P9" s="24" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="89" t="s">
+      <c r="R9" s="83" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5709,26 +5691,26 @@
       <c r="H10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="84" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="90" t="s">
+      <c r="L10" s="84" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="89" t="s">
+      <c r="R10" s="83" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="101"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>75</v>
@@ -5736,22 +5718,22 @@
       <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="P11" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="89" t="s">
+      <c r="R11" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="85" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="11"/>
@@ -5761,18 +5743,18 @@
       <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="83" t="s">
+      <c r="J12" s="96"/>
+      <c r="K12" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
       <c r="P12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="Q12" s="17"/>
-      <c r="R12" s="90" t="s">
+      <c r="R12" s="84" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5787,7 +5769,7 @@
       <c r="K13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="86" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5795,7 +5777,7 @@
       <c r="B14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="86" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="11"/>
@@ -5808,7 +5790,7 @@
       <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="L14" s="84" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5816,28 +5798,28 @@
       <c r="B15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="84" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="11"/>
       <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="84" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5845,7 +5827,7 @@
       <c r="B17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="86" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5853,26 +5835,26 @@
       <c r="B18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="84" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="109"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="103"/>
     </row>
     <row r="25" customHeight="1" spans="8:12">
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
-      <c r="M26" s="70"/>
+      <c r="M26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6016,7 +5998,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="110" t="s">
         <v>822</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -6253,22 +6235,22 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="78"/>
+      <c r="E2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="79" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="81" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6276,7 +6258,7 @@
       <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="82" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6284,7 +6266,7 @@
       <c r="B5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="83" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6292,7 +6274,7 @@
       <c r="B6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="83" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6300,15 +6282,15 @@
       <c r="B7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="85" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6316,7 +6298,7 @@
       <c r="B9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="86" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6324,7 +6306,7 @@
       <c r="B10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="84" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6340,7 +6322,7 @@
       <c r="B12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="83" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6348,7 +6330,7 @@
       <c r="B13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="83" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6356,7 +6338,7 @@
       <c r="B14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="83" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6364,7 +6346,7 @@
       <c r="B15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="83" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6396,7 +6378,7 @@
       <c r="B19" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="86" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6412,7 +6394,7 @@
       <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6428,7 +6410,7 @@
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6462,34 +6444,34 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="75" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="69" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="72"/>
-      <c r="C5" s="115" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
         <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="72" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6500,7 +6482,7 @@
       <c r="C6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="72" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="13"/>
@@ -6508,13 +6490,13 @@
       <c r="H6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="72" t="s">
         <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="79" t="s">
+      <c r="N6" s="73" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6525,7 +6507,7 @@
       <c r="C7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="15"/>
@@ -6533,13 +6515,13 @@
       <c r="H7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="73" t="s">
         <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="79" t="s">
+      <c r="N7" s="73" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6550,7 +6532,7 @@
       <c r="C8" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="73" t="s">
         <v>160</v>
       </c>
       <c r="E8" s="15"/>
@@ -6558,9 +6540,9 @@
       <c r="H8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="73"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="79"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
@@ -6569,7 +6551,7 @@
       <c r="C9" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="73" t="s">
         <v>164</v>
       </c>
       <c r="E9" s="15"/>
@@ -6577,11 +6559,11 @@
       <c r="H9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="73"/>
       <c r="M9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="79" t="s">
+      <c r="N9" s="73" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6592,7 +6574,7 @@
       <c r="C10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="73" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="15"/>
@@ -6600,9 +6582,9 @@
       <c r="H10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="79"/>
+      <c r="I10" s="73"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="79"/>
+      <c r="N10" s="73"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
@@ -6611,7 +6593,7 @@
       <c r="C11" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="73" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="15"/>
@@ -6619,11 +6601,11 @@
       <c r="H11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="73"/>
       <c r="M11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N11" s="79" t="s">
+      <c r="N11" s="73" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6634,7 +6616,7 @@
       <c r="C12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="73" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="15"/>
@@ -6642,11 +6624,11 @@
       <c r="H12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="73"/>
       <c r="M12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="73" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6657,7 +6639,7 @@
       <c r="C13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="73" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="15"/>
@@ -6665,11 +6647,11 @@
       <c r="H13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="73"/>
       <c r="M13" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="76" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6677,10 +6659,10 @@
       <c r="B14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="73" t="s">
         <v>192</v>
       </c>
       <c r="E14" s="15"/>
@@ -6688,7 +6670,7 @@
       <c r="H14" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
@@ -6697,7 +6679,7 @@
       <c r="C15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="73" t="s">
         <v>196</v>
       </c>
       <c r="E15" s="15"/>
@@ -6705,7 +6687,7 @@
       <c r="H15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="79"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
@@ -6714,7 +6696,7 @@
       <c r="C16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="75" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="15"/>
@@ -6722,7 +6704,7 @@
       <c r="H16" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="73" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6733,7 +6715,7 @@
       <c r="C17" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="76" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="17"/>
@@ -6741,7 +6723,7 @@
       <c r="H17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="76" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7747,14 +7729,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="70" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="70" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="64" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="64" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="65" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="70" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="64" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -7793,10 +7775,10 @@
       <c r="L5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="68" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7967,10 +7949,10 @@
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="67" t="s">
         <v>411</v>
       </c>
       <c r="K17" s="24"/>
@@ -8479,7 +8461,7 @@
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -8593,10 +8575,10 @@
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
       <c r="N8" s="62"/>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="P8" s="64"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="3:16">
       <c r="C9" s="24"/>
@@ -8611,8 +8593,8 @@
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="62"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="3:16">
       <c r="C10" s="24"/>
@@ -8627,8 +8609,8 @@
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="62"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="66"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="3:16">
       <c r="C11" s="24"/>
@@ -8643,8 +8625,8 @@
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="62"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="3:16">
       <c r="C12" s="24"/>
@@ -8659,8 +8641,8 @@
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="3:16">
       <c r="C13" s="24"/>
@@ -8675,8 +8657,8 @@
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="62"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" customHeight="1" spans="3:16">
       <c r="C14" s="24"/>
@@ -8691,8 +8673,8 @@
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="62"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="66"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="3:16">
       <c r="C15" s="24"/>
@@ -8707,8 +8689,8 @@
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="3:16">
       <c r="C16" s="24"/>
@@ -8723,8 +8705,8 @@
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="62"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" customHeight="1" spans="3:16">
       <c r="C17" s="24"/>
@@ -8739,8 +8721,8 @@
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="62"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="3:16">
       <c r="C18" s="26"/>
@@ -8755,8 +8737,8 @@
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="3:16">
       <c r="C19" s="12"/>
@@ -8765,14 +8747,14 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="3:16">
       <c r="C20" s="12"/>
@@ -8787,8 +8769,8 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="69"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" customHeight="1" spans="3:14">
       <c r="C21" s="12"/>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="853">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -1546,6 +1546,20 @@
     <t>显示器 3
 1080x1920
 100%</t>
+  </si>
+  <si>
+    <t>screen_1_x 0
+screen_1_y 0
+screen_1_xx 3840
+screen_1_yy 2160
+screen_2_x -5120
+screen_2_y 1100
+screen_2_xx -1707
+screen_2_yy 3020
+screen_3_x 7680
+screen_3_y 1056
+screen_3_xx 9840
+screen_3_yy 4896</t>
   </si>
   <si>
     <t>停止加载网页</t>
@@ -2987,9 +3001,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -3029,6 +3043,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3038,13 +3060,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3065,46 +3080,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3134,6 +3125,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3158,8 +3171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3195,49 +3209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,67 +3227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,19 +3251,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,19 +3353,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3558,11 +3572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3585,34 +3605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3622,6 +3616,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3637,6 +3640,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3663,10 +3677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3675,137 +3689,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3983,13 +3997,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4205,15 +4222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>306070</xdr:colOff>
+      <xdr:colOff>245745</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:colOff>642620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4222,8 +4239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8517255" y="3624580"/>
-          <a:ext cx="947420" cy="200025"/>
+          <a:off x="8456930" y="3624580"/>
+          <a:ext cx="1044575" cy="180340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4357,8 +4374,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>9840 / 4900</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>screen_3_xx/yy</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4369,15 +4388,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:colOff>644525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>288290</xdr:colOff>
+      <xdr:colOff>468630</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4386,8 +4405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199755" y="1338580"/>
-          <a:ext cx="947420" cy="200025"/>
+          <a:off x="8208010" y="1338580"/>
+          <a:ext cx="1119505" cy="189865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4521,8 +4540,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>7680 / 1060</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>screen_3_x/y</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4685,8 +4706,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-1710 / 3020</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>screen_2_xx/yy</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4850,7 +4873,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-5120 / 1100</a:t>
+            <a:t>screen_2_x/y</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4861,15 +4884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>629285</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4878,8 +4901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7168515" y="3434080"/>
-          <a:ext cx="1024255" cy="200025"/>
+          <a:off x="7039610" y="3401060"/>
+          <a:ext cx="1176020" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4914,8 +4937,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3840 / 2160</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>screen_1_xx/yy</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4925,16 +4950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4943,8 +4968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083050" y="957580"/>
-          <a:ext cx="600075" cy="200025"/>
+          <a:off x="4055110" y="918210"/>
+          <a:ext cx="1041400" cy="229235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5078,8 +5103,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0 / 0</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>screen_1_x/y</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -5385,26 +5412,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="88" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="88" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="89" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="88" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="64" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="87" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="87" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="11" max="11" width="3.15929203539823" style="87" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="87" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="89" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="87" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="65" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="88" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="88" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="11" max="11" width="3.15929203539823" style="88" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="88" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="90" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="88" customWidth="1"/>
     <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="87" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="87" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="87" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="87"/>
+    <col min="17" max="17" width="5.74336283185841" style="88" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="88" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5412,34 +5439,34 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="E2" s="77" t="s">
+      <c r="C2" s="92"/>
+      <c r="E2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="H2" s="77" t="s">
+      <c r="F2" s="93"/>
+      <c r="H2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="77" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="P2" s="77" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="P2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="92"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5451,25 +5478,25 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="87" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="98"/>
-      <c r="P3" s="99" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="99"/>
+      <c r="P3" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
@@ -5485,16 +5512,16 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="84" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="85" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
@@ -5503,7 +5530,7 @@
       <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5520,10 +5547,10 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="84" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="19" t="s">
@@ -5532,7 +5559,7 @@
       <c r="Q5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="86" t="s">
+      <c r="R5" s="87" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5543,29 +5570,29 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="109" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="91"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="98"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="99"/>
       <c r="P6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="84" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5582,23 +5609,23 @@
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="84" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="84" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="83" t="s">
+      <c r="R7" s="84" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5610,31 +5637,31 @@
         <v>50</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="109" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="84" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
       <c r="P8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="84" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5652,25 +5679,25 @@
       <c r="F9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="84" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="102"/>
       <c r="P9" s="24" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="83" t="s">
+      <c r="R9" s="84" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5691,26 +5718,26 @@
       <c r="H10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="85" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="85" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="83" t="s">
+      <c r="R10" s="84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="95"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>75</v>
@@ -5718,22 +5745,22 @@
       <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
       <c r="P11" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="83" t="s">
+      <c r="R11" s="84" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="86" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="11"/>
@@ -5743,18 +5770,18 @@
       <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="77" t="s">
+      <c r="J12" s="97"/>
+      <c r="K12" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="92"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="98"/>
       <c r="P12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="Q12" s="17"/>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="85" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5769,7 +5796,7 @@
       <c r="K13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="87" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5777,7 +5804,7 @@
       <c r="B14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="11"/>
@@ -5790,7 +5817,7 @@
       <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="85" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5798,28 +5825,28 @@
       <c r="B15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="85" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="11"/>
       <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="85" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5827,7 +5854,7 @@
       <c r="B17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="87" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5835,26 +5862,26 @@
       <c r="B18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="85" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="104"/>
     </row>
     <row r="25" customHeight="1" spans="8:12">
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
-      <c r="M26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5904,7 +5931,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>32</v>
@@ -5915,7 +5942,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>40</v>
@@ -5926,7 +5953,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>48</v>
@@ -5937,7 +5964,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>57</v>
@@ -5948,7 +5975,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>66</v>
@@ -5959,10 +5986,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -5970,7 +5997,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>79</v>
@@ -5981,7 +6008,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>86</v>
@@ -5992,17 +6019,17 @@
         <v>113</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="110" t="s">
-        <v>822</v>
+      <c r="B11" s="111" t="s">
+        <v>823</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6038,27 +6065,27 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>402</v>
@@ -6066,13 +6093,13 @@
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>427</v>
@@ -6080,13 +6107,13 @@
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>408</v>
@@ -6096,21 +6123,21 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>487</v>
@@ -6118,37 +6145,37 @@
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -6158,7 +6185,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -6166,13 +6193,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>27</v>
@@ -6180,7 +6207,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>78</v>
@@ -6190,13 +6217,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>39</v>
@@ -6204,10 +6231,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -6235,22 +6262,22 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="E2" s="66" t="s">
+      <c r="C2" s="79"/>
+      <c r="E2" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="80" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6258,7 +6285,7 @@
       <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="83" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6266,7 +6293,7 @@
       <c r="B5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="84" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6274,7 +6301,7 @@
       <c r="B6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6282,15 +6309,15 @@
       <c r="B7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="85" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="86" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6298,7 +6325,7 @@
       <c r="B9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6306,7 +6333,7 @@
       <c r="B10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="85" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6322,7 +6349,7 @@
       <c r="B12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="84" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6330,7 +6357,7 @@
       <c r="B13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="84" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6338,7 +6365,7 @@
       <c r="B14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6346,7 +6373,7 @@
       <c r="B15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="84" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6378,7 +6405,7 @@
       <c r="B19" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="87" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6394,7 +6421,7 @@
       <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="84" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6410,7 +6437,7 @@
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6444,34 +6471,34 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="69" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="70" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="66"/>
-      <c r="C5" s="109" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="71" t="s">
         <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="73" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6482,7 +6509,7 @@
       <c r="C6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="73" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="13"/>
@@ -6490,13 +6517,13 @@
       <c r="H6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="73" t="s">
         <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="74" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6507,7 +6534,7 @@
       <c r="C7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="15"/>
@@ -6515,13 +6542,13 @@
       <c r="H7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="74" t="s">
         <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="74" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6532,7 +6559,7 @@
       <c r="C8" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E8" s="15"/>
@@ -6540,9 +6567,9 @@
       <c r="H8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="74"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="73"/>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
@@ -6551,7 +6578,7 @@
       <c r="C9" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="74" t="s">
         <v>164</v>
       </c>
       <c r="E9" s="15"/>
@@ -6559,11 +6586,11 @@
       <c r="H9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="74"/>
       <c r="M9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="73" t="s">
+      <c r="N9" s="74" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6574,7 +6601,7 @@
       <c r="C10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="74" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="15"/>
@@ -6582,9 +6609,9 @@
       <c r="H10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="74"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="73"/>
+      <c r="N10" s="74"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
@@ -6593,7 +6620,7 @@
       <c r="C11" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="74" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="15"/>
@@ -6601,11 +6628,11 @@
       <c r="H11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="74"/>
       <c r="M11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="74" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6616,7 +6643,7 @@
       <c r="C12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="74" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="15"/>
@@ -6624,11 +6651,11 @@
       <c r="H12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="73"/>
+      <c r="I12" s="74"/>
       <c r="M12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="74" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6639,7 +6666,7 @@
       <c r="C13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="74" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="15"/>
@@ -6647,11 +6674,11 @@
       <c r="H13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="74"/>
       <c r="M13" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="76" t="s">
+      <c r="N13" s="77" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6659,10 +6686,10 @@
       <c r="B14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="74" t="s">
         <v>192</v>
       </c>
       <c r="E14" s="15"/>
@@ -6670,7 +6697,7 @@
       <c r="H14" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="73"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
@@ -6679,7 +6706,7 @@
       <c r="C15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="74" t="s">
         <v>196</v>
       </c>
       <c r="E15" s="15"/>
@@ -6687,7 +6714,7 @@
       <c r="H15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
@@ -6696,7 +6723,7 @@
       <c r="C16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="76" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="15"/>
@@ -6704,7 +6731,7 @@
       <c r="H16" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="74" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6715,7 +6742,7 @@
       <c r="C17" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="77" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="17"/>
@@ -6723,7 +6750,7 @@
       <c r="H17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="77" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7729,14 +7756,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="64" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="64" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="65" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="65" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="65" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="66" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="64" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="65" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -7775,10 +7802,10 @@
       <c r="L5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="69" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7949,10 +7976,10 @@
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="68" t="s">
         <v>411</v>
       </c>
       <c r="K17" s="24"/>
@@ -8458,10 +8485,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:P33"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -8537,14 +8564,14 @@
       <c r="H6" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
@@ -8555,11 +8582,11 @@
       <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="57"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="57"/>
     </row>
     <row r="8" customHeight="1" spans="3:16">
@@ -8569,12 +8596,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="56" t="s">
         <v>504</v>
       </c>
@@ -8587,12 +8614,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="63"/>
       <c r="O9" s="24"/>
       <c r="P9" s="7"/>
     </row>
@@ -8603,12 +8630,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="24"/>
       <c r="P10" s="7"/>
     </row>
@@ -8619,12 +8646,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="63"/>
       <c r="O11" s="24"/>
       <c r="P11" s="7"/>
     </row>
@@ -8635,12 +8662,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="24"/>
       <c r="P12" s="7"/>
     </row>
@@ -8651,12 +8678,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="24"/>
       <c r="P13" s="7"/>
     </row>
@@ -8667,12 +8694,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
       <c r="H14" s="57"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="24"/>
       <c r="P14" s="7"/>
     </row>
@@ -8683,12 +8710,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
       <c r="H15" s="57"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="62"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="63"/>
       <c r="O15" s="24"/>
       <c r="P15" s="7"/>
     </row>
@@ -8699,12 +8726,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="63"/>
       <c r="O16" s="24"/>
       <c r="P16" s="7"/>
     </row>
@@ -8715,12 +8742,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
       <c r="H17" s="57"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="63"/>
       <c r="O17" s="24"/>
       <c r="P17" s="7"/>
     </row>
@@ -8731,12 +8758,12 @@
       <c r="F18" s="22"/>
       <c r="G18" s="10"/>
       <c r="H18" s="57"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="24"/>
       <c r="P18" s="7"/>
     </row>
@@ -8747,12 +8774,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="24"/>
       <c r="P19" s="7"/>
     </row>
@@ -8801,10 +8828,12 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" customHeight="1" spans="3:14">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -8815,10 +8844,10 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" customHeight="1" spans="3:14">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -8829,10 +8858,10 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="3:14">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -8842,7 +8871,11 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" customHeight="1" spans="8:13">
+    <row r="26" customHeight="1" spans="3:13">
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8850,7 +8883,11 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" customHeight="1" spans="8:13">
+    <row r="27" customHeight="1" spans="3:13">
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8858,7 +8895,11 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" customHeight="1" spans="8:13">
+    <row r="28" customHeight="1" spans="3:13">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8866,7 +8907,11 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" customHeight="1" spans="8:13">
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8874,7 +8919,11 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" customHeight="1" spans="8:13">
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -8882,7 +8931,11 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" customHeight="1" spans="8:13">
+    <row r="31" customHeight="1" spans="3:13">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -8890,15 +8943,43 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="33" customHeight="1" spans="5:5">
-      <c r="E33" s="12"/>
+    <row r="32" customHeight="1" spans="3:6">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:6">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:6">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:6">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:6">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H6:H19"/>
     <mergeCell ref="C7:G18"/>
     <mergeCell ref="I6:N19"/>
     <mergeCell ref="O8:P20"/>
+    <mergeCell ref="C23:E35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8943,16 +9024,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -8964,20 +9045,20 @@
         <v>109</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P3" s="49"/>
     </row>
@@ -8986,13 +9067,13 @@
         <v>172</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9005,106 +9086,106 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>123</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
@@ -9112,25 +9193,25 @@
         <v>194</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>127</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
@@ -9138,39 +9219,39 @@
         <v>198</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O10" s="51" t="s">
         <v>123</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L11" s="51" t="s">
         <v>129</v>
@@ -9182,247 +9263,247 @@
         <v>131</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L12" s="51" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O12" s="51" t="s">
         <v>133</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L16" s="51" t="s">
         <v>117</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L20" s="51" t="s">
         <v>65</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>480</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9431,149 +9512,149 @@
         <v>27</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>135</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
@@ -9581,23 +9662,23 @@
         <v>480</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -9641,78 +9722,78 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>123</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
         <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>460</v>
@@ -9720,51 +9801,51 @@
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C6" t="s">
         <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>395</v>
@@ -9772,25 +9853,25 @@
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>379</v>
@@ -9798,44 +9879,44 @@
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C8" t="s">
         <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C9" t="s">
         <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9843,13 +9924,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -9859,21 +9940,21 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>478</v>
@@ -9881,139 +9962,139 @@
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C16" t="s">
         <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10021,19 +10102,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10043,7 +10124,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10051,14 +10132,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C20" t="s">
         <v>404</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10066,14 +10147,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10081,14 +10162,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10102,7 +10183,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>90</v>
@@ -10111,7 +10192,7 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>431</v>
@@ -10119,7 +10200,7 @@
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>434</v>
@@ -10127,7 +10208,7 @@
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>436</v>
@@ -10135,7 +10216,7 @@
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>440</v>
@@ -10179,22 +10260,22 @@
         <v>152</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
@@ -10202,25 +10283,25 @@
         <v>198</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
@@ -10228,123 +10309,123 @@
         <v>203</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>497</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10352,19 +10433,19 @@
         <v>71</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
@@ -10372,23 +10453,23 @@
         <v>395</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="728" activeTab="5"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="851">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -336,12 +336,6 @@
   </si>
   <si>
     <t>[AppsKey]</t>
-  </si>
-  <si>
-    <t>E*2</t>
-  </si>
-  <si>
-    <t>T:\</t>
   </si>
   <si>
     <t>隐藏帮助</t>
@@ -3001,10 +2995,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3043,14 +3037,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3066,10 +3052,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3080,20 +3081,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3125,6 +3113,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3132,16 +3128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3173,17 +3161,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3209,7 +3203,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,7 +3233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3233,7 +3257,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,31 +3317,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,85 +3359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3377,19 +3371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3572,17 +3566,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3605,15 +3608,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3622,8 +3616,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3644,28 +3640,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3677,10 +3671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3689,137 +3683,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3997,18 +3991,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4054,13 +4075,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5412,26 +5436,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="98" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="89" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="99" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="98" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="65" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="88" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="88" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="88" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="88" customWidth="1"/>
-    <col min="11" max="11" width="3.15929203539823" style="88" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="88" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="88" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="90" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="88" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="74" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="98" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="98" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="11" max="11" width="3.15929203539823" style="98" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="98" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="100" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="98" customWidth="1"/>
     <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="88" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="88" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="88" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="88"/>
+    <col min="17" max="17" width="5.74336283185841" style="98" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="98" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5439,34 +5463,34 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="E2" s="78" t="s">
+      <c r="C2" s="102"/>
+      <c r="E2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="103"/>
+      <c r="H2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="78" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="P2" s="78" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="P2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="93"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5478,25 +5502,25 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="97" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="99"/>
-      <c r="P3" s="100" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="109"/>
+      <c r="P3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
@@ -5512,16 +5536,16 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="94" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="95" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
@@ -5530,7 +5554,7 @@
       <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="95" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5547,10 +5571,10 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="94" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="19" t="s">
@@ -5559,7 +5583,7 @@
       <c r="Q5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="87" t="s">
+      <c r="R5" s="97" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5570,29 +5594,29 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="119" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="99"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="109"/>
       <c r="P6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="84" t="s">
+      <c r="R6" s="94" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5609,23 +5633,23 @@
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="94" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="84" t="s">
+      <c r="R7" s="94" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5637,31 +5661,31 @@
         <v>50</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="119" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="94" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
       <c r="P8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="84" t="s">
+      <c r="R8" s="94" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5679,25 +5703,25 @@
       <c r="F9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="94" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="84" t="s">
+      <c r="L9" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="102"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
       <c r="P9" s="24" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="84" t="s">
+      <c r="R9" s="94" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5718,26 +5742,26 @@
       <c r="H10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="95" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="95" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="84" t="s">
+      <c r="R10" s="94" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="96"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>75</v>
@@ -5745,22 +5769,22 @@
       <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
       <c r="P11" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="84" t="s">
+      <c r="R11" s="94" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="96" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="11"/>
@@ -5770,18 +5794,18 @@
       <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="78" t="s">
+      <c r="J12" s="107"/>
+      <c r="K12" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="93"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
       <c r="P12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="Q12" s="17"/>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="95" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5796,7 +5820,7 @@
       <c r="K13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="97" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5804,7 +5828,7 @@
       <c r="B14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="97" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="11"/>
@@ -5817,7 +5841,7 @@
       <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="95" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5825,28 +5849,28 @@
       <c r="B15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="95" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="11"/>
       <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="95" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5854,7 +5878,7 @@
       <c r="B17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="97" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5862,26 +5886,26 @@
       <c r="B18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="95" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="104"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="114"/>
     </row>
     <row r="25" customHeight="1" spans="8:12">
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
-      <c r="M26" s="65"/>
+      <c r="M26" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5931,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>32</v>
@@ -5939,10 +5963,10 @@
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>40</v>
@@ -5950,10 +5974,10 @@
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>48</v>
@@ -5964,7 +5988,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>57</v>
@@ -5975,7 +5999,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>66</v>
@@ -5986,10 +6010,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -5997,7 +6021,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>79</v>
@@ -6008,7 +6032,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>86</v>
@@ -6016,20 +6040,20 @@
     </row>
     <row r="10" customHeight="1" spans="2:5">
       <c r="B10" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="111" t="s">
-        <v>823</v>
+      <c r="B11" s="121" t="s">
+        <v>821</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6048,8 +6072,8 @@
   <sheetPr/>
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6065,117 +6089,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>836</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>843</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -6185,7 +6209,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -6193,13 +6217,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>27</v>
@@ -6207,7 +6231,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>78</v>
@@ -6217,13 +6241,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>39</v>
@@ -6231,10 +6255,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -6246,10 +6270,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F23"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6261,152 +6285,154 @@
     <col min="5" max="5" width="7.51327433628319" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" customHeight="1" spans="5:6">
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+    </row>
     <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="E2" s="67" t="s">
+      <c r="C2" s="90"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:6">
+      <c r="B3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>106</v>
-      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" customHeight="1" spans="2:3">
       <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>107</v>
+      <c r="C4" s="93" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>108</v>
+      <c r="C5" s="94" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C8" s="96" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:3">
       <c r="B13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
       <c r="B14" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
       <c r="B15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:3">
       <c r="B19" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
@@ -6414,15 +6440,15 @@
         <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
       <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="84" t="s">
-        <v>138</v>
+      <c r="C21" s="94" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
@@ -6430,15 +6456,15 @@
         <v>75</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="85" t="s">
-        <v>140</v>
+      <c r="C23" s="95" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6482,7 @@
   <dimension ref="B5:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -6471,287 +6497,287 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="70" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="79" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="67"/>
-      <c r="C5" s="110" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="M5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71" t="s">
+      <c r="N5" s="82" t="s">
         <v>143</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="73" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="N6" s="83" t="s">
         <v>149</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" s="74" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="N7" s="83" t="s">
         <v>155</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="74" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="83" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="I8" s="83"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="74"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>162</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="83"/>
+      <c r="M9" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="83" t="s">
         <v>165</v>
-      </c>
-      <c r="I9" s="74"/>
-      <c r="M9" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N9" s="74" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>168</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>170</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="74"/>
+        <v>169</v>
+      </c>
+      <c r="I10" s="83"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="74"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="83" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>174</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="M11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="83" t="s">
         <v>175</v>
-      </c>
-      <c r="I11" s="74"/>
-      <c r="M11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="74" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="83" t="s">
         <v>178</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>180</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="M12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" s="83" t="s">
         <v>181</v>
-      </c>
-      <c r="I12" s="74"/>
-      <c r="M12" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" s="74" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="83" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="83"/>
+      <c r="M13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="86" t="s">
         <v>187</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="M13" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="77" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="83" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>192</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="74"/>
+        <v>191</v>
+      </c>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="83" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>196</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="74"/>
+        <v>195</v>
+      </c>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>198</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>200</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="86" t="s">
         <v>203</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>205</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="77" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="I17" s="86" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6801,937 +6827,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7756,14 +7782,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="65" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="65" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="66" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="74" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="74" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="74" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="75" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="65" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="74" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -7791,196 +7817,196 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="O5" s="78" t="s">
         <v>378</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="L15" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>411</v>
+      <c r="D17" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>409</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -7989,70 +8015,70 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8144,222 +8170,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>426</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>433</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>448</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>452</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>456</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>461</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>465</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="25" t="s">
         <v>471</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C17" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8368,62 +8394,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>486</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8434,30 +8460,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="25" t="s">
         <v>494</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8470,10 +8496,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8487,8 +8513,8 @@
   <sheetPr/>
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -8562,31 +8588,31 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
+        <v>499</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="57"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="57"/>
     </row>
     <row r="8" customHeight="1" spans="3:16">
@@ -8596,14 +8622,14 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="63"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8614,12 +8640,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="63"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
       <c r="O9" s="24"/>
       <c r="P9" s="7"/>
     </row>
@@ -8630,12 +8656,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="63"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="24"/>
       <c r="P10" s="7"/>
     </row>
@@ -8646,12 +8672,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="63"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="24"/>
       <c r="P11" s="7"/>
     </row>
@@ -8662,12 +8688,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="63"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="24"/>
       <c r="P12" s="7"/>
     </row>
@@ -8678,12 +8704,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="63"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="24"/>
       <c r="P13" s="7"/>
     </row>
@@ -8694,12 +8720,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
       <c r="H14" s="57"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="63"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72"/>
       <c r="O14" s="24"/>
       <c r="P14" s="7"/>
     </row>
@@ -8710,12 +8736,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
       <c r="H15" s="57"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="63"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
       <c r="O15" s="24"/>
       <c r="P15" s="7"/>
     </row>
@@ -8726,12 +8752,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="63"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
       <c r="O16" s="24"/>
       <c r="P16" s="7"/>
     </row>
@@ -8742,12 +8768,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
       <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="63"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="24"/>
       <c r="P17" s="7"/>
     </row>
@@ -8758,12 +8784,12 @@
       <c r="F18" s="22"/>
       <c r="G18" s="10"/>
       <c r="H18" s="57"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="63"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="24"/>
       <c r="P18" s="7"/>
     </row>
@@ -8774,12 +8800,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="24"/>
       <c r="P19" s="7"/>
     </row>
@@ -8829,11 +8855,11 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>505</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+        <v>503</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -8844,10 +8870,10 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" customHeight="1" spans="3:14">
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -8858,10 +8884,10 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="3:14">
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -8872,10 +8898,10 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" customHeight="1" spans="3:13">
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="62"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8884,10 +8910,10 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" customHeight="1" spans="3:13">
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="62"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8896,10 +8922,10 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" customHeight="1" spans="3:13">
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="62"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8908,10 +8934,10 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" customHeight="1" spans="3:13">
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="62"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8920,10 +8946,10 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" customHeight="1" spans="3:13">
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="62"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -8932,10 +8958,10 @@
       <c r="M30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="3:13">
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="62"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -8944,34 +8970,34 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" customHeight="1" spans="3:6">
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" customHeight="1" spans="3:6">
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" customHeight="1" spans="3:6">
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" customHeight="1" spans="3:6">
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" customHeight="1" spans="3:6">
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9024,16 +9050,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="L2" s="43" t="s">
         <v>507</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>509</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9042,38 +9068,38 @@
     </row>
     <row r="3" customHeight="1" spans="2:16">
       <c r="B3" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="L3" s="46" t="s">
         <v>511</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>513</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>515</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>517</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9086,424 +9112,424 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="H5" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="L5" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="O5" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>523</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="L6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="O6" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="L6" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="36" t="s">
+      <c r="P6" s="36" t="s">
         <v>530</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="L7" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="O7" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>538</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="L8" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="M8" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="O8" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="P8" s="36" t="s">
         <v>546</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>551</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="M10" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="L10" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>556</v>
-      </c>
       <c r="O10" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="H11" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>560</v>
-      </c>
       <c r="L11" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="H12" s="36" t="s">
         <v>563</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>565</v>
       </c>
       <c r="L12" s="51" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="H13" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="L13" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="M13" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="O13" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="P13" s="38" t="s">
         <v>572</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>573</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>576</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>578</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M15" s="36" t="s">
         <v>582</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>583</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="H16" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="L16" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="36" t="s">
         <v>587</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="H17" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="L17" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="M17" s="36" t="s">
         <v>593</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>596</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>597</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>599</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="H19" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="L19" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="M19" s="36" t="s">
         <v>604</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>605</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="H20" s="36" t="s">
         <v>608</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>610</v>
       </c>
       <c r="L20" s="51" t="s">
         <v>65</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>613</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>615</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="L22" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="M22" s="36" t="s">
         <v>619</v>
-      </c>
-      <c r="L22" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9512,173 +9538,173 @@
         <v>27</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="53" t="s">
         <v>630</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>631</v>
-      </c>
-      <c r="L25" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="H26" s="36" t="s">
         <v>634</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>635</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>636</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="H27" s="36" t="s">
         <v>638</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="H28" s="36" t="s">
         <v>642</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>643</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="H29" s="36" t="s">
         <v>646</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>647</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>648</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="H31" s="36" t="s">
         <v>652</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>653</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -9700,7 +9726,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -9722,201 +9748,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="I4" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="L4" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>681</v>
       </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="I8" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="C9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>705</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9924,13 +9950,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
+        <v>704</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>708</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -9940,161 +9966,161 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="I12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="L12" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
+        <v>717</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" t="s">
         <v>724</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>732</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>738</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" t="s">
         <v>742</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>746</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10102,19 +10128,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>746</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" s="6" t="s">
         <v>748</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10124,7 +10150,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10132,14 +10158,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10147,14 +10173,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10162,14 +10188,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10183,7 +10209,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>90</v>
@@ -10192,34 +10218,34 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10234,7 +10260,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -10254,178 +10280,178 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>766</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>772</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>779</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>787</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>793</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="L6" s="25" t="s">
         <v>794</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="I7" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="K7" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>800</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>801</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10433,43 +10459,43 @@
         <v>71</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>806</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="853">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -47,31 +47,64 @@
     <t>移动桌面</t>
   </si>
   <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>切换应用</t>
+  </si>
+  <si>
+    <t>W A S D</t>
+  </si>
+  <si>
+    <t>鼠标移动（99）</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>隐藏提示</t>
+  </si>
+  <si>
+    <t>[RWin] -&gt; [Ctrl Alt Shift]</t>
+  </si>
+  <si>
+    <t>123QWEASD</t>
+  </si>
+  <si>
+    <t>切换桌面</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
     <t>Windows设置</t>
   </si>
   <si>
-    <t>W A S D</t>
-  </si>
-  <si>
-    <t>鼠标移动（99）</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
-    <t>F12模式</t>
-  </si>
-  <si>
-    <t>[RWin] -&gt; [Ctrl Alt Shift]</t>
-  </si>
-  <si>
-    <t>123QWEASD</t>
-  </si>
-  <si>
-    <t>切换桌面</t>
+    <t>U. D. L. R.</t>
+  </si>
+  <si>
+    <t>鼠标移动（333）</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>自定义快捷键提示</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>屏幕识图</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>任务切换器</t>
   </si>
   <si>
     <t>.</t>
@@ -80,31 +113,28 @@
     <t>所有控制面板项</t>
   </si>
   <si>
-    <t>U. D. L. R.</t>
-  </si>
-  <si>
-    <t>鼠标移动（333）</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
-    <t>F24模式</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>屏幕识图</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>切换桌面间打开的程序</t>
+    <t>P ; L '</t>
+  </si>
+  <si>
+    <t>鼠标移动（9）</t>
+  </si>
+  <si>
+    <t>F1-F12</t>
+  </si>
+  <si>
+    <t>F13-F24</t>
+  </si>
+  <si>
+    <t>CloudMusic</t>
+  </si>
+  <si>
+    <t>播放/暂停</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>上一个桌面</t>
   </si>
   <si>
     <t>,</t>
@@ -113,22 +143,22 @@
     <t>系统设置</t>
   </si>
   <si>
-    <t>P ; L '</t>
-  </si>
-  <si>
-    <t>鼠标移动（9）</t>
-  </si>
-  <si>
-    <t>CloudMusic</t>
-  </si>
-  <si>
-    <t>播放/暂停</t>
-  </si>
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>上一个桌面</t>
+    <t>*1 2 3</t>
+  </si>
+  <si>
+    <t>屏幕中心 1 2 3</t>
+  </si>
+  <si>
+    <t>PgUp</t>
+  </si>
+  <si>
+    <t>上一首</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>窗口目录</t>
   </si>
   <si>
     <t>= -</t>
@@ -137,22 +167,22 @@
     <t>音量加减</t>
   </si>
   <si>
-    <t>屏幕中心 1</t>
+    <t>左键单击</t>
   </si>
   <si>
     <t>[RWin]</t>
   </si>
   <si>
-    <t>PgUp</t>
-  </si>
-  <si>
-    <t>上一首</t>
-  </si>
-  <si>
-    <t>CapsLock</t>
-  </si>
-  <si>
-    <t>卷起窗口</t>
+    <t>PgDn</t>
+  </si>
+  <si>
+    <t>下一首</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>全屏预览</t>
   </si>
   <si>
     <t>C</t>
@@ -161,76 +191,70 @@
     <t>复制文件路径</t>
   </si>
   <si>
-    <t>屏幕中心 2</t>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>右键单击</t>
   </si>
   <si>
     <t>窗口居中</t>
   </si>
   <si>
-    <t>PgDn</t>
-  </si>
-  <si>
-    <t>下一首</t>
-  </si>
-  <si>
-    <t>PgUp/PgDn</t>
+    <t>=</t>
+  </si>
+  <si>
+    <t>音量加</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>最小化到系统托盘</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>显示隐藏任务栏</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>中键单击</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>移动窗口</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>音量减</t>
+  </si>
+  <si>
+    <t>PgUp PgDn</t>
   </si>
   <si>
     <t>切换窗口透明度</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>显示隐藏任务栏</t>
-  </si>
-  <si>
-    <t>左键单击</t>
-  </si>
-  <si>
-    <t>*3</t>
-  </si>
-  <si>
-    <t>移动窗口</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>音量加</t>
-  </si>
-  <si>
-    <t>Esc</t>
-  </si>
-  <si>
-    <t>窗口目录（当前桌面）</t>
-  </si>
-  <si>
     <t>显示隐藏所有窗口</t>
   </si>
   <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>右键单击</t>
-  </si>
-  <si>
     <t>*4</t>
   </si>
   <si>
     <t>窗口调节（大</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>音量减</t>
-  </si>
-  <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>窗口目录（所有桌面）</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>mini/完整模式</t>
   </si>
   <si>
     <t>B</t>
@@ -239,37 +263,31 @@
     <t>选择任务栏图标</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>中键单击</t>
-  </si>
-  <si>
     <t>*5</t>
   </si>
   <si>
     <t>窗口调节（小</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>mini/完整模式</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>喜欢歌曲</t>
+  </si>
+  <si>
+    <t>LWin RWin</t>
+  </si>
+  <si>
+    <t>重新加载脚本</t>
   </si>
   <si>
     <t>打开连接</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>喜欢歌曲</t>
-  </si>
-  <si>
-    <t>LWin RWin</t>
-  </si>
-  <si>
-    <t>重新加载脚本</t>
+    <t>\</t>
+  </si>
+  <si>
+    <t>打开/关闭歌词</t>
   </si>
   <si>
     <t>V</t>
@@ -281,10 +299,10 @@
     <t>[RShift]</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>打开/关闭歌词</t>
+    <t>RWin RAlt</t>
+  </si>
+  <si>
+    <t>Alt F4</t>
   </si>
   <si>
     <t>锁定电脑</t>
@@ -293,10 +311,10 @@
     <t>隐藏快捷键帮助</t>
   </si>
   <si>
-    <t>RWin RAlt</t>
-  </si>
-  <si>
-    <t>Alt F4</t>
+    <t>RAlt RWin</t>
+  </si>
+  <si>
+    <t>Ctrl W</t>
   </si>
   <si>
     <t>[ ]</t>
@@ -308,27 +326,18 @@
     <t>显示快捷键帮助</t>
   </si>
   <si>
-    <t>RAlt RWin</t>
-  </si>
-  <si>
-    <t>Ctrl W</t>
-  </si>
-  <si>
-    <t>LAlt</t>
-  </si>
-  <si>
     <t>PowerToys 快速启动</t>
   </si>
   <si>
+    <t>AppsKey RWin</t>
+  </si>
+  <si>
+    <t>窗口 Mini</t>
+  </si>
+  <si>
     <t>PowerToys Zones Editor</t>
   </si>
   <si>
-    <t>AppsKey RWin</t>
-  </si>
-  <si>
-    <t>窗口 Mini</t>
-  </si>
-  <si>
     <t>RWin AppsKey</t>
   </si>
   <si>
@@ -444,9 +453,6 @@
   </si>
   <si>
     <t>-None-</t>
-  </si>
-  <si>
-    <t>Alt</t>
   </si>
   <si>
     <t>RAlt F1-F12</t>
@@ -3044,8 +3050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3066,11 +3073,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3083,17 +3113,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3113,16 +3150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3143,39 +3179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3203,19 +3209,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,19 +3251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3251,13 +3275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3269,25 +3299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,13 +3311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3323,7 +3329,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3335,55 +3389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,10 +3572,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3590,21 +3622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3616,11 +3633,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3654,15 +3669,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3671,10 +3677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3683,137 +3689,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4003,9 +4009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4075,12 +4078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4117,34 +4114,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4246,7 +4240,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
@@ -4263,8 +4257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8456930" y="3624580"/>
-          <a:ext cx="1044575" cy="180340"/>
+          <a:off x="8409305" y="3624580"/>
+          <a:ext cx="1092200" cy="180340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5430,32 +5424,32 @@
   <sheetPr/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="99" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="96" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.9557522123894" style="74" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="98" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="98" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="98" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="98" customWidth="1"/>
-    <col min="11" max="11" width="3.15929203539823" style="98" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="98" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="98" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="100" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="98" customWidth="1"/>
+    <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="11" max="11" width="3.55752212389381" style="95" customWidth="1"/>
+    <col min="12" max="12" width="8.23893805309734" style="95" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="98" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="98" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="98" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="98"/>
+    <col min="17" max="17" width="5.74336283185841" style="95" customWidth="1"/>
+    <col min="18" max="18" width="7.53982300884956" style="95" customWidth="1"/>
+    <col min="19" max="19" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5463,34 +5457,34 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="11"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="E2" s="89" t="s">
+      <c r="C2" s="98"/>
+      <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="H2" s="89" t="s">
+      <c r="F2" s="98"/>
+      <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="89" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="P2" s="89" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="103"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="11"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="114" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5502,25 +5496,25 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="94" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="109"/>
-      <c r="P3" s="110" t="s">
+      <c r="M3" s="96"/>
+      <c r="N3" s="103"/>
+      <c r="P3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="11"/>
@@ -5536,16 +5530,16 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="91" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="26" t="s">
@@ -5554,7 +5548,7 @@
       <c r="Q4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5571,341 +5565,343 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="91" t="s">
         <v>30</v>
       </c>
+      <c r="K5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>32</v>
+      </c>
       <c r="P5" s="19" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:18">
       <c r="B6" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="109"/>
+      <c r="H6" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="103"/>
       <c r="P6" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="94" t="s">
-        <v>40</v>
+      <c r="R6" s="91" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:18">
       <c r="B7" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="94" t="s">
         <v>46</v>
       </c>
+      <c r="H7" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="106"/>
       <c r="P7" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="94" t="s">
-        <v>48</v>
+      <c r="R7" s="91" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:18">
       <c r="B8" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="119" t="s">
-        <v>51</v>
+      <c r="E8" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H8" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
+        <v>20</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
       <c r="P8" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="94" t="s">
-        <v>57</v>
+      <c r="R8" s="91" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:18">
       <c r="B9" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="24" t="s">
-        <v>58</v>
+      <c r="E9" s="115" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>65</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+        <v>66</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="107"/>
+      <c r="N9" s="108"/>
       <c r="P9" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="94" t="s">
-        <v>66</v>
+      <c r="R9" s="91" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:18">
       <c r="B10" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="91" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="94" t="s">
+      <c r="R10" s="91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="106"/>
-      <c r="C11" s="74"/>
+    <row r="11" customHeight="1" spans="4:18">
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
+        <v>78</v>
+      </c>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="94" t="s">
-        <v>79</v>
+      <c r="R11" s="91" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>81</v>
+      <c r="B12" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="J12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
       <c r="P12" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="17"/>
-      <c r="R12" s="95" t="s">
-        <v>86</v>
+      <c r="R12" s="92" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:12">
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K13" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="95" t="s">
         <v>93</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="94" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="95" t="s">
         <v>95</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>96</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
+      <c r="F15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="92" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:3">
+      <c r="E16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="95" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="114"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="110"/>
     </row>
     <row r="25" customHeight="1" spans="8:12">
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
-      <c r="M26" s="74"/>
+      <c r="M26" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5915,8 +5911,8 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="Q5:Q12"/>
   </mergeCells>
@@ -5952,57 +5948,57 @@
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -6010,50 +6006,50 @@
         <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:5">
       <c r="B10" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="121" t="s">
-        <v>821</v>
+      <c r="B11" s="117" t="s">
+        <v>823</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6072,7 +6068,7 @@
   <sheetPr/>
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -6089,176 +6085,176 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -6286,169 +6282,169 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="5:6">
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="2:6">
-      <c r="B2" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="90"/>
+      <c r="B2" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="87"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="2:6">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
+      <c r="C3" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="2:3">
       <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>105</v>
+      <c r="C4" s="90" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>112</v>
+      <c r="B8" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:3">
       <c r="B13" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
       <c r="B14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
       <c r="B15" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:3">
       <c r="B19" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
       <c r="B20" s="24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
       <c r="B21" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>136</v>
+        <v>88</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
@@ -6456,15 +6452,15 @@
         <v>75</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
       <c r="B23" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>138</v>
+        <v>16</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6497,287 +6493,287 @@
     <col min="8" max="8" width="7.9646017699115" customWidth="1"/>
     <col min="9" max="9" width="29.0530973451327" customWidth="1"/>
     <col min="10" max="10" width="17.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="2.5929203539823" style="79" customWidth="1"/>
+    <col min="11" max="11" width="2.5929203539823" style="78" customWidth="1"/>
     <col min="13" max="13" width="15.3097345132743" customWidth="1"/>
     <col min="14" max="14" width="23.2743362831858" customWidth="1"/>
     <col min="19" max="19" width="28.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="76"/>
-      <c r="C5" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80" t="s">
-        <v>141</v>
+      <c r="B5" s="75"/>
+      <c r="C5" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>147</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>153</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>160</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="83"/>
+        <v>161</v>
+      </c>
+      <c r="I8" s="82"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="83"/>
+      <c r="N8" s="82"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>164</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="83"/>
+        <v>165</v>
+      </c>
+      <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="N9" s="82" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>170</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="83"/>
+        <v>171</v>
+      </c>
+      <c r="I10" s="82"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="83"/>
+      <c r="N10" s="82"/>
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>174</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="83"/>
+        <v>175</v>
+      </c>
+      <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="N11" s="83" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="N11" s="82" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>180</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="83"/>
+        <v>181</v>
+      </c>
+      <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="83" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>186</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="83"/>
+        <v>187</v>
+      </c>
+      <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" s="86" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="83" t="s">
         <v>190</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>192</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="83"/>
+        <v>193</v>
+      </c>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>196</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I15" s="83"/>
+        <v>197</v>
+      </c>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>200</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" s="83" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>205</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="86" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6827,937 +6823,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7782,14 +7778,14 @@
     <col min="2" max="2" width="13.8141592920354" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2920353982301" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.2035398230088" style="74" customWidth="1"/>
-    <col min="6" max="6" width="2.5929203539823" style="74" customWidth="1"/>
-    <col min="7" max="7" width="10.1592920353982" style="74" customWidth="1"/>
-    <col min="8" max="8" width="3.12389380530973" style="75" customWidth="1"/>
+    <col min="5" max="5" width="16.2035398230088" style="73" customWidth="1"/>
+    <col min="6" max="6" width="2.5929203539823" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.1592920353982" style="73" customWidth="1"/>
+    <col min="8" max="8" width="3.12389380530973" style="74" customWidth="1"/>
     <col min="9" max="9" width="8.76991150442478" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.5929203539823" style="74" customWidth="1"/>
+    <col min="12" max="12" width="17.5929203539823" style="73" customWidth="1"/>
     <col min="13" max="13" width="2.5929203539823" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.2035398230088" style="11" customWidth="1"/>
     <col min="15" max="15" width="24.0353982300885" style="11" customWidth="1"/>
@@ -7817,196 +7813,196 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="N5" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" s="78" t="s">
         <v>378</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>409</v>
+      <c r="D17" s="75" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>411</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -8015,70 +8011,70 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8170,222 +8166,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8394,62 +8390,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8460,30 +8456,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8496,10 +8492,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8514,7 +8510,7 @@
   <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B5" sqref="B5:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -8588,31 +8584,31 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>500</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+        <v>501</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="57"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="57"/>
     </row>
     <row r="8" customHeight="1" spans="3:16">
@@ -8622,14 +8618,14 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8640,12 +8636,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="24"/>
       <c r="P9" s="7"/>
     </row>
@@ -8656,12 +8652,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="24"/>
       <c r="P10" s="7"/>
     </row>
@@ -8672,12 +8668,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="24"/>
       <c r="P11" s="7"/>
     </row>
@@ -8688,12 +8684,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="24"/>
       <c r="P12" s="7"/>
     </row>
@@ -8704,12 +8700,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="24"/>
       <c r="P13" s="7"/>
     </row>
@@ -8720,12 +8716,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
       <c r="H14" s="57"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="24"/>
       <c r="P14" s="7"/>
     </row>
@@ -8736,12 +8732,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
       <c r="H15" s="57"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="24"/>
       <c r="P15" s="7"/>
     </row>
@@ -8752,12 +8748,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="24"/>
       <c r="P16" s="7"/>
     </row>
@@ -8768,12 +8764,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
       <c r="H17" s="57"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="24"/>
       <c r="P17" s="7"/>
     </row>
@@ -8784,12 +8780,12 @@
       <c r="F18" s="22"/>
       <c r="G18" s="10"/>
       <c r="H18" s="57"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="24"/>
       <c r="P18" s="7"/>
     </row>
@@ -8800,12 +8796,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
       <c r="O19" s="24"/>
       <c r="P19" s="7"/>
     </row>
@@ -8855,7 +8851,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -8870,9 +8866,9 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" customHeight="1" spans="3:14">
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="62"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -8884,9 +8880,9 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="3:14">
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="62"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -8898,9 +8894,9 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" customHeight="1" spans="3:13">
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="62"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -8910,9 +8906,9 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" customHeight="1" spans="3:13">
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="62"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -8922,9 +8918,9 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" customHeight="1" spans="3:13">
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="62"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -8934,9 +8930,9 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" customHeight="1" spans="3:13">
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="62"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -8946,9 +8942,9 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" customHeight="1" spans="3:13">
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="62"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -8958,9 +8954,9 @@
       <c r="M30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="3:13">
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="62"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -8970,27 +8966,27 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" customHeight="1" spans="3:6">
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="62"/>
     </row>
     <row r="33" customHeight="1" spans="3:6">
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="62"/>
     </row>
     <row r="34" customHeight="1" spans="3:6">
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="62"/>
     </row>
     <row r="35" customHeight="1" spans="3:6">
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="62"/>
     </row>
     <row r="36" customHeight="1" spans="3:6">
@@ -9047,19 +9043,19 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:16">
       <c r="B2" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9068,643 +9064,643 @@
     </row>
     <row r="3" customHeight="1" spans="2:16">
       <c r="B3" s="36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
       <c r="O4" s="50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="L23" s="51" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -9748,201 +9744,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9950,13 +9946,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -9966,161 +9962,161 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C17" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10128,19 +10124,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10150,7 +10146,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10158,14 +10154,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10173,14 +10169,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10188,14 +10184,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C22" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10209,43 +10205,43 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10280,222 +10276,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
       <c r="B9" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="851">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Tab</t>
   </si>
   <si>
-    <t>切换应用</t>
+    <t>切换应用(AltTab)</t>
   </si>
   <si>
     <t>W A S D</t>
@@ -104,7 +104,7 @@
     <t>~</t>
   </si>
   <si>
-    <t>任务切换器</t>
+    <t>DexTab任务切换器</t>
   </si>
   <si>
     <t>.</t>
@@ -326,16 +326,10 @@
     <t>显示快捷键帮助</t>
   </si>
   <si>
-    <t>PowerToys 快速启动</t>
-  </si>
-  <si>
     <t>AppsKey RWin</t>
   </si>
   <si>
     <t>窗口 Mini</t>
-  </si>
-  <si>
-    <t>PowerToys Zones Editor</t>
   </si>
   <si>
     <t>RWin AppsKey</t>
@@ -3043,6 +3037,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3050,7 +3067,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3073,29 +3126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3104,16 +3134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3127,8 +3150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3142,23 +3166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,22 +3176,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3209,30 +3203,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3245,7 +3215,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,97 +3293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3365,7 +3311,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3377,19 +3353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3573,6 +3567,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3583,6 +3607,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3607,50 +3640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3677,10 +3671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3689,133 +3683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5425,7 +5419,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5839,10 +5833,10 @@
         <v>96</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="101"/>
@@ -5857,33 +5851,24 @@
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>100</v>
-      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="95"/>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>103</v>
-      </c>
+      <c r="F17" s="95"/>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
@@ -5951,7 +5936,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>34</v>
@@ -5959,10 +5944,10 @@
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>42</v>
@@ -5970,10 +5955,10 @@
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>50</v>
@@ -5984,7 +5969,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>59</v>
@@ -5995,7 +5980,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>69</v>
@@ -6006,10 +5991,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -6017,7 +6002,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>82</v>
@@ -6028,7 +6013,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>87</v>
@@ -6036,20 +6021,20 @@
     </row>
     <row r="10" customHeight="1" spans="2:5">
       <c r="B10" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
       <c r="B11" s="117" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6085,117 +6070,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>836</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>843</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
@@ -6205,7 +6190,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
@@ -6213,13 +6198,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>37</v>
@@ -6227,7 +6212,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>81</v>
@@ -6237,13 +6222,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
@@ -6251,10 +6236,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -6287,7 +6272,7 @@
     </row>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="87"/>
       <c r="E2" s="11"/>
@@ -6298,7 +6283,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -6308,7 +6293,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
@@ -6316,119 +6301,119 @@
         <v>60</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:3">
       <c r="B13" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
       <c r="B14" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
       <c r="B15" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:3">
       <c r="B19" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
@@ -6436,7 +6421,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
@@ -6444,7 +6429,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
@@ -6452,7 +6437,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
@@ -6460,7 +6445,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6502,7 +6487,7 @@
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
       <c r="C5" s="116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>43</v>
@@ -6515,79 +6500,79 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="81" t="s">
         <v>143</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="N6" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="N7" s="82" t="s">
         <v>155</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="82" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="82" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I8" s="82"/>
       <c r="M8" s="15"/>
@@ -6595,41 +6580,41 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>162</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N9" s="82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="82" t="s">
         <v>168</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>170</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I10" s="82"/>
       <c r="M10" s="15"/>
@@ -6637,143 +6622,143 @@
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>174</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N11" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>180</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="82" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="82" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>192</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="82" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>196</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>198</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>200</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>203</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>205</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6823,937 +6808,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7813,196 +7798,196 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="O5" s="77" t="s">
         <v>378</v>
-      </c>
-      <c r="N5" s="75" t="s">
-        <v>379</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="L15" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="75" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -8011,70 +7996,70 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8166,222 +8151,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>426</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>433</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>448</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>452</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>456</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>461</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>465</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="25" t="s">
         <v>471</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C17" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8390,62 +8375,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>486</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8456,30 +8441,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="25" t="s">
         <v>494</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8492,10 +8477,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8584,10 +8569,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -8597,7 +8582,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -8625,7 +8610,7 @@
       <c r="M8" s="70"/>
       <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8851,7 +8836,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -9046,16 +9031,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="L2" s="43" t="s">
         <v>507</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>509</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9064,38 +9049,38 @@
     </row>
     <row r="3" customHeight="1" spans="2:16">
       <c r="B3" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="L3" s="46" t="s">
         <v>511</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>513</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>515</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>517</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9108,424 +9093,424 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="H5" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="L5" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="O5" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="P5" s="36" t="s">
         <v>523</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="L6" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="O6" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="L6" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="36" t="s">
+      <c r="P6" s="36" t="s">
         <v>530</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="L7" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="O7" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>538</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="L8" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="M8" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="O8" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="P8" s="36" t="s">
         <v>546</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>551</v>
-      </c>
       <c r="L9" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="M10" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="L10" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>556</v>
-      </c>
       <c r="O10" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="H11" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>560</v>
-      </c>
       <c r="L11" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="H12" s="36" t="s">
         <v>563</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>565</v>
       </c>
       <c r="L12" s="51" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="H13" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="L13" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="M13" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="O13" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="P13" s="38" t="s">
         <v>572</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>573</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>576</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>578</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="M15" s="36" t="s">
         <v>582</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>583</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="H16" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="L16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="36" t="s">
         <v>587</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="H17" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="L17" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="M17" s="36" t="s">
         <v>593</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>596</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>597</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>599</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>53</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="H19" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="L19" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="M19" s="36" t="s">
         <v>604</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>605</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="H20" s="36" t="s">
         <v>608</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>610</v>
       </c>
       <c r="L20" s="51" t="s">
         <v>68</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>613</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>615</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="L22" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="M22" s="36" t="s">
         <v>619</v>
-      </c>
-      <c r="L22" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9534,173 +9519,173 @@
         <v>37</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="53" t="s">
         <v>630</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>631</v>
-      </c>
-      <c r="L25" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="H26" s="36" t="s">
         <v>634</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>635</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>636</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="H27" s="36" t="s">
         <v>638</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="H28" s="36" t="s">
         <v>642</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>643</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="H29" s="36" t="s">
         <v>646</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>647</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>648</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="H31" s="36" t="s">
         <v>652</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>653</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -9744,201 +9729,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="I4" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="L4" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>681</v>
       </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="I8" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="C9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>705</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9946,13 +9931,13 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
+        <v>704</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>708</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>22</v>
@@ -9962,161 +9947,161 @@
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="I12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="L12" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
+        <v>717</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" t="s">
         <v>724</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>732</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>738</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" t="s">
         <v>742</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>746</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10124,19 +10109,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>746</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" s="6" t="s">
         <v>748</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10146,7 +10131,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10154,14 +10139,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10169,14 +10154,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10184,14 +10169,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10205,7 +10190,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>92</v>
@@ -10214,34 +10199,34 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10276,178 +10261,178 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>766</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>772</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>779</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>787</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>793</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="L6" s="25" t="s">
         <v>794</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="I7" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="K7" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>800</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>801</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10455,43 +10440,43 @@
         <v>64</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>806</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758"/>
+    <workbookView windowWidth="23287" windowHeight="13080" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="854">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -38,7 +38,8 @@
     <t>[RAlt]</t>
   </si>
   <si>
-    <t>全局应用（软件）</t>
+    <t>全局应用（软件）
+[RWin] -&gt; [Ctrl Alt Shift]</t>
   </si>
   <si>
     <t>+123QWEASD</t>
@@ -65,46 +66,67 @@
     <t>隐藏提示</t>
   </si>
   <si>
-    <t>[RWin] -&gt; [Ctrl Alt Shift]</t>
-  </si>
-  <si>
     <t>123QWEASD</t>
   </si>
   <si>
     <t>切换桌面</t>
   </si>
   <si>
+    <t>+Tab</t>
+  </si>
+  <si>
+    <t>切换应用(ShiftAltTab)</t>
+  </si>
+  <si>
+    <t>U. D. L. R.</t>
+  </si>
+  <si>
+    <t>鼠标移动（333）</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>自定义快捷键提示</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>DexTab任务切换器</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
     <t>Windows设置</t>
   </si>
   <si>
-    <t>U. D. L. R.</t>
-  </si>
-  <si>
-    <t>鼠标移动（333）</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
-    <t>自定义快捷键提示</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>屏幕识图</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>DexTab任务切换器</t>
+    <t>P ; L '</t>
+  </si>
+  <si>
+    <t>鼠标移动（9）</t>
+  </si>
+  <si>
+    <t>F1-F12</t>
+  </si>
+  <si>
+    <t>F13-F24</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>识图</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>上一个桌面</t>
   </si>
   <si>
     <t>.</t>
@@ -113,76 +135,155 @@
     <t>所有控制面板项</t>
   </si>
   <si>
-    <t>P ; L '</t>
-  </si>
-  <si>
-    <t>鼠标移动（9）</t>
-  </si>
-  <si>
-    <t>F1-F12</t>
-  </si>
-  <si>
-    <t>F13-F24</t>
+    <t>*1 2 3</t>
+  </si>
+  <si>
+    <t>屏幕中心 1 2 3</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>窗口目录</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>系统菜单</t>
+  </si>
+  <si>
+    <t>左键单击</t>
+  </si>
+  <si>
+    <t>[RWin]</t>
   </si>
   <si>
     <t>CloudMusic</t>
   </si>
   <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>全屏预览</t>
+  </si>
+  <si>
+    <t>= -</t>
+  </si>
+  <si>
+    <t>音量加减</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>右键单击</t>
+  </si>
+  <si>
+    <t>取消操作
+Listary工具</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
     <t>播放/暂停</t>
   </si>
   <si>
-    <t>CapsLock</t>
-  </si>
-  <si>
-    <t>上一个桌面</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>系统设置</t>
-  </si>
-  <si>
-    <t>*1 2 3</t>
-  </si>
-  <si>
-    <t>屏幕中心 1 2 3</t>
-  </si>
-  <si>
-    <t>PgUp</t>
-  </si>
-  <si>
-    <t>上一首</t>
-  </si>
-  <si>
-    <t>Alt</t>
-  </si>
-  <si>
-    <t>窗口目录</t>
-  </si>
-  <si>
-    <t>= -</t>
-  </si>
-  <si>
-    <t>音量加减</t>
-  </si>
-  <si>
-    <t>左键单击</t>
-  </si>
-  <si>
-    <t>[RWin]</t>
-  </si>
-  <si>
-    <t>PgDn</t>
-  </si>
-  <si>
-    <t>下一首</t>
-  </si>
-  <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>全屏预览</t>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>最小化到系统托盘</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>切换应用（任务栏）</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>中键单击</t>
+  </si>
+  <si>
+    <t>PgUp PgDn</t>
+  </si>
+  <si>
+    <t>上一首/下一首</t>
+  </si>
+  <si>
+    <t>切换窗口透明度</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>临时显示桌面</t>
+  </si>
+  <si>
+    <t>窗口居中</t>
+  </si>
+  <si>
+    <t>音量加/音量减</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>选择任务栏图标</t>
+  </si>
+  <si>
+    <t>窗口调节（小</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>喜欢歌曲</t>
+  </si>
+  <si>
+    <t>LWin RWin</t>
+  </si>
+  <si>
+    <t>重新加载脚本</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>打开“连接”快速操作</t>
+  </si>
+  <si>
+    <t>窗口调节（大</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>打开/关闭歌词</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>打开连接</t>
+  </si>
+  <si>
+    <t>移动窗口</t>
+  </si>
+  <si>
+    <t>RWin RAlt</t>
+  </si>
+  <si>
+    <t>Alt F4</t>
   </si>
   <si>
     <t>C</t>
@@ -191,25 +292,10 @@
     <t>复制文件路径</t>
   </si>
   <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>右键单击</t>
-  </si>
-  <si>
-    <t>窗口居中</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>音量加</t>
-  </si>
-  <si>
-    <t>Esc</t>
-  </si>
-  <si>
-    <t>最小化到系统托盘</t>
+    <t>RAlt RWin</t>
+  </si>
+  <si>
+    <t>Ctrl W</t>
   </si>
   <si>
     <t>0</t>
@@ -218,120 +304,21 @@
     <t>显示隐藏任务栏</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>中键单击</t>
-  </si>
-  <si>
-    <t>*3</t>
-  </si>
-  <si>
-    <t>移动窗口</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>音量减</t>
-  </si>
-  <si>
-    <t>PgUp PgDn</t>
-  </si>
-  <si>
-    <t>切换窗口透明度</t>
-  </si>
-  <si>
-    <t>显示隐藏所有窗口</t>
-  </si>
-  <si>
-    <t>*4</t>
-  </si>
-  <si>
-    <t>窗口调节（大</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>mini/完整模式</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>选择任务栏图标</t>
-  </si>
-  <si>
-    <t>*5</t>
-  </si>
-  <si>
-    <t>窗口调节（小</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>喜欢歌曲</t>
-  </si>
-  <si>
-    <t>LWin RWin</t>
-  </si>
-  <si>
-    <t>重新加载脚本</t>
-  </si>
-  <si>
-    <t>打开连接</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>打开/关闭歌词</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>临时显示桌面</t>
-  </si>
-  <si>
     <t>[RShift]</t>
   </si>
   <si>
-    <t>RWin RAlt</t>
-  </si>
-  <si>
-    <t>Alt F4</t>
-  </si>
-  <si>
-    <t>锁定电脑</t>
-  </si>
-  <si>
     <t>隐藏快捷键帮助</t>
   </si>
   <si>
-    <t>RAlt RWin</t>
-  </si>
-  <si>
-    <t>Ctrl W</t>
-  </si>
-  <si>
-    <t>[ ]</t>
-  </si>
-  <si>
-    <t>切换应用（任务栏）</t>
+    <t>AppsKey RWin</t>
+  </si>
+  <si>
+    <t>窗口 Mini</t>
   </si>
   <si>
     <t>显示快捷键帮助</t>
   </si>
   <si>
-    <t>AppsKey RWin</t>
-  </si>
-  <si>
-    <t>窗口 Mini</t>
-  </si>
-  <si>
     <t>RWin AppsKey</t>
   </si>
   <si>
@@ -1281,9 +1268,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Alt T</t>
-  </si>
-  <si>
-    <t>翻译</t>
   </si>
   <si>
     <t>Alt U</t>
@@ -1843,6 +1827,9 @@
     <t>将网页上的所有内容恢复到默认大小</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>播放下一个视频(如果有的话)</t>
   </si>
   <si>
@@ -1913,9 +1900,6 @@
     <t>浏览下一个可点击项</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>播放下一个视频 (如果有的话)</t>
   </si>
   <si>
@@ -2035,6 +2019,9 @@
     <t>将光标移到下一个字词起始处</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>播放速度 -0.25 (最小为 0.25)</t>
   </si>
   <si>
@@ -2558,9 +2545,15 @@
     <t>色彩度+1%</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>上一文件</t>
   </si>
   <si>
+    <t>PgUp</t>
+  </si>
+  <si>
     <t>步进30秒</t>
   </si>
   <si>
@@ -2573,6 +2566,9 @@
     <t>下一文件</t>
   </si>
   <si>
+    <t>PgDn</t>
+  </si>
+  <si>
     <t>步退1分</t>
   </si>
   <si>
@@ -2876,13 +2872,28 @@
     <t>RWin [</t>
   </si>
   <si>
+    <t>上一首</t>
+  </si>
+  <si>
     <t>RWin ]</t>
   </si>
   <si>
+    <t>下一首</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
     <t>RWin =</t>
   </si>
   <si>
+    <t>音量加</t>
+  </si>
+  <si>
     <t>RWin -</t>
+  </si>
+  <si>
+    <t>音量减</t>
   </si>
   <si>
     <t>RWin M</t>
@@ -2995,10 +3006,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3037,9 +3048,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,6 +3057,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3061,22 +3092,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3090,22 +3121,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3119,47 +3161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3176,6 +3179,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3203,13 +3214,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,13 +3268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,19 +3304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3275,19 +3328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,13 +3346,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3317,67 +3382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,21 +3577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3622,15 +3618,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3640,11 +3627,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3663,6 +3665,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3671,10 +3682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3683,7 +3694,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3692,128 +3703,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4123,6 +4134,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4132,34 +4152,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -5416,10 +5460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5434,22 +5478,21 @@
     <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
     <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
     <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="11" max="11" width="3.55752212389381" style="95" customWidth="1"/>
-    <col min="12" max="12" width="8.23893805309734" style="95" customWidth="1"/>
+    <col min="11" max="11" width="3.65486725663717" style="95" customWidth="1"/>
+    <col min="12" max="12" width="10.2300884955752" style="95" customWidth="1"/>
     <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="16" max="16" width="3.6283185840708" style="11" customWidth="1"/>
-    <col min="17" max="17" width="5.74336283185841" style="95" customWidth="1"/>
-    <col min="18" max="18" width="7.53982300884956" style="95" customWidth="1"/>
-    <col min="19" max="19" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="95"/>
+    <col min="16" max="16" width="5.24778761061947" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.7610619469027" style="95" customWidth="1"/>
+    <col min="18" max="18" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" customHeight="1" spans="1:18">
+    <row r="2" customHeight="1" spans="1:17">
       <c r="A2" s="11"/>
       <c r="B2" s="86" t="s">
         <v>0</v>
@@ -5470,15 +5513,14 @@
       <c r="L2" s="98"/>
       <c r="M2" s="101"/>
       <c r="N2" s="102"/>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="98"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:18">
+      <c r="Q2" s="117"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="11"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="122" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5496,410 +5538,402 @@
       <c r="I3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="105" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="96"/>
-      <c r="N3" s="103"/>
-      <c r="P3" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
+      <c r="N3" s="106"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="118"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="11"/>
       <c r="B4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="I4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="K4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="91" t="s">
+      <c r="P4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:17">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:18">
-      <c r="B5" s="24" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="H5" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="I5" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="K5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="L5" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="P5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="Q5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="92" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="2:17">
+      <c r="B6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="94" t="s">
+      <c r="E6" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:18">
-      <c r="B6" s="24" t="s">
+      <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="106"/>
+      <c r="P6" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="Q6" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="91" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="2:17">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="103"/>
-      <c r="P6" s="24" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="91" t="s">
+      <c r="E7" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:18">
-      <c r="B7" s="24" t="s">
+      <c r="F7" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="100" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="98"/>
+      <c r="P7" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="119"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:17">
+      <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="105" t="s">
+      <c r="C8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="P7" s="24" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="91" t="s">
+      <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:18">
-      <c r="B8" s="24" t="s">
+      <c r="H8" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="I8" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="24" t="s">
+      <c r="K8" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="110" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="91" t="s">
-        <v>57</v>
       </c>
       <c r="M8" s="101"/>
       <c r="N8" s="102"/>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:17">
+      <c r="B9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="91" t="s">
+      <c r="F9" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:18">
-      <c r="B9" s="24" t="s">
+      <c r="H9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="I9" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="115" t="s">
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="114"/>
+      <c r="P9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="Q9" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="48" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="2:17">
+      <c r="B10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="F10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="K10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="108"/>
-      <c r="P9" s="24" t="s">
+      <c r="P10" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="91" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:18">
-      <c r="B10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="91" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="4:18">
+    </row>
+    <row r="11" customHeight="1" spans="4:17">
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
-      <c r="K11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:18">
+      <c r="K11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:17">
       <c r="B12" s="75" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J12" s="101"/>
+      <c r="K12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="91" t="s">
+        <v>78</v>
+      </c>
       <c r="M12" s="101"/>
       <c r="N12" s="102"/>
-      <c r="P12" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="92" t="s">
-        <v>87</v>
+      <c r="P12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="90" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:12">
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="98"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:12">
+        <v>82</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="94" t="s">
-        <v>94</v>
+      <c r="E14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="26" t="s">
-        <v>97</v>
+      <c r="E15" s="126" t="s">
+        <v>90</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J15" s="101"/>
-      <c r="K15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:6">
+      <c r="K15" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="98"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="95"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:6">
+      <c r="K16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F17" s="95"/>
+      <c r="K17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>103</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="11:12">
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
+      <c r="J20" s="115"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="110"/>
-    </row>
-    <row r="25" customHeight="1" spans="8:12">
+      <c r="N20" s="116"/>
+    </row>
+    <row r="24" customHeight="1" spans="11:12">
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+    </row>
+    <row r="25" customHeight="1" spans="8:10">
       <c r="H25" s="101"/>
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
       <c r="M26" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="P2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5933,108 +5967,108 @@
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>42</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>813</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>58</v>
+        <v>814</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>59</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="15" t="s">
-        <v>68</v>
+        <v>603</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>69</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="15" t="s">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
       <c r="B9" s="17" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:5">
       <c r="B10" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="117" t="s">
-        <v>821</v>
+      <c r="B11" s="128" t="s">
+        <v>824</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6070,176 +6104,176 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -6254,7 +6288,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6272,7 +6306,7 @@
     </row>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="86" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C2" s="87"/>
       <c r="E2" s="11"/>
@@ -6283,169 +6317,169 @@
         <v>11</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="2:3">
       <c r="B4" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" s="75" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:3">
       <c r="B13" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
       <c r="B14" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
       <c r="B15" s="24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:3">
       <c r="B19" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
       <c r="B20" s="24" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
       <c r="B21" s="24" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
       <c r="B22" s="24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
       <c r="B23" s="26" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6486,93 +6520,93 @@
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
-      <c r="C5" s="116" t="s">
-        <v>140</v>
+      <c r="C5" s="127" t="s">
+        <v>135</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N7" s="82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I8" s="82"/>
       <c r="M8" s="15"/>
@@ -6580,41 +6614,41 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N9" s="82" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I10" s="82"/>
       <c r="M10" s="15"/>
@@ -6622,143 +6656,143 @@
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N11" s="82" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6808,937 +6842,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7798,196 +7832,196 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="75" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -7996,70 +8030,70 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>419</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:12">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8151,222 +8185,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8375,62 +8409,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8441,30 +8475,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8477,10 +8511,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8495,7 +8529,7 @@
   <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Q36"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -8569,10 +8603,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -8582,7 +8616,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -8610,7 +8644,7 @@
       <c r="M8" s="70"/>
       <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8836,7 +8870,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -9028,19 +9062,19 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:16">
       <c r="B2" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9049,643 +9083,643 @@
     </row>
     <row r="3" customHeight="1" spans="2:16">
       <c r="B3" s="36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
       <c r="O4" s="50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="O5" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="P5" s="36" t="s">
         <v>517</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="P6" s="36" t="s">
         <v>524</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="O7" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>532</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="O8" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="P8" s="36" t="s">
         <v>540</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="M13" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="O13" s="52" t="s">
         <v>566</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="P13" s="38" t="s">
         <v>567</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>581</v>
+        <v>76</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>68</v>
+        <v>603</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="L23" s="51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -9729,201 +9763,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="L4" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="L5" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9931,177 +9965,177 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>22</v>
+        <v>702</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>704</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" t="s">
+        <v>709</v>
+      </c>
+      <c r="E12" t="s">
+        <v>710</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H12" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="I12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="L12" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>718</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" t="s">
+        <v>721</v>
+      </c>
+      <c r="E14" t="s">
         <v>722</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>726</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
+        <v>727</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>730</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>736</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>737</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C17" t="s">
+        <v>739</v>
+      </c>
+      <c r="E17" t="s">
         <v>740</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10109,19 +10143,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>744</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10131,7 +10165,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10139,14 +10173,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10154,14 +10188,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10169,14 +10203,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10190,43 +10224,43 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -10261,222 +10295,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>722</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>764</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>770</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>777</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>780</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>785</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>789</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="L6" s="25" t="s">
         <v>792</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="I7" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="K7" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>798</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>799</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>801</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
       <c r="B9" s="26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>804</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23287" windowHeight="13080" tabRatio="758"/>
+    <workbookView windowWidth="19612" windowHeight="11662" tabRatio="758" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="855">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>文件管理器(外置)</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>WeChat</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>P</t>
@@ -1653,9 +1662,6 @@
     <t>将所有打开的标签页以书签的形式保存在新文件夹中</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>开启或关闭网页全屏模式</t>
   </si>
   <si>
@@ -1694,9 +1700,6 @@
   </si>
   <si>
     <t>打开选项以打印当前网页</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>开启或关闭宽屏模式</t>
@@ -3049,13 +3052,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3063,21 +3059,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3092,7 +3081,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3100,6 +3129,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3114,24 +3158,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3147,46 +3189,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3214,13 +3217,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3232,49 +3289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,25 +3307,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,25 +3343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,49 +3361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3593,6 +3596,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3618,10 +3636,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3644,24 +3660,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3682,10 +3685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3694,137 +3697,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4110,6 +4113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4137,9 +4146,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4152,18 +4158,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4175,9 +4172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5462,31 +5456,31 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="96" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="98" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="11" max="11" width="3.65486725663717" style="95" customWidth="1"/>
-    <col min="12" max="12" width="10.2300884955752" style="95" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="97" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="97" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="11" max="11" width="3.65486725663717" style="97" customWidth="1"/>
+    <col min="12" max="12" width="10.2300884955752" style="97" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="99" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="16" max="16" width="5.24778761061947" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.7610619469027" style="95" customWidth="1"/>
-    <col min="18" max="18" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="95"/>
+    <col min="17" max="17" width="10.7610619469027" style="97" customWidth="1"/>
+    <col min="18" max="18" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5497,30 +5491,30 @@
       <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="100"/>
       <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="101"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="P2" s="103" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
+      <c r="P2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="11"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5532,22 +5526,22 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="101" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="106"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="118"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="11"/>
@@ -5557,13 +5551,13 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="120" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="102" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="91" t="s">
@@ -5575,10 +5569,10 @@
       <c r="L4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="119"/>
+      <c r="Q4" s="116"/>
     </row>
     <row r="5" customHeight="1" spans="2:17">
       <c r="B5" s="24" t="s">
@@ -5593,7 +5587,7 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="102" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="91" t="s">
@@ -5625,18 +5619,18 @@
       <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="102" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="106"/>
-      <c r="P6" s="124" t="s">
+      <c r="M6" s="98"/>
+      <c r="N6" s="107"/>
+      <c r="P6" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="120" t="s">
+      <c r="Q6" s="117" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5653,7 +5647,7 @@
       <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="102" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="91" t="s">
@@ -5662,11 +5656,11 @@
       <c r="K7" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="P7" s="108" t="s">
+      <c r="L7" s="100"/>
+      <c r="P7" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="119"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8" s="24" t="s">
@@ -5676,26 +5670,26 @@
         <v>48</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="120" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="102" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
       <c r="P8" s="88" t="s">
         <v>54</v>
       </c>
@@ -5723,14 +5717,14 @@
       <c r="I9" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="114"/>
-      <c r="P9" s="100" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="P9" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="121" t="s">
+      <c r="Q9" s="118" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5754,10 +5748,10 @@
       <c r="L10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="125" t="s">
+      <c r="P10" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="121" t="s">
+      <c r="Q10" s="118" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5778,10 +5772,10 @@
       <c r="L11" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="100" t="s">
+      <c r="P11" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="121" t="s">
+      <c r="Q11" s="118" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5799,15 +5793,15 @@
       <c r="F12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="101"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="24" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="102"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
       <c r="P12" s="48" t="s">
         <v>79</v>
       </c>
@@ -5853,21 +5847,21 @@
         <v>89</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="123" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="101"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="98"/>
+      <c r="L15" s="100"/>
     </row>
     <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="11"/>
       <c r="K16" s="19" t="s">
         <v>11</v>
@@ -5883,7 +5877,7 @@
       <c r="C17" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="97"/>
       <c r="K17" s="26" t="s">
         <v>19</v>
       </c>
@@ -5900,22 +5894,22 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="11:12">
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="115"/>
+      <c r="J20" s="113"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="116"/>
+      <c r="N20" s="114"/>
     </row>
     <row r="24" customHeight="1" spans="11:12">
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
     </row>
     <row r="25" customHeight="1" spans="8:10">
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
       <c r="M26" s="73"/>
@@ -5970,7 +5964,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>55</v>
@@ -5978,46 +5972,46 @@
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="15" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -6025,18 +6019,18 @@
         <v>81</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="15" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>73</v>
@@ -6047,7 +6041,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>80</v>
@@ -6058,17 +6052,17 @@
         <v>107</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="128" t="s">
-        <v>824</v>
+      <c r="B11" s="125" t="s">
+        <v>825</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -6104,117 +6098,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
@@ -6224,7 +6218,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>34</v>
@@ -6232,13 +6226,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -6246,34 +6240,34 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -6285,10 +6279,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6371,115 +6365,131 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="96" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="91" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="2:3">
+      <c r="B13" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
       <c r="B14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="91" t="s">
         <v>119</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
       <c r="B15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="91" t="s">
         <v>121</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="91" t="s">
         <v>123</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="30" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="94" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="91" t="s">
+      <c r="B21" s="19" t="s">
         <v>132</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
       <c r="B22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="26" t="s">
+      <c r="C24" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>134</v>
+      <c r="C25" s="92" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6520,8 +6530,8 @@
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
-      <c r="C5" s="127" t="s">
-        <v>135</v>
+      <c r="C5" s="124" t="s">
+        <v>138</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>40</v>
@@ -6534,13 +6544,13 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -6548,24 +6558,24 @@
         <v>103</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -6573,40 +6583,40 @@
         <v>105</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N7" s="82" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I8" s="82"/>
       <c r="M8" s="15"/>
@@ -6614,41 +6624,41 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N9" s="82" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I10" s="82"/>
       <c r="M10" s="15"/>
@@ -6656,143 +6666,143 @@
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N11" s="82" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6842,937 +6852,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7835,193 +7845,193 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="75" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -8030,47 +8040,47 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>39</v>
@@ -8080,20 +8090,20 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8185,222 +8195,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8409,62 +8419,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>476</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>473</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8475,30 +8485,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8511,10 +8521,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8603,10 +8613,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -8616,7 +8626,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -8644,7 +8654,7 @@
       <c r="M8" s="70"/>
       <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8870,7 +8880,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -9065,16 +9075,16 @@
         <v>56</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9086,35 +9096,35 @@
         <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9127,424 +9137,424 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>537</v>
+        <v>113</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>56</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>76</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>86</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9553,173 +9563,173 @@
         <v>42</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -9763,201 +9773,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>537</v>
+        <v>113</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9965,177 +9975,177 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C17" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E17" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10143,19 +10153,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10165,7 +10175,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10173,14 +10183,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C20" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10188,14 +10198,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10203,14 +10213,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10224,7 +10234,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>85</v>
@@ -10233,34 +10243,34 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -10298,175 +10308,175 @@
         <v>105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10474,43 +10484,43 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19612" windowHeight="11662" tabRatio="758" activeTab="1"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -3052,6 +3052,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3059,29 +3090,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3113,45 +3143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3173,7 +3165,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3217,49 +3217,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,7 +3265,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3289,115 +3397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,21 +3580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3606,30 +3591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3669,6 +3630,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3685,10 +3685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3697,137 +3697,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4111,12 +4111,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5462,25 +5456,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="98" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="96" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="97" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="97" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="11" max="11" width="3.65486725663717" style="97" customWidth="1"/>
-    <col min="12" max="12" width="10.2300884955752" style="97" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="99" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="11" max="11" width="3.65486725663717" style="95" customWidth="1"/>
+    <col min="12" max="12" width="10.2300884955752" style="95" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="16" max="16" width="5.24778761061947" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.7610619469027" style="97" customWidth="1"/>
-    <col min="18" max="18" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="97"/>
+    <col min="17" max="17" width="10.7610619469027" style="95" customWidth="1"/>
+    <col min="18" max="18" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5491,30 +5485,30 @@
       <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="98"/>
       <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="98"/>
       <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
-      <c r="P2" s="105" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="P2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="100"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="11"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="117" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5526,7 +5520,7 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="99" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="94" t="s">
@@ -5535,13 +5529,13 @@
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="106" t="s">
+      <c r="L3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="115"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="105"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="11"/>
@@ -5551,13 +5545,13 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="118" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="100" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="91" t="s">
@@ -5569,10 +5563,10 @@
       <c r="L4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="P4" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="116"/>
+      <c r="Q4" s="114"/>
     </row>
     <row r="5" customHeight="1" spans="2:17">
       <c r="B5" s="24" t="s">
@@ -5587,7 +5581,7 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="100" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="91" t="s">
@@ -5619,18 +5613,18 @@
       <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="100" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="107"/>
-      <c r="P6" s="121" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="105"/>
+      <c r="P6" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="117" t="s">
+      <c r="Q6" s="115" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5647,7 +5641,7 @@
       <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="100" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="91" t="s">
@@ -5656,11 +5650,11 @@
       <c r="K7" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="P7" s="109" t="s">
+      <c r="L7" s="98"/>
+      <c r="P7" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="116"/>
+      <c r="Q7" s="114"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8" s="24" t="s">
@@ -5670,13 +5664,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="118" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="100" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="91" t="s">
@@ -5685,11 +5679,11 @@
       <c r="K8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
       <c r="P8" s="88" t="s">
         <v>54</v>
       </c>
@@ -5719,12 +5713,12 @@
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
-      <c r="P9" s="102" t="s">
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
+      <c r="P9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="118" t="s">
+      <c r="Q9" s="116" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5748,10 +5742,10 @@
       <c r="L10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="118" t="s">
+      <c r="Q10" s="116" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5772,10 +5766,10 @@
       <c r="L11" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="102" t="s">
+      <c r="P11" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="118" t="s">
+      <c r="Q11" s="116" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5793,15 +5787,15 @@
       <c r="F12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="103"/>
+      <c r="J12" s="101"/>
       <c r="K12" s="24" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
       <c r="P12" s="48" t="s">
         <v>79</v>
       </c>
@@ -5847,21 +5841,21 @@
         <v>89</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="121" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="103"/>
+      <c r="J15" s="101"/>
       <c r="K15" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="100"/>
+      <c r="L15" s="98"/>
     </row>
     <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="11"/>
       <c r="K16" s="19" t="s">
         <v>11</v>
@@ -5877,7 +5871,7 @@
       <c r="C17" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="95"/>
       <c r="K17" s="26" t="s">
         <v>19</v>
       </c>
@@ -5894,22 +5888,22 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="11:12">
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="113"/>
+      <c r="J20" s="111"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="114"/>
+      <c r="N20" s="112"/>
     </row>
     <row r="24" customHeight="1" spans="11:12">
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
     </row>
     <row r="25" customHeight="1" spans="8:10">
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
       <c r="M26" s="73"/>
@@ -6058,7 +6052,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>825</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -6281,7 +6275,7 @@
   <sheetPr/>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -6365,18 +6359,18 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="91" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="91" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6530,7 +6524,7 @@
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="122" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="79" t="s">
@@ -9043,8 +9037,8 @@
   <sheetPr/>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1"/>
@@ -9062,7 +9056,7 @@
     <col min="11" max="11" width="2.5929203539823" style="33" customWidth="1"/>
     <col min="12" max="12" width="8.90265486725664" style="34" customWidth="1"/>
     <col min="13" max="13" width="29.4778761061947" style="31" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="31" customWidth="1"/>
+    <col min="14" max="14" width="2.5929203539823" style="31" customWidth="1"/>
     <col min="15" max="15" width="7.70796460176991" style="34" customWidth="1"/>
     <col min="16" max="16" width="26.2920353982301" style="31" customWidth="1"/>
     <col min="17" max="17" width="2.5929203539823" style="31" customWidth="1"/>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" activeTab="6"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="853">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -2899,16 +2899,10 @@
     <t>音量减</t>
   </si>
   <si>
-    <t>RWin M</t>
-  </si>
-  <si>
-    <t>MINI/完整模式</t>
-  </si>
-  <si>
-    <t>RWin L</t>
-  </si>
-  <si>
-    <t>RWin \</t>
+    <t>RWin O</t>
+  </si>
+  <si>
+    <t>RWin P</t>
   </si>
   <si>
     <t>我喜欢的音乐</t>
@@ -3009,10 +3003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3052,32 +3046,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3090,60 +3061,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,6 +3083,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3179,17 +3182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3217,7 +3211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3229,7 +3235,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,7 +3265,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,151 +3391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,6 +3574,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3599,57 +3652,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3668,15 +3671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3685,10 +3679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3697,133 +3691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5932,10 +5926,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
@@ -5955,7 +5949,7 @@
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="13" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>810</v>
@@ -6010,60 +6004,49 @@
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>703</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>820</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="123" t="s">
         <v>823</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:5">
-      <c r="B10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>824</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="123" t="s">
-        <v>825</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6092,21 +6075,21 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>103</v>
@@ -6120,13 +6103,13 @@
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>422</v>
@@ -6140,7 +6123,7 @@
         <v>194</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>404</v>
@@ -6150,21 +6133,21 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>787</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>482</v>
@@ -6172,37 +6155,37 @@
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>843</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>845</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
@@ -6212,7 +6195,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>34</v>
@@ -6220,13 +6203,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>847</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -6234,7 +6217,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>559</v>
@@ -6244,13 +6227,13 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>567</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>705</v>
@@ -6258,10 +6241,10 @@
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -9037,7 +9020,7 @@
   <sheetPr/>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+    <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" activeTab="9"/>
+    <workbookView windowWidth="19417" windowHeight="11130" tabRatio="758" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="855">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>回收站</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XShell</t>
   </si>
   <si>
     <t>音乐播放器</t>
@@ -3054,14 +3060,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3083,14 +3082,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3104,17 +3103,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3144,8 +3148,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3162,21 +3183,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3211,7 +3217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3223,7 +3235,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,13 +3373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,145 +3391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3574,13 +3580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3590,15 +3600,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3633,17 +3634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3671,6 +3666,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3679,10 +3685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3691,137 +3697,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4105,6 +4111,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5450,25 +5462,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="96" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="98" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="11" max="11" width="3.65486725663717" style="95" customWidth="1"/>
-    <col min="12" max="12" width="10.2300884955752" style="95" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="97" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="97" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="11" max="11" width="3.65486725663717" style="97" customWidth="1"/>
+    <col min="12" max="12" width="10.2300884955752" style="97" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="99" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="97" customWidth="1"/>
     <col min="16" max="16" width="5.24778761061947" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.7610619469027" style="95" customWidth="1"/>
-    <col min="18" max="18" width="1.60176991150442" style="95" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="95"/>
+    <col min="17" max="17" width="10.7610619469027" style="97" customWidth="1"/>
+    <col min="18" max="18" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5479,30 +5491,30 @@
       <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="100"/>
       <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="101"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="P2" s="103" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
+      <c r="P2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="98"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="11"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5514,7 +5526,7 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="101" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="94" t="s">
@@ -5523,13 +5535,13 @@
       <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="113"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="11"/>
@@ -5539,13 +5551,13 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="120" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="102" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="91" t="s">
@@ -5557,10 +5569,10 @@
       <c r="L4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="114"/>
+      <c r="Q4" s="116"/>
     </row>
     <row r="5" customHeight="1" spans="2:17">
       <c r="B5" s="24" t="s">
@@ -5575,7 +5587,7 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="102" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="91" t="s">
@@ -5607,18 +5619,18 @@
       <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="102" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="105"/>
-      <c r="P6" s="119" t="s">
+      <c r="M6" s="98"/>
+      <c r="N6" s="107"/>
+      <c r="P6" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="115" t="s">
+      <c r="Q6" s="117" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5635,7 +5647,7 @@
       <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="102" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="91" t="s">
@@ -5644,11 +5656,11 @@
       <c r="K7" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="P7" s="107" t="s">
+      <c r="L7" s="100"/>
+      <c r="P7" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="114"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8" s="24" t="s">
@@ -5658,13 +5670,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="120" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="102" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="91" t="s">
@@ -5673,11 +5685,11 @@
       <c r="K8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
       <c r="P8" s="88" t="s">
         <v>54</v>
       </c>
@@ -5707,12 +5719,12 @@
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
-      <c r="P9" s="100" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="P9" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="Q9" s="118" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5736,10 +5748,10 @@
       <c r="L10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="120" t="s">
+      <c r="P10" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="118" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5760,10 +5772,10 @@
       <c r="L11" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="100" t="s">
+      <c r="P11" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="Q11" s="118" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5781,15 +5793,15 @@
       <c r="F12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="101"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="24" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="102"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
       <c r="P12" s="48" t="s">
         <v>79</v>
       </c>
@@ -5835,21 +5847,21 @@
         <v>89</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="123" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="101"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="98"/>
+      <c r="L15" s="100"/>
     </row>
     <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="11"/>
       <c r="K16" s="19" t="s">
         <v>11</v>
@@ -5865,7 +5877,7 @@
       <c r="C17" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="97"/>
       <c r="K17" s="26" t="s">
         <v>19</v>
       </c>
@@ -5882,22 +5894,22 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="11:12">
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="111"/>
+      <c r="J20" s="113"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="112"/>
+      <c r="N20" s="114"/>
     </row>
     <row r="24" customHeight="1" spans="11:12">
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
     </row>
     <row r="25" customHeight="1" spans="8:10">
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
       <c r="M26" s="73"/>
@@ -5928,7 +5940,7 @@
   <sheetPr/>
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5952,7 +5964,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>55</v>
@@ -5963,10 +5975,10 @@
         <v>128</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
@@ -5974,40 +5986,40 @@
         <v>130</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="15" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="15" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>73</v>
@@ -6018,7 +6030,7 @@
         <v>114</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>80</v>
@@ -6029,17 +6041,17 @@
         <v>107</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="123" t="s">
-        <v>823</v>
+      <c r="B10" s="125" t="s">
+        <v>825</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -6075,117 +6087,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
@@ -6195,7 +6207,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>34</v>
@@ -6203,13 +6215,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -6217,34 +6229,34 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -6256,10 +6268,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6438,35 +6450,43 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="95" t="s">
         <v>134</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
       <c r="B23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>135</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:3">
       <c r="B24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="26" t="s">
+      <c r="C25" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>137</v>
+      <c r="C26" s="92" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6507,8 +6527,8 @@
   <sheetData>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
-      <c r="C5" s="122" t="s">
-        <v>138</v>
+      <c r="C5" s="124" t="s">
+        <v>140</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>40</v>
@@ -6521,13 +6541,13 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -6535,24 +6555,24 @@
         <v>103</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -6560,40 +6580,40 @@
         <v>105</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N7" s="82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I8" s="82"/>
       <c r="M8" s="15"/>
@@ -6601,41 +6621,41 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N9" s="82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I10" s="82"/>
       <c r="M10" s="15"/>
@@ -6643,143 +6663,143 @@
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N11" s="82" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6829,937 +6849,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7822,193 +7842,193 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="75" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -8017,47 +8037,47 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>39</v>
@@ -8067,20 +8087,20 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8172,222 +8192,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8396,62 +8416,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8462,30 +8482,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8498,10 +8518,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -8590,10 +8610,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -8603,7 +8623,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -8631,7 +8651,7 @@
       <c r="M8" s="70"/>
       <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8857,7 +8877,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -9052,16 +9072,16 @@
         <v>56</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9073,35 +9093,35 @@
         <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9114,172 +9134,172 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>120</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L7" s="51" t="s">
         <v>111</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>124</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>56</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O10" s="51" t="s">
         <v>120</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L11" s="51" t="s">
         <v>126</v>
@@ -9291,247 +9311,247 @@
         <v>128</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="O12" s="51" t="s">
         <v>130</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>76</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L16" s="51" t="s">
         <v>114</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>86</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9540,173 +9560,173 @@
         <v>42</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -9750,201 +9770,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>120</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9952,177 +9972,177 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C12" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E12" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C17" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E17" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10130,19 +10150,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10152,7 +10172,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10160,14 +10180,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10175,14 +10195,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C21" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10190,14 +10210,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C22" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10211,7 +10231,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>85</v>
@@ -10220,34 +10240,34 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -10285,175 +10305,175 @@
         <v>105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10461,43 +10481,43 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="856">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -349,6 +349,12 @@
     <t>Dexpot清理</t>
   </si>
   <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>重启Explorer</t>
+  </si>
+  <si>
     <t>`</t>
   </si>
   <si>
@@ -524,9 +530,6 @@
   </si>
   <si>
     <t>Paste</t>
-  </si>
-  <si>
-    <t>F5</t>
   </si>
   <si>
     <t>StepOver</t>
@@ -3009,10 +3012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3052,7 +3055,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3060,29 +3063,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3096,29 +3091,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3148,9 +3122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,8 +3153,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3189,9 +3184,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3217,13 +3220,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,13 +3328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3259,13 +3346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,31 +3364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,91 +3376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,6 +3583,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3599,22 +3617,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3636,9 +3639,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3647,33 +3652,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3685,145 +3688,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4098,45 +4101,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4182,7 +4185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -5529,7 +5532,7 @@
       <c r="H3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="92" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -5557,16 +5560,16 @@
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="93" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="93" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="109" t="s">
@@ -5587,16 +5590,16 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="93" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="96" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="50" t="s">
@@ -5619,10 +5622,10 @@
       <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="93" t="s">
         <v>37</v>
       </c>
       <c r="M6" s="98"/>
@@ -5647,10 +5650,10 @@
       <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="93" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="86" t="s">
@@ -5676,10 +5679,10 @@
       <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="93" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="19" t="s">
@@ -5714,17 +5717,17 @@
       <c r="H9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="96" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="111"/>
       <c r="N9" s="112"/>
-      <c r="P9" s="102" t="s">
+      <c r="P9" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="118" t="s">
+      <c r="Q9" s="91" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5745,13 +5748,13 @@
       <c r="K10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="96" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="118" t="s">
+      <c r="Q10" s="91" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5769,13 +5772,13 @@
       <c r="K11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="102" t="s">
+      <c r="P11" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="118" t="s">
+      <c r="Q11" s="91" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5783,7 +5786,7 @@
       <c r="B12" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="102" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="11"/>
@@ -5797,7 +5800,7 @@
       <c r="K12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="93" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="103"/>
@@ -5805,7 +5808,7 @@
       <c r="P12" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" s="90" t="s">
+      <c r="Q12" s="118" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5820,7 +5823,7 @@
       <c r="K13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="96" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5828,7 +5831,7 @@
       <c r="B14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="92" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="11"/>
@@ -5843,7 +5846,7 @@
       <c r="B15" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="96" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="11"/>
@@ -5866,7 +5869,7 @@
       <c r="K16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="94" t="s">
+      <c r="L16" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5874,14 +5877,14 @@
       <c r="B17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="92" t="s">
         <v>95</v>
       </c>
       <c r="F17" s="97"/>
       <c r="K17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="96" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5889,7 +5892,7 @@
       <c r="B18" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="96" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5964,7 +5967,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>55</v>
@@ -5972,54 +5975,54 @@
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="15" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>73</v>
@@ -6027,10 +6030,10 @@
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>80</v>
@@ -6038,20 +6041,20 @@
     </row>
     <row r="9" customHeight="1" spans="2:5">
       <c r="B9" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="2:4">
       <c r="B10" s="125" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -6087,117 +6090,117 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
@@ -6207,7 +6210,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>34</v>
@@ -6215,13 +6218,13 @@
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -6229,34 +6232,34 @@
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -6268,10 +6271,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6306,18 +6309,18 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="92" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6325,39 +6328,39 @@
       <c r="B6" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="93" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="93" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="95" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="96" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="92" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6365,31 +6368,31 @@
       <c r="B11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="96" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6397,7 +6400,7 @@
       <c r="B15" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="93" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6405,7 +6408,7 @@
       <c r="B16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="93" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6413,7 +6416,7 @@
       <c r="B17" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="93" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6421,7 +6424,7 @@
       <c r="B18" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="93" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6434,59 +6437,67 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="92" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
       <c r="B23" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:3">
       <c r="B24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>137</v>
+        <v>86</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
       <c r="B25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:3">
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>139</v>
+      <c r="C27" s="96" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6539,7 @@
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="75"/>
       <c r="C5" s="124" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>40</v>
@@ -6541,13 +6552,13 @@
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -6555,24 +6566,24 @@
         <v>103</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -6580,40 +6591,40 @@
         <v>105</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N7" s="82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I8" s="82"/>
       <c r="M8" s="15"/>
@@ -6621,41 +6632,41 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I9" s="82"/>
       <c r="M9" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N9" s="82" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I10" s="82"/>
       <c r="M10" s="15"/>
@@ -6663,143 +6674,143 @@
     </row>
     <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I11" s="82"/>
       <c r="M11" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N11" s="82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I12" s="82"/>
       <c r="M12" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I13" s="82"/>
       <c r="M13" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I15" s="82"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
@@ -6849,937 +6860,937 @@
     </row>
     <row r="149" customHeight="1" spans="18:18">
       <c r="R149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="18:18">
       <c r="R150" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="18:18">
       <c r="R152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="18:18">
       <c r="R153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="18:18">
       <c r="R155" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="18:18">
       <c r="R156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="18:18">
       <c r="R158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="18:18">
       <c r="R159" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="18:18">
       <c r="R160" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="18:18">
       <c r="R162" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="18:18">
       <c r="R163" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="18:18">
       <c r="R165" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="18:18">
       <c r="R166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="18:18">
       <c r="R168" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="18:18">
       <c r="R169" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="18:18">
       <c r="R170" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="18:18">
       <c r="R172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="18:18">
       <c r="R173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="18:18">
       <c r="R175" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="18:18">
       <c r="R176" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="18:18">
       <c r="R177" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="18:18">
       <c r="R179" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="18:18">
       <c r="R180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="18:18">
       <c r="R182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="18:18">
       <c r="R183" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="18:18">
       <c r="R184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="18:18">
       <c r="R186" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="18:18">
       <c r="R187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="18:18">
       <c r="R188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="18:18">
       <c r="R190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="18:18">
       <c r="R191" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="18:18">
       <c r="R192" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="18:18">
       <c r="R194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="18:18">
       <c r="R195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="18:18">
       <c r="R196" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="18:18">
       <c r="R198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="18:18">
       <c r="R199" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="18:18">
       <c r="R201" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="18:18">
       <c r="R202" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="18:18">
       <c r="R204" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="18:18">
       <c r="R205" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="18:18">
       <c r="R207" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="18:18">
       <c r="R208" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="18:18">
       <c r="R210" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="18:18">
       <c r="R211" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="18:18">
       <c r="R213" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="18:18">
       <c r="R214" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="18:18">
       <c r="R216" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="18:18">
       <c r="R217" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="18:18">
       <c r="R219" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="18:18">
       <c r="R220" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="18:18">
       <c r="R222" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="18:18">
       <c r="R223" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="18:18">
       <c r="R224" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="18:18">
       <c r="R226" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="18:18">
       <c r="R227" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="18:18">
       <c r="R229" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="18:18">
       <c r="R230" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="18:18">
       <c r="R232" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="18:18">
       <c r="R233" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="18:18">
       <c r="R235" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="18:18">
       <c r="R236" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="18:18">
       <c r="R238" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="18:18">
       <c r="R239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="18:18">
       <c r="R241" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="18:18">
       <c r="R242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="18:18">
       <c r="R244" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="18:18">
       <c r="R245" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="18:18">
       <c r="R247" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="18:18">
       <c r="R248" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="18:18">
       <c r="R250" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="18:18">
       <c r="R251" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="18:18">
       <c r="R253" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="18:18">
       <c r="R254" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="18:18">
       <c r="R256" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="18:18">
       <c r="R257" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="18:18">
       <c r="R259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="18:18">
       <c r="R260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="18:18">
       <c r="R262" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="18:18">
       <c r="R263" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="18:18">
       <c r="R265" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="18:18">
       <c r="R266" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="18:18">
       <c r="R268" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="18:18">
       <c r="R269" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="18:18">
       <c r="R271" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="18:18">
       <c r="R272" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="18:18">
       <c r="R274" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="18:18">
       <c r="R275" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="18:18">
       <c r="R277" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="18:18">
       <c r="R278" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="18:18">
       <c r="R280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="18:18">
       <c r="R281" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="18:18">
       <c r="R283" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="18:18">
       <c r="R284" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="18:18">
       <c r="R286" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="18:18">
       <c r="R287" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="18:18">
       <c r="R289" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="18:18">
       <c r="R290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="18:18">
       <c r="R292" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="18:18">
       <c r="R293" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="18:18">
       <c r="R295" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="18:18">
       <c r="R296" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="18:18">
       <c r="R298" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="18:18">
       <c r="R299" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="18:18">
       <c r="R301" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="18:18">
       <c r="R302" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="18:18">
       <c r="R304" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="18:18">
       <c r="R305" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="18:18">
       <c r="R307" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="18:18">
       <c r="R308" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="18:18">
       <c r="R310" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="18:18">
       <c r="R311" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="18:18">
       <c r="R313" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="18:18">
       <c r="R314" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="18:18">
       <c r="R316" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="18:18">
       <c r="R317" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="18:18">
       <c r="R319" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="18:18">
       <c r="R320" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="18:18">
       <c r="R322" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="18:18">
       <c r="R323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="18:18">
       <c r="R325" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="18:18">
       <c r="R326" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="18:18">
       <c r="R328" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="18:18">
       <c r="R329" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="18:18">
       <c r="R331" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="18:18">
       <c r="R332" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="18:18">
       <c r="R334" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="18:18">
       <c r="R335" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="18:18">
       <c r="R337" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="18:18">
       <c r="R338" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="18:18">
       <c r="R340" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="18:18">
       <c r="R341" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="18:18">
       <c r="R343" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="18:18">
       <c r="R344" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="18:18">
       <c r="R346" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="18:18">
       <c r="R347" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="18:18">
       <c r="R349" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="18:18">
       <c r="R350" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="18:18">
       <c r="R352" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="18:18">
       <c r="R353" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="18:18">
       <c r="R355" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="18:18">
       <c r="R356" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="18:18">
       <c r="R358" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="18:18">
       <c r="R359" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="18:18">
       <c r="R361" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="18:18">
       <c r="R362" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="18:18">
       <c r="R364" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="18:18">
       <c r="R365" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="18:18">
       <c r="R367" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="18:18">
       <c r="R368" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="18:18">
       <c r="R370" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="18:18">
       <c r="R371" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="18:18">
       <c r="R373" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="18:18">
       <c r="R374" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="18:18">
       <c r="R376" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="18:18">
       <c r="R377" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="18:18">
       <c r="R379" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="18:18">
       <c r="R380" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="18:18">
       <c r="R382" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="18:18">
       <c r="R383" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="18:18">
       <c r="R384" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="18:18">
       <c r="R386" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="18:18">
       <c r="R387" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="18:18">
       <c r="R388" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="18:18">
       <c r="R390" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="18:18">
       <c r="R391" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="18:18">
       <c r="R393" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="18:18">
       <c r="R394" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="18:18">
       <c r="R396" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="18:18">
       <c r="R397" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="18:18">
       <c r="R399" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="18:18">
       <c r="R400" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="18:18">
       <c r="R402" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="18:18">
       <c r="R403" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="18:18">
       <c r="R405" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="18:18">
       <c r="R406" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="18:18">
       <c r="R408" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="18:18">
       <c r="R409" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="18:18">
       <c r="R411" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="18:18">
       <c r="R412" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="18:18">
       <c r="R414" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="18:18">
       <c r="R415" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="18:18">
       <c r="R417" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="18:18">
       <c r="R418" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="18:18">
       <c r="R420" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="18:18">
       <c r="R421" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="18:18">
       <c r="R424" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7842,193 +7853,193 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="K16" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="75" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="8"/>
@@ -8037,47 +8048,47 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="K18" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:12">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="K19" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:12">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="K20" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:12">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="K21" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="K22" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>39</v>
@@ -8087,20 +8098,20 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="K23" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:12">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="K24" s="26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
@@ -8192,222 +8203,222 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6"/>
       <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:6">
       <c r="B15" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" customHeight="1" spans="2:6">
       <c r="B16" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="25"/>
@@ -8416,62 +8427,62 @@
       <c r="B19" s="6"/>
       <c r="C19" s="25"/>
       <c r="E19" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:6">
@@ -8482,30 +8493,30 @@
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>496</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:6">
@@ -8518,10 +8529,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
       <c r="E28" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8610,10 +8621,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -8623,7 +8634,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:14">
       <c r="C7" s="56" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -8651,7 +8662,7 @@
       <c r="M8" s="70"/>
       <c r="N8" s="71"/>
       <c r="O8" s="56" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8877,7 +8888,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:14">
       <c r="C23" s="59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61"/>
@@ -9072,16 +9083,16 @@
         <v>56</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -9093,35 +9104,35 @@
         <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M3" s="47"/>
       <c r="O3" s="48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:16">
       <c r="B4" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
@@ -9134,424 +9145,424 @@
     </row>
     <row r="5" customHeight="1" spans="2:16">
       <c r="B5" s="36" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:16">
       <c r="B6" s="36" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:16">
       <c r="B7" s="36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:16">
       <c r="B8" s="36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:16">
       <c r="B9" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O9" s="51" t="s">
         <v>56</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:16">
       <c r="B10" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:16">
       <c r="B12" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="36" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>76</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:13">
       <c r="B17" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:13">
       <c r="B18" s="36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>86</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:13">
       <c r="B21" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L21" s="51">
         <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:13">
       <c r="B22" s="36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:13">
       <c r="B23" s="36" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
@@ -9560,173 +9571,173 @@
         <v>42</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="38" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:13">
       <c r="B26" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
     <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="36" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="36" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:13">
       <c r="B29" s="38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="7:8">
       <c r="G30" s="36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="42" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:8">
       <c r="G32" s="36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:8">
       <c r="G33" s="36" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:8">
       <c r="G34" s="36" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="7:8">
       <c r="G35" s="36" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="7:8">
       <c r="G36" s="36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="7:8">
       <c r="G37" s="38" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -9770,201 +9781,201 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
@@ -9972,177 +9983,177 @@
     <row r="10" customHeight="1" spans="2:12">
       <c r="B10" s="6"/>
       <c r="E10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="2:12">
       <c r="B11" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6"/>
       <c r="E13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6"/>
       <c r="E15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I17" s="7">
         <v>4</v>
@@ -10150,19 +10161,19 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I18" s="7">
         <v>5</v>
@@ -10172,7 +10183,7 @@
       <c r="B19" s="6"/>
       <c r="F19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
@@ -10180,14 +10191,14 @@
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F20" s="25"/>
       <c r="H20" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I20" s="7">
         <v>7</v>
@@ -10195,14 +10206,14 @@
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F21" s="25"/>
       <c r="H21" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -10210,14 +10221,14 @@
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F22" s="25"/>
       <c r="H22" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -10231,7 +10242,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:9">
       <c r="B24" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>85</v>
@@ -10240,34 +10251,34 @@
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="H24" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:9">
       <c r="H25" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="8:9">
       <c r="H26" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10305,175 +10316,175 @@
         <v>105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:12">
       <c r="B3" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:12">
       <c r="B4" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:12">
       <c r="B5" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:12">
       <c r="B6" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:12">
       <c r="B7" s="24" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="24" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -10481,43 +10492,43 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="5:6">
       <c r="E10" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:6">
       <c r="E11" s="24" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="5:6">
       <c r="E12" s="26" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Hotkey.xlsx
+++ b/Doc/Hotkey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="855">
   <si>
     <t>Dexpot[LWin]</t>
   </si>
@@ -48,136 +48,161 @@
     <t>移动桌面</t>
   </si>
   <si>
+    <t xml:space="preserve"> Tab</t>
+  </si>
+  <si>
+    <t>切换应用(AltTab)</t>
+  </si>
+  <si>
+    <t>W A S D</t>
+  </si>
+  <si>
+    <t>鼠标移动（99）</t>
+  </si>
+  <si>
+    <t>F1-F12</t>
+  </si>
+  <si>
+    <t>F13-F24</t>
+  </si>
+  <si>
+    <t>123QWEASD</t>
+  </si>
+  <si>
+    <t>切换桌面</t>
+  </si>
+  <si>
+    <t>+Tab</t>
+  </si>
+  <si>
+    <t>切换应用(ShiftAltTab)</t>
+  </si>
+  <si>
+    <t>U. D. L. R.</t>
+  </si>
+  <si>
+    <t>鼠标移动（333）</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>DexTab任务切换器</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Windows设置</t>
+  </si>
+  <si>
+    <t>P ; L '</t>
+  </si>
+  <si>
+    <t>鼠标移动（9）</t>
+  </si>
+  <si>
+    <t>[RWin]</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>识图</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>上一个桌面</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>所有控制面板项</t>
+  </si>
+  <si>
+    <t>*1 2 3</t>
+  </si>
+  <si>
+    <t>屏幕中心 1 2 3
+截图保存</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>取消操作</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>窗口目录</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>系统菜单</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>窗口居中</t>
+  </si>
+  <si>
+    <t>CloudMusic</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>全屏预览</t>
+  </si>
+  <si>
+    <t>= -</t>
+  </si>
+  <si>
+    <t>音量加减</t>
+  </si>
+  <si>
     <t>Tab</t>
   </si>
   <si>
-    <t>切换应用(AltTab)</t>
-  </si>
-  <si>
-    <t>W A S D</t>
-  </si>
-  <si>
-    <t>鼠标移动（99）</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
-    <t>隐藏提示</t>
-  </si>
-  <si>
-    <t>123QWEASD</t>
-  </si>
-  <si>
-    <t>切换桌面</t>
-  </si>
-  <si>
-    <t>+Tab</t>
-  </si>
-  <si>
-    <t>切换应用(ShiftAltTab)</t>
-  </si>
-  <si>
-    <t>U. D. L. R.</t>
-  </si>
-  <si>
-    <t>鼠标移动（333）</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
-    <t>自定义快捷键提示</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>DexTab任务切换器</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Windows设置</t>
-  </si>
-  <si>
-    <t>P ; L '</t>
-  </si>
-  <si>
-    <t>鼠标移动（9）</t>
-  </si>
-  <si>
-    <t>F1-F12</t>
-  </si>
-  <si>
-    <t>F13-F24</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>识图</t>
-  </si>
-  <si>
-    <t>CapsLock</t>
-  </si>
-  <si>
-    <t>上一个桌面</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>所有控制面板项</t>
-  </si>
-  <si>
-    <t>*1 2 3</t>
-  </si>
-  <si>
-    <t>屏幕中心 1 2 3</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>翻译</t>
-  </si>
-  <si>
-    <t>Alt</t>
-  </si>
-  <si>
-    <t>窗口目录</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>系统菜单</t>
-  </si>
-  <si>
     <t>左键单击</t>
   </si>
   <si>
-    <t>[RWin]</t>
-  </si>
-  <si>
-    <t>CloudMusic</t>
-  </si>
-  <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>全屏预览</t>
-  </si>
-  <si>
-    <t>= -</t>
-  </si>
-  <si>
-    <t>音量加减</t>
+    <t>窗口调节（小</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>播放/暂停</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>最小化到系统托盘</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>切换应用（任务栏）</t>
   </si>
   <si>
     <t>Shift</t>
@@ -186,26 +211,22 @@
     <t>右键单击</t>
   </si>
   <si>
-    <t>取消操作
-Listary工具</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>播放/暂停</t>
-  </si>
-  <si>
-    <t>Esc</t>
-  </si>
-  <si>
-    <t>最小化到系统托盘</t>
-  </si>
-  <si>
-    <t>[ ]</t>
-  </si>
-  <si>
-    <t>切换应用（任务栏）</t>
+    <t>窗口调节（大</t>
+  </si>
+  <si>
+    <t>PgUp PgDn</t>
+  </si>
+  <si>
+    <t>上一首/下一首</t>
+  </si>
+  <si>
+    <t>切换窗口透明度</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>临时显示桌面</t>
   </si>
   <si>
     <t>Space</t>
@@ -214,22 +235,7 @@
     <t>中键单击</t>
   </si>
   <si>
-    <t>PgUp PgDn</t>
-  </si>
-  <si>
-    <t>上一首/下一首</t>
-  </si>
-  <si>
-    <t>切换窗口透明度</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>临时显示桌面</t>
-  </si>
-  <si>
-    <t>窗口居中</t>
+    <t>移动窗口</t>
   </si>
   <si>
     <t>音量加/音量减</t>
@@ -241,10 +247,7 @@
     <t>选择任务栏图标</t>
   </si>
   <si>
-    <t>窗口调节（小</t>
-  </si>
-  <si>
-    <t>o</t>
+    <t>O</t>
   </si>
   <si>
     <t>喜欢歌曲</t>
@@ -262,22 +265,37 @@
     <t>打开“连接”快速操作</t>
   </si>
   <si>
-    <t>窗口调节（大</t>
-  </si>
-  <si>
-    <t>p</t>
+    <t>[RShift]</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>打开/关闭歌词</t>
   </si>
   <si>
+    <t>RWin LWin</t>
+  </si>
+  <si>
+    <t>暂停脚本</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>打开连接</t>
   </si>
   <si>
-    <t>移动窗口</t>
+    <t>隐藏快捷键帮助</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>复制文件路径</t>
+  </si>
+  <si>
+    <t>显示快捷键帮助</t>
   </si>
   <si>
     <t>RWin RAlt</t>
@@ -286,10 +304,10 @@
     <t>Alt F4</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>复制文件路径</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>显示隐藏任务栏</t>
   </si>
   <si>
     <t>RAlt RWin</t>
@@ -298,27 +316,12 @@
     <t>Ctrl W</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>显示隐藏任务栏</t>
-  </si>
-  <si>
-    <t>[RShift]</t>
-  </si>
-  <si>
-    <t>隐藏快捷键帮助</t>
-  </si>
-  <si>
     <t>AppsKey RWin</t>
   </si>
   <si>
     <t>窗口 Mini</t>
   </si>
   <si>
-    <t>显示快捷键帮助</t>
-  </si>
-  <si>
     <t>RWin AppsKey</t>
   </si>
   <si>
@@ -374,9 +377,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>PowerShell</t>
@@ -2557,9 +2557,6 @@
     <t>色彩度+1%</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>上一文件</t>
   </si>
   <si>
@@ -3012,10 +3009,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3061,9 +3058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,14 +3073,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3123,45 +3119,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3183,6 +3148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3195,6 +3184,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3220,43 +3217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,43 +3229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,37 +3265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3364,7 +3295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,7 +3319,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3388,19 +3373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,17 +3580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3637,13 +3628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3653,15 +3648,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3680,6 +3666,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3691,7 +3688,7 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3700,16 +3697,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3718,119 +3715,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4113,12 +4110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4137,8 +4128,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4149,20 +4140,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5459,31 +5453,31 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="1" max="1" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="2" max="2" width="6.7787610619469" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1946902654867" style="98" customWidth="1"/>
-    <col min="4" max="4" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.1946902654867" style="96" customWidth="1"/>
+    <col min="4" max="4" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="5" max="5" width="3.5929203539823" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.9557522123894" style="73" customWidth="1"/>
-    <col min="7" max="7" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="8" max="8" width="6.74336283185841" style="97" customWidth="1"/>
-    <col min="9" max="9" width="7.90265486725664" style="97" customWidth="1"/>
-    <col min="10" max="10" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="11" max="11" width="3.65486725663717" style="97" customWidth="1"/>
-    <col min="12" max="12" width="10.2300884955752" style="97" customWidth="1"/>
-    <col min="13" max="13" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="14" max="14" width="1.60176991150442" style="99" customWidth="1"/>
-    <col min="15" max="15" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="7" max="7" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="8" max="8" width="6.74336283185841" style="95" customWidth="1"/>
+    <col min="9" max="9" width="7.90265486725664" style="95" customWidth="1"/>
+    <col min="10" max="10" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="11" max="11" width="3.65486725663717" style="95" customWidth="1"/>
+    <col min="12" max="12" width="10.2300884955752" style="95" customWidth="1"/>
+    <col min="13" max="13" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="14" max="14" width="1.60176991150442" style="97" customWidth="1"/>
+    <col min="15" max="15" width="1.60176991150442" style="95" customWidth="1"/>
     <col min="16" max="16" width="5.24778761061947" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.7610619469027" style="97" customWidth="1"/>
-    <col min="18" max="18" width="1.60176991150442" style="97" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="97"/>
+    <col min="17" max="17" width="10.7610619469027" style="95" customWidth="1"/>
+    <col min="18" max="18" width="1.60176991150442" style="95" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -5494,30 +5488,30 @@
       <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="98"/>
       <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="98"/>
       <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
-      <c r="P2" s="105" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="P2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="100"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="11"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -5529,22 +5523,22 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="99" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="106" t="s">
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="115"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="104"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="114"/>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="11"/>
@@ -5554,7 +5548,7 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="119" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -5566,164 +5560,164 @@
       <c r="I4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="P4" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="116"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" customHeight="1" spans="2:17">
       <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="H5" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="K5" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="L5" s="98"/>
+      <c r="P5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="Q5" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:17">
       <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="K6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="L6" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="104"/>
+      <c r="P6" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="107"/>
-      <c r="P6" s="121" t="s">
+      <c r="Q6" s="116" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="117" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:17">
       <c r="B7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="109"/>
+      <c r="K7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="93" t="s">
+      <c r="L7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="P7" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="P7" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="116"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="120" t="s">
+      <c r="F8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="I8" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="K8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="110" t="s">
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
+      <c r="P8" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="P8" s="88" t="s">
+      <c r="Q8" s="89" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="89" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:17">
       <c r="B9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="I9" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="K9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
       <c r="P9" s="90" t="s">
         <v>62</v>
       </c>
@@ -5745,174 +5739,168 @@
       <c r="F10" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="H10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>68</v>
+      </c>
       <c r="K10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="122" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="L10" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="121" t="s">
+        <v>48</v>
       </c>
       <c r="Q10" s="91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="4:17">
       <c r="D11" s="11"/>
       <c r="E11" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
-      <c r="K11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="93" t="s">
-        <v>71</v>
-      </c>
       <c r="P11" s="90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:17">
-      <c r="B12" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="102" t="s">
+      <c r="B12" s="19" t="s">
         <v>75</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="98"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
       <c r="P12" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="118" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="4:12">
+      <c r="Q12" s="117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:12">
+      <c r="B13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:6">
-      <c r="B14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="92" t="s">
         <v>85</v>
       </c>
+      <c r="K13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="4:12">
       <c r="D14" s="11"/>
       <c r="E14" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:12">
-      <c r="B15" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="K14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="94" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:10">
+      <c r="B15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>91</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="123" t="s">
-        <v>90</v>
+      <c r="E15" s="122" t="s">
+        <v>92</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="103"/>
-      <c r="K15" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="100"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+        <v>93</v>
+      </c>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:4">
+      <c r="B16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>95</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="K16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="92" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
-      <c r="B17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="97"/>
-      <c r="K17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="96" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="96" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="11:12">
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
+      <c r="C19" s="94" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="10:14">
-      <c r="J20" s="113"/>
+      <c r="J20" s="112"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="114"/>
-    </row>
-    <row r="24" customHeight="1" spans="11:12">
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
+      <c r="N20" s="113"/>
+    </row>
+    <row r="22" customHeight="1" spans="11:12">
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
     </row>
     <row r="25" customHeight="1" spans="8:10">
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" customHeight="1" spans="13:13">
       <c r="M26" s="73"/>
@@ -5924,12 +5912,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="P2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5964,13 +5952,13 @@
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -5978,10 +5966,10 @@
         <v>130</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>814</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
@@ -5989,21 +5977,21 @@
         <v>132</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>816</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>819</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -6011,50 +5999,50 @@
         <v>607</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>821</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="15" t="s">
-        <v>706</v>
+        <v>73</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="17" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:5">
       <c r="B9" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="124" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>826</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>827</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -6090,27 +6078,27 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>401</v>
@@ -6118,13 +6106,13 @@
     </row>
     <row r="4" customHeight="1" spans="2:6">
       <c r="B4" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>425</v>
@@ -6132,13 +6120,13 @@
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>197</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>407</v>
@@ -6148,21 +6136,21 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="E6" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>837</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>838</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>485</v>
@@ -6170,69 +6158,69 @@
     </row>
     <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>840</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>843</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:6">
       <c r="B10" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>846</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:6">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:6">
       <c r="B12" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>850</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:6">
       <c r="B13" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>562</v>
@@ -6242,24 +6230,24 @@
     </row>
     <row r="14" customHeight="1" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>570</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>854</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -6274,7 +6262,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -6292,7 +6280,7 @@
     </row>
     <row r="2" customHeight="1" spans="2:6">
       <c r="B2" s="86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="87"/>
       <c r="E2" s=